--- a/01_进度管理/QP_WMS_Detail Schedule_20150421.xlsx
+++ b/01_进度管理/QP_WMS_Detail Schedule_20150421.xlsx
@@ -13,7 +13,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">詳細WBS!$A:$L,詳細WBS!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3240,7 +3239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3712,56 +3711,68 @@
     <xf numFmtId="0" fontId="54" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3799,11 +3810,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3849,8 +3937,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3914,10 +4008,19 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3926,34 +4029,8 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3968,12 +4045,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3998,6 +4069,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4111,6 +4209,33 @@
     <xf numFmtId="0" fontId="45" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4136,45 +4261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4212,12 +4298,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4261,38 +4341,29 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4306,7 +4377,49 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4318,118 +4431,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4438,112 +4440,7 @@
     <cellStyle name="標準_実現化フェーズ" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -5570,10 +5467,10 @@
   <dimension ref="A1:GD191"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="X26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AE59" sqref="AE59"/>
+      <selection pane="bottomRight" activeCell="AE68" sqref="AE68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5615,21 +5512,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:186" s="59" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="295" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="287" t="s">
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="320" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
       <c r="L1" s="122" t="s">
         <v>55</v>
       </c>
@@ -5668,59 +5565,59 @@
       <c r="AQ1" s="114"/>
       <c r="AR1" s="114"/>
       <c r="AS1" s="114"/>
-      <c r="AT1" s="251"/>
-      <c r="AU1" s="251"/>
-      <c r="AV1" s="251"/>
-      <c r="AW1" s="251"/>
-      <c r="AX1" s="251"/>
-      <c r="AY1" s="251"/>
-      <c r="AZ1" s="251"/>
-      <c r="BA1" s="251"/>
-      <c r="BB1" s="251"/>
-      <c r="BC1" s="251"/>
-      <c r="BD1" s="251"/>
-      <c r="BE1" s="251"/>
-      <c r="BF1" s="251"/>
-      <c r="BG1" s="251"/>
-      <c r="BH1" s="251"/>
-      <c r="BI1" s="251"/>
-      <c r="BJ1" s="251"/>
-      <c r="BK1" s="251"/>
-      <c r="BL1" s="251"/>
-      <c r="BM1" s="251"/>
-      <c r="BN1" s="251"/>
-      <c r="BO1" s="251"/>
-      <c r="BP1" s="251"/>
-      <c r="BQ1" s="251"/>
-      <c r="BR1" s="251"/>
-      <c r="BS1" s="251"/>
-      <c r="BT1" s="251"/>
-      <c r="BU1" s="251"/>
-      <c r="BV1" s="251"/>
-      <c r="BW1" s="251"/>
-      <c r="BX1" s="251"/>
-      <c r="BY1" s="251"/>
-      <c r="BZ1" s="251"/>
-      <c r="CA1" s="251"/>
-      <c r="CB1" s="251"/>
-      <c r="CC1" s="251"/>
-      <c r="CD1" s="251"/>
-      <c r="CE1" s="251"/>
-      <c r="CF1" s="251"/>
-      <c r="CG1" s="251"/>
-      <c r="CH1" s="251"/>
-      <c r="CI1" s="251"/>
-      <c r="CJ1" s="251"/>
-      <c r="CK1" s="251"/>
-      <c r="CL1" s="251"/>
+      <c r="AT1" s="284"/>
+      <c r="AU1" s="284"/>
+      <c r="AV1" s="284"/>
+      <c r="AW1" s="284"/>
+      <c r="AX1" s="284"/>
+      <c r="AY1" s="284"/>
+      <c r="AZ1" s="284"/>
+      <c r="BA1" s="284"/>
+      <c r="BB1" s="284"/>
+      <c r="BC1" s="284"/>
+      <c r="BD1" s="284"/>
+      <c r="BE1" s="284"/>
+      <c r="BF1" s="284"/>
+      <c r="BG1" s="284"/>
+      <c r="BH1" s="284"/>
+      <c r="BI1" s="284"/>
+      <c r="BJ1" s="284"/>
+      <c r="BK1" s="284"/>
+      <c r="BL1" s="284"/>
+      <c r="BM1" s="284"/>
+      <c r="BN1" s="284"/>
+      <c r="BO1" s="284"/>
+      <c r="BP1" s="284"/>
+      <c r="BQ1" s="284"/>
+      <c r="BR1" s="284"/>
+      <c r="BS1" s="284"/>
+      <c r="BT1" s="284"/>
+      <c r="BU1" s="284"/>
+      <c r="BV1" s="284"/>
+      <c r="BW1" s="284"/>
+      <c r="BX1" s="284"/>
+      <c r="BY1" s="284"/>
+      <c r="BZ1" s="284"/>
+      <c r="CA1" s="284"/>
+      <c r="CB1" s="284"/>
+      <c r="CC1" s="284"/>
+      <c r="CD1" s="284"/>
+      <c r="CE1" s="284"/>
+      <c r="CF1" s="284"/>
+      <c r="CG1" s="284"/>
+      <c r="CH1" s="284"/>
+      <c r="CI1" s="284"/>
+      <c r="CJ1" s="284"/>
+      <c r="CK1" s="284"/>
+      <c r="CL1" s="284"/>
     </row>
     <row r="2" spans="1:186" s="58" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="287"/>
       <c r="E2" s="121" t="s">
         <v>56</v>
       </c>
@@ -5734,7 +5631,7 @@
         <v>132</v>
       </c>
       <c r="K2" s="112"/>
-      <c r="L2" s="285">
+      <c r="L2" s="318">
         <v>0.1</v>
       </c>
       <c r="M2" s="148" t="s">
@@ -5772,57 +5669,57 @@
       <c r="AQ2" s="115"/>
       <c r="AR2" s="115"/>
       <c r="AS2" s="115"/>
-      <c r="AT2" s="256"/>
-      <c r="AU2" s="256"/>
-      <c r="AV2" s="256"/>
-      <c r="AW2" s="256"/>
-      <c r="AX2" s="256"/>
-      <c r="AY2" s="256"/>
-      <c r="AZ2" s="256"/>
-      <c r="BA2" s="256"/>
-      <c r="BB2" s="256"/>
-      <c r="BC2" s="256"/>
-      <c r="BD2" s="256"/>
-      <c r="BE2" s="256"/>
-      <c r="BF2" s="256"/>
-      <c r="BG2" s="256"/>
-      <c r="BH2" s="256"/>
-      <c r="BI2" s="256"/>
-      <c r="BJ2" s="256"/>
-      <c r="BK2" s="259"/>
-      <c r="BL2" s="259"/>
-      <c r="BM2" s="259"/>
-      <c r="BN2" s="259"/>
-      <c r="BO2" s="259"/>
-      <c r="BP2" s="259"/>
-      <c r="BQ2" s="259"/>
-      <c r="BR2" s="251"/>
-      <c r="BS2" s="251"/>
-      <c r="BT2" s="251"/>
-      <c r="BU2" s="251"/>
-      <c r="BV2" s="251"/>
-      <c r="BW2" s="251"/>
-      <c r="BX2" s="251"/>
-      <c r="BY2" s="259"/>
-      <c r="BZ2" s="259"/>
-      <c r="CA2" s="259"/>
-      <c r="CB2" s="259"/>
-      <c r="CC2" s="259"/>
-      <c r="CD2" s="259"/>
-      <c r="CE2" s="259"/>
-      <c r="CF2" s="251"/>
-      <c r="CG2" s="251"/>
-      <c r="CH2" s="251"/>
-      <c r="CI2" s="251"/>
-      <c r="CJ2" s="251"/>
-      <c r="CK2" s="251"/>
-      <c r="CL2" s="251"/>
+      <c r="AT2" s="289"/>
+      <c r="AU2" s="289"/>
+      <c r="AV2" s="289"/>
+      <c r="AW2" s="289"/>
+      <c r="AX2" s="289"/>
+      <c r="AY2" s="289"/>
+      <c r="AZ2" s="289"/>
+      <c r="BA2" s="289"/>
+      <c r="BB2" s="289"/>
+      <c r="BC2" s="289"/>
+      <c r="BD2" s="289"/>
+      <c r="BE2" s="289"/>
+      <c r="BF2" s="289"/>
+      <c r="BG2" s="289"/>
+      <c r="BH2" s="289"/>
+      <c r="BI2" s="289"/>
+      <c r="BJ2" s="289"/>
+      <c r="BK2" s="292"/>
+      <c r="BL2" s="292"/>
+      <c r="BM2" s="292"/>
+      <c r="BN2" s="292"/>
+      <c r="BO2" s="292"/>
+      <c r="BP2" s="292"/>
+      <c r="BQ2" s="292"/>
+      <c r="BR2" s="284"/>
+      <c r="BS2" s="284"/>
+      <c r="BT2" s="284"/>
+      <c r="BU2" s="284"/>
+      <c r="BV2" s="284"/>
+      <c r="BW2" s="284"/>
+      <c r="BX2" s="284"/>
+      <c r="BY2" s="292"/>
+      <c r="BZ2" s="292"/>
+      <c r="CA2" s="292"/>
+      <c r="CB2" s="292"/>
+      <c r="CC2" s="292"/>
+      <c r="CD2" s="292"/>
+      <c r="CE2" s="292"/>
+      <c r="CF2" s="284"/>
+      <c r="CG2" s="284"/>
+      <c r="CH2" s="284"/>
+      <c r="CI2" s="284"/>
+      <c r="CJ2" s="284"/>
+      <c r="CK2" s="284"/>
+      <c r="CL2" s="284"/>
     </row>
     <row r="3" spans="1:186" s="58" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="255"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257"/>
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="117"/>
       <c r="F3" s="113"/>
       <c r="G3" s="113"/>
@@ -5834,7 +5731,7 @@
         <v>133</v>
       </c>
       <c r="K3" s="113"/>
-      <c r="L3" s="286"/>
+      <c r="L3" s="319"/>
       <c r="M3" s="116"/>
       <c r="N3" s="116"/>
       <c r="O3" s="116"/>
@@ -5868,51 +5765,51 @@
       <c r="AQ3" s="116"/>
       <c r="AR3" s="116"/>
       <c r="AS3" s="116"/>
-      <c r="AT3" s="258"/>
-      <c r="AU3" s="258"/>
-      <c r="AV3" s="258"/>
-      <c r="AW3" s="258"/>
-      <c r="AX3" s="258"/>
-      <c r="AY3" s="258"/>
-      <c r="AZ3" s="258"/>
-      <c r="BA3" s="258"/>
-      <c r="BB3" s="258"/>
-      <c r="BC3" s="258"/>
-      <c r="BD3" s="258"/>
-      <c r="BE3" s="258"/>
-      <c r="BF3" s="258"/>
-      <c r="BG3" s="258"/>
-      <c r="BH3" s="258"/>
-      <c r="BI3" s="258"/>
-      <c r="BJ3" s="258"/>
-      <c r="BK3" s="260"/>
-      <c r="BL3" s="260"/>
-      <c r="BM3" s="260"/>
-      <c r="BN3" s="260"/>
-      <c r="BO3" s="260"/>
-      <c r="BP3" s="260"/>
-      <c r="BQ3" s="260"/>
-      <c r="BR3" s="261"/>
-      <c r="BS3" s="261"/>
-      <c r="BT3" s="261"/>
-      <c r="BU3" s="261"/>
-      <c r="BV3" s="261"/>
-      <c r="BW3" s="261"/>
-      <c r="BX3" s="261"/>
-      <c r="BY3" s="260"/>
-      <c r="BZ3" s="260"/>
-      <c r="CA3" s="260"/>
-      <c r="CB3" s="260"/>
-      <c r="CC3" s="260"/>
-      <c r="CD3" s="260"/>
-      <c r="CE3" s="260"/>
-      <c r="CF3" s="261"/>
-      <c r="CG3" s="261"/>
-      <c r="CH3" s="261"/>
-      <c r="CI3" s="261"/>
-      <c r="CJ3" s="261"/>
-      <c r="CK3" s="261"/>
-      <c r="CL3" s="261"/>
+      <c r="AT3" s="291"/>
+      <c r="AU3" s="291"/>
+      <c r="AV3" s="291"/>
+      <c r="AW3" s="291"/>
+      <c r="AX3" s="291"/>
+      <c r="AY3" s="291"/>
+      <c r="AZ3" s="291"/>
+      <c r="BA3" s="291"/>
+      <c r="BB3" s="291"/>
+      <c r="BC3" s="291"/>
+      <c r="BD3" s="291"/>
+      <c r="BE3" s="291"/>
+      <c r="BF3" s="291"/>
+      <c r="BG3" s="291"/>
+      <c r="BH3" s="291"/>
+      <c r="BI3" s="291"/>
+      <c r="BJ3" s="291"/>
+      <c r="BK3" s="293"/>
+      <c r="BL3" s="293"/>
+      <c r="BM3" s="293"/>
+      <c r="BN3" s="293"/>
+      <c r="BO3" s="293"/>
+      <c r="BP3" s="293"/>
+      <c r="BQ3" s="293"/>
+      <c r="BR3" s="294"/>
+      <c r="BS3" s="294"/>
+      <c r="BT3" s="294"/>
+      <c r="BU3" s="294"/>
+      <c r="BV3" s="294"/>
+      <c r="BW3" s="294"/>
+      <c r="BX3" s="294"/>
+      <c r="BY3" s="293"/>
+      <c r="BZ3" s="293"/>
+      <c r="CA3" s="293"/>
+      <c r="CB3" s="293"/>
+      <c r="CC3" s="293"/>
+      <c r="CD3" s="293"/>
+      <c r="CE3" s="293"/>
+      <c r="CF3" s="294"/>
+      <c r="CG3" s="294"/>
+      <c r="CH3" s="294"/>
+      <c r="CI3" s="294"/>
+      <c r="CJ3" s="294"/>
+      <c r="CK3" s="294"/>
+      <c r="CL3" s="294"/>
     </row>
     <row r="4" spans="1:186" s="53" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="57"/>
@@ -5958,447 +5855,447 @@
       <c r="CW4" s="54"/>
     </row>
     <row r="5" spans="1:186" s="51" customFormat="1">
-      <c r="A5" s="265" t="s">
+      <c r="A5" s="298" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="266"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
       <c r="J5" s="52"/>
       <c r="K5" s="64"/>
       <c r="L5" s="123"/>
-      <c r="M5" s="391"/>
-      <c r="N5" s="392"/>
-      <c r="O5" s="392" t="s">
+      <c r="M5" s="174"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="392"/>
-      <c r="Q5" s="392"/>
-      <c r="R5" s="392"/>
-      <c r="S5" s="392"/>
-      <c r="T5" s="393"/>
-      <c r="U5" s="394"/>
-      <c r="V5" s="394"/>
-      <c r="W5" s="392" t="s">
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="X5" s="392"/>
-      <c r="Y5" s="392"/>
-      <c r="Z5" s="392"/>
-      <c r="AA5" s="392"/>
-      <c r="AB5" s="390"/>
-      <c r="AC5" s="390"/>
-      <c r="AD5" s="390"/>
-      <c r="AE5" s="390"/>
-      <c r="AF5" s="390"/>
-      <c r="AG5" s="390"/>
-      <c r="AH5" s="389"/>
-      <c r="AI5" s="389" t="s">
+      <c r="X5" s="175"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="AJ5" s="389"/>
-      <c r="AK5" s="389"/>
-      <c r="AL5" s="389"/>
-      <c r="AM5" s="389"/>
-      <c r="AN5" s="389"/>
-      <c r="AO5" s="389"/>
-      <c r="AP5" s="389"/>
-      <c r="AQ5" s="389"/>
-      <c r="AR5" s="389"/>
-      <c r="AS5" s="389"/>
-      <c r="AT5" s="389"/>
-      <c r="AU5" s="389"/>
-      <c r="AV5" s="389"/>
-      <c r="AW5" s="389"/>
-      <c r="AX5" s="389"/>
-      <c r="AY5" s="389"/>
-      <c r="AZ5" s="389"/>
-      <c r="BA5" s="389"/>
-      <c r="BB5" s="389"/>
-      <c r="BC5" s="389" t="s">
+      <c r="AJ5" s="172"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="172"/>
+      <c r="AM5" s="172"/>
+      <c r="AN5" s="172"/>
+      <c r="AO5" s="172"/>
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="172"/>
+      <c r="AR5" s="172"/>
+      <c r="AS5" s="172"/>
+      <c r="AT5" s="172"/>
+      <c r="AU5" s="172"/>
+      <c r="AV5" s="172"/>
+      <c r="AW5" s="172"/>
+      <c r="AX5" s="172"/>
+      <c r="AY5" s="172"/>
+      <c r="AZ5" s="172"/>
+      <c r="BA5" s="172"/>
+      <c r="BB5" s="172"/>
+      <c r="BC5" s="172" t="s">
         <v>159</v>
       </c>
-      <c r="BD5" s="389"/>
-      <c r="BE5" s="389"/>
-      <c r="BF5" s="389"/>
-      <c r="BG5" s="389"/>
-      <c r="BH5" s="389"/>
-      <c r="BI5" s="389"/>
-      <c r="BJ5" s="389"/>
-      <c r="BK5" s="389"/>
-      <c r="BL5" s="389"/>
-      <c r="BM5" s="387"/>
-      <c r="BN5" s="387"/>
-      <c r="BO5" s="387"/>
-      <c r="BP5" s="387"/>
-      <c r="BQ5" s="387"/>
-      <c r="BR5" s="387"/>
-      <c r="BS5" s="387"/>
-      <c r="BT5" s="387"/>
-      <c r="BU5" s="387"/>
-      <c r="BV5" s="387"/>
-      <c r="BW5" s="387"/>
-      <c r="BX5" s="387"/>
-      <c r="BY5" s="387"/>
-      <c r="BZ5" s="387"/>
-      <c r="CA5" s="387"/>
-      <c r="CB5" s="387" t="s">
+      <c r="BD5" s="172"/>
+      <c r="BE5" s="172"/>
+      <c r="BF5" s="172"/>
+      <c r="BG5" s="172"/>
+      <c r="BH5" s="172"/>
+      <c r="BI5" s="172"/>
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="172"/>
+      <c r="BL5" s="172"/>
+      <c r="BM5" s="170"/>
+      <c r="BN5" s="170"/>
+      <c r="BO5" s="170"/>
+      <c r="BP5" s="170"/>
+      <c r="BQ5" s="170"/>
+      <c r="BR5" s="170"/>
+      <c r="BS5" s="170"/>
+      <c r="BT5" s="170"/>
+      <c r="BU5" s="170"/>
+      <c r="BV5" s="170"/>
+      <c r="BW5" s="170"/>
+      <c r="BX5" s="170"/>
+      <c r="BY5" s="170"/>
+      <c r="BZ5" s="170"/>
+      <c r="CA5" s="170"/>
+      <c r="CB5" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="CC5" s="387"/>
-      <c r="CD5" s="387"/>
-      <c r="CE5" s="387"/>
-      <c r="CF5" s="387"/>
-      <c r="CG5" s="387"/>
-      <c r="CH5" s="387"/>
-      <c r="CI5" s="387"/>
-      <c r="CJ5" s="387"/>
-      <c r="CK5" s="387"/>
-      <c r="CL5" s="387"/>
-      <c r="CM5" s="387"/>
-      <c r="CN5" s="387"/>
-      <c r="CO5" s="387"/>
-      <c r="CP5" s="387"/>
-      <c r="CQ5" s="387"/>
-      <c r="CR5" s="387"/>
-      <c r="CS5" s="387"/>
-      <c r="CT5" s="387"/>
-      <c r="CU5" s="387"/>
-      <c r="CV5" s="387"/>
-      <c r="CW5" s="387"/>
-      <c r="CX5" s="387"/>
-      <c r="CY5" s="387"/>
-      <c r="CZ5" s="387"/>
-      <c r="DA5" s="387"/>
-      <c r="DB5" s="387"/>
-      <c r="DC5" s="387"/>
-      <c r="DD5" s="387"/>
-      <c r="DE5" s="387"/>
-      <c r="DF5" s="388"/>
-      <c r="DG5" s="357"/>
+      <c r="CC5" s="170"/>
+      <c r="CD5" s="170"/>
+      <c r="CE5" s="170"/>
+      <c r="CF5" s="170"/>
+      <c r="CG5" s="170"/>
+      <c r="CH5" s="170"/>
+      <c r="CI5" s="170"/>
+      <c r="CJ5" s="170"/>
+      <c r="CK5" s="170"/>
+      <c r="CL5" s="170"/>
+      <c r="CM5" s="170"/>
+      <c r="CN5" s="170"/>
+      <c r="CO5" s="170"/>
+      <c r="CP5" s="170"/>
+      <c r="CQ5" s="170"/>
+      <c r="CR5" s="170"/>
+      <c r="CS5" s="170"/>
+      <c r="CT5" s="170"/>
+      <c r="CU5" s="170"/>
+      <c r="CV5" s="170"/>
+      <c r="CW5" s="170"/>
+      <c r="CX5" s="170"/>
+      <c r="CY5" s="170"/>
+      <c r="CZ5" s="170"/>
+      <c r="DA5" s="170"/>
+      <c r="DB5" s="170"/>
+      <c r="DC5" s="170"/>
+      <c r="DD5" s="170"/>
+      <c r="DE5" s="170"/>
+      <c r="DF5" s="171"/>
+      <c r="DG5" s="157"/>
       <c r="DH5" s="155"/>
-      <c r="DI5" s="364"/>
-      <c r="DJ5" s="364"/>
-      <c r="DK5" s="364"/>
-      <c r="DL5" s="364"/>
-      <c r="DM5" s="366" t="s">
+      <c r="DI5" s="162"/>
+      <c r="DJ5" s="162"/>
+      <c r="DK5" s="162"/>
+      <c r="DL5" s="162"/>
+      <c r="DM5" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="DN5" s="364"/>
-      <c r="DO5" s="364"/>
-      <c r="DP5" s="364"/>
-      <c r="DQ5" s="364"/>
-      <c r="DR5" s="364"/>
-      <c r="DS5" s="364"/>
-      <c r="DT5" s="364"/>
-      <c r="DU5" s="364"/>
-      <c r="DV5" s="364"/>
-      <c r="DW5" s="364"/>
-      <c r="DX5" s="364"/>
-      <c r="DY5" s="364"/>
-      <c r="DZ5" s="364"/>
-      <c r="EA5" s="364"/>
-      <c r="EB5" s="364"/>
-      <c r="EC5" s="364"/>
-      <c r="ED5" s="364"/>
-      <c r="EE5" s="364" t="s">
+      <c r="DN5" s="162"/>
+      <c r="DO5" s="162"/>
+      <c r="DP5" s="162"/>
+      <c r="DQ5" s="162"/>
+      <c r="DR5" s="162"/>
+      <c r="DS5" s="162"/>
+      <c r="DT5" s="162"/>
+      <c r="DU5" s="162"/>
+      <c r="DV5" s="162"/>
+      <c r="DW5" s="162"/>
+      <c r="DX5" s="162"/>
+      <c r="DY5" s="162"/>
+      <c r="DZ5" s="162"/>
+      <c r="EA5" s="162"/>
+      <c r="EB5" s="162"/>
+      <c r="EC5" s="162"/>
+      <c r="ED5" s="162"/>
+      <c r="EE5" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="EF5" s="364"/>
-      <c r="EG5" s="364"/>
-      <c r="EH5" s="364"/>
-      <c r="EI5" s="364"/>
-      <c r="EJ5" s="365"/>
-      <c r="EK5" s="363"/>
-      <c r="EL5" s="364"/>
-      <c r="EM5" s="364"/>
-      <c r="EN5" s="364"/>
-      <c r="EO5" s="364" t="s">
+      <c r="EF5" s="162"/>
+      <c r="EG5" s="162"/>
+      <c r="EH5" s="162"/>
+      <c r="EI5" s="162"/>
+      <c r="EJ5" s="163"/>
+      <c r="EK5" s="161"/>
+      <c r="EL5" s="162"/>
+      <c r="EM5" s="162"/>
+      <c r="EN5" s="162"/>
+      <c r="EO5" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="EP5" s="364"/>
-      <c r="EQ5" s="364"/>
-      <c r="ER5" s="364"/>
-      <c r="ES5" s="364"/>
-      <c r="ET5" s="364"/>
-      <c r="EU5" s="364"/>
-      <c r="EV5" s="364"/>
-      <c r="EW5" s="364"/>
-      <c r="EX5" s="364"/>
-      <c r="EY5" s="364"/>
-      <c r="EZ5" s="364"/>
-      <c r="FA5" s="364"/>
-      <c r="FB5" s="364"/>
-      <c r="FC5" s="364" t="s">
+      <c r="EP5" s="162"/>
+      <c r="EQ5" s="162"/>
+      <c r="ER5" s="162"/>
+      <c r="ES5" s="162"/>
+      <c r="ET5" s="162"/>
+      <c r="EU5" s="162"/>
+      <c r="EV5" s="162"/>
+      <c r="EW5" s="162"/>
+      <c r="EX5" s="162"/>
+      <c r="EY5" s="162"/>
+      <c r="EZ5" s="162"/>
+      <c r="FA5" s="162"/>
+      <c r="FB5" s="162"/>
+      <c r="FC5" s="162" t="s">
         <v>162</v>
       </c>
-      <c r="FD5" s="364"/>
-      <c r="FE5" s="364"/>
-      <c r="FF5" s="364"/>
-      <c r="FG5" s="364"/>
-      <c r="FH5" s="364"/>
-      <c r="FI5" s="364"/>
-      <c r="FJ5" s="364"/>
-      <c r="FK5" s="364"/>
-      <c r="FL5" s="364"/>
-      <c r="FM5" s="364"/>
-      <c r="FN5" s="364"/>
-      <c r="FO5" s="364"/>
-      <c r="FP5" s="364"/>
-      <c r="FQ5" s="364"/>
-      <c r="FR5" s="364"/>
-      <c r="FS5" s="364"/>
-      <c r="FT5" s="364"/>
-      <c r="FU5" s="364"/>
-      <c r="FV5" s="364"/>
-      <c r="FW5" s="364"/>
-      <c r="FX5" s="364"/>
-      <c r="FY5" s="364"/>
-      <c r="FZ5" s="364"/>
-      <c r="GA5" s="364"/>
-      <c r="GB5" s="364"/>
-      <c r="GC5" s="364"/>
-      <c r="GD5" s="365"/>
+      <c r="FD5" s="162"/>
+      <c r="FE5" s="162"/>
+      <c r="FF5" s="162"/>
+      <c r="FG5" s="162"/>
+      <c r="FH5" s="162"/>
+      <c r="FI5" s="162"/>
+      <c r="FJ5" s="162"/>
+      <c r="FK5" s="162"/>
+      <c r="FL5" s="162"/>
+      <c r="FM5" s="162"/>
+      <c r="FN5" s="162"/>
+      <c r="FO5" s="162"/>
+      <c r="FP5" s="162"/>
+      <c r="FQ5" s="162"/>
+      <c r="FR5" s="162"/>
+      <c r="FS5" s="162"/>
+      <c r="FT5" s="162"/>
+      <c r="FU5" s="162"/>
+      <c r="FV5" s="162"/>
+      <c r="FW5" s="162"/>
+      <c r="FX5" s="162"/>
+      <c r="FY5" s="162"/>
+      <c r="FZ5" s="162"/>
+      <c r="GA5" s="162"/>
+      <c r="GB5" s="162"/>
+      <c r="GC5" s="162"/>
+      <c r="GD5" s="163"/>
     </row>
     <row r="6" spans="1:186" s="50" customFormat="1" ht="14.25">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="300" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="273" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="306" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="275" t="s">
+      <c r="E6" s="308" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="276"/>
-      <c r="G6" s="277" t="s">
+      <c r="F6" s="309"/>
+      <c r="G6" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="284" t="s">
+      <c r="H6" s="317" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="282" t="s">
+      <c r="I6" s="315" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="279" t="s">
+      <c r="J6" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="280" t="s">
+      <c r="K6" s="313" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="360"/>
-      <c r="M6" s="157" t="s">
+      <c r="L6" s="389"/>
+      <c r="M6" s="325" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="157"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="157"/>
-      <c r="T6" s="157"/>
-      <c r="U6" s="157"/>
-      <c r="V6" s="157"/>
-      <c r="W6" s="157"/>
-      <c r="X6" s="157"/>
-      <c r="Y6" s="157"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="157"/>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="157"/>
-      <c r="AF6" s="157"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="159" t="s">
+      <c r="N6" s="325"/>
+      <c r="O6" s="325"/>
+      <c r="P6" s="325"/>
+      <c r="Q6" s="325"/>
+      <c r="R6" s="325"/>
+      <c r="S6" s="325"/>
+      <c r="T6" s="325"/>
+      <c r="U6" s="325"/>
+      <c r="V6" s="325"/>
+      <c r="W6" s="325"/>
+      <c r="X6" s="325"/>
+      <c r="Y6" s="325"/>
+      <c r="Z6" s="325"/>
+      <c r="AA6" s="325"/>
+      <c r="AB6" s="325"/>
+      <c r="AC6" s="325"/>
+      <c r="AD6" s="325"/>
+      <c r="AE6" s="325"/>
+      <c r="AF6" s="325"/>
+      <c r="AG6" s="326"/>
+      <c r="AH6" s="327" t="s">
         <v>149</v>
       </c>
-      <c r="AI6" s="160"/>
-      <c r="AJ6" s="160"/>
-      <c r="AK6" s="160"/>
-      <c r="AL6" s="160"/>
-      <c r="AM6" s="160"/>
-      <c r="AN6" s="160"/>
-      <c r="AO6" s="160"/>
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="160"/>
-      <c r="AS6" s="160"/>
-      <c r="AT6" s="160"/>
-      <c r="AU6" s="160"/>
-      <c r="AV6" s="160"/>
-      <c r="AW6" s="160"/>
-      <c r="AX6" s="160"/>
-      <c r="AY6" s="160"/>
-      <c r="AZ6" s="160"/>
-      <c r="BA6" s="160"/>
-      <c r="BB6" s="160"/>
-      <c r="BC6" s="160"/>
-      <c r="BD6" s="160"/>
-      <c r="BE6" s="160"/>
-      <c r="BF6" s="160"/>
-      <c r="BG6" s="160"/>
-      <c r="BH6" s="160"/>
-      <c r="BI6" s="160"/>
-      <c r="BJ6" s="160"/>
-      <c r="BK6" s="160"/>
-      <c r="BL6" s="161"/>
-      <c r="BM6" s="358" t="s">
+      <c r="AI6" s="328"/>
+      <c r="AJ6" s="328"/>
+      <c r="AK6" s="328"/>
+      <c r="AL6" s="328"/>
+      <c r="AM6" s="328"/>
+      <c r="AN6" s="328"/>
+      <c r="AO6" s="328"/>
+      <c r="AP6" s="328"/>
+      <c r="AQ6" s="328"/>
+      <c r="AR6" s="328"/>
+      <c r="AS6" s="328"/>
+      <c r="AT6" s="328"/>
+      <c r="AU6" s="328"/>
+      <c r="AV6" s="328"/>
+      <c r="AW6" s="328"/>
+      <c r="AX6" s="328"/>
+      <c r="AY6" s="328"/>
+      <c r="AZ6" s="328"/>
+      <c r="BA6" s="328"/>
+      <c r="BB6" s="328"/>
+      <c r="BC6" s="328"/>
+      <c r="BD6" s="328"/>
+      <c r="BE6" s="328"/>
+      <c r="BF6" s="328"/>
+      <c r="BG6" s="328"/>
+      <c r="BH6" s="328"/>
+      <c r="BI6" s="328"/>
+      <c r="BJ6" s="328"/>
+      <c r="BK6" s="328"/>
+      <c r="BL6" s="329"/>
+      <c r="BM6" s="385" t="s">
         <v>151</v>
       </c>
-      <c r="BN6" s="367"/>
-      <c r="BO6" s="367"/>
-      <c r="BP6" s="367"/>
-      <c r="BQ6" s="367"/>
-      <c r="BR6" s="367"/>
-      <c r="BS6" s="367"/>
-      <c r="BT6" s="367"/>
-      <c r="BU6" s="367"/>
-      <c r="BV6" s="367"/>
-      <c r="BW6" s="367"/>
-      <c r="BX6" s="367"/>
-      <c r="BY6" s="367"/>
-      <c r="BZ6" s="367"/>
-      <c r="CA6" s="367"/>
-      <c r="CB6" s="367"/>
-      <c r="CC6" s="367"/>
-      <c r="CD6" s="367"/>
-      <c r="CE6" s="367"/>
-      <c r="CF6" s="367"/>
-      <c r="CG6" s="367"/>
-      <c r="CH6" s="367"/>
-      <c r="CI6" s="367"/>
-      <c r="CJ6" s="367"/>
-      <c r="CK6" s="367"/>
-      <c r="CL6" s="367"/>
-      <c r="CM6" s="367"/>
-      <c r="CN6" s="367"/>
-      <c r="CO6" s="367"/>
-      <c r="CP6" s="368"/>
-      <c r="CQ6" s="159" t="s">
+      <c r="BN6" s="386"/>
+      <c r="BO6" s="386"/>
+      <c r="BP6" s="386"/>
+      <c r="BQ6" s="386"/>
+      <c r="BR6" s="386"/>
+      <c r="BS6" s="386"/>
+      <c r="BT6" s="386"/>
+      <c r="BU6" s="386"/>
+      <c r="BV6" s="386"/>
+      <c r="BW6" s="386"/>
+      <c r="BX6" s="386"/>
+      <c r="BY6" s="386"/>
+      <c r="BZ6" s="386"/>
+      <c r="CA6" s="386"/>
+      <c r="CB6" s="386"/>
+      <c r="CC6" s="386"/>
+      <c r="CD6" s="386"/>
+      <c r="CE6" s="386"/>
+      <c r="CF6" s="386"/>
+      <c r="CG6" s="386"/>
+      <c r="CH6" s="386"/>
+      <c r="CI6" s="386"/>
+      <c r="CJ6" s="386"/>
+      <c r="CK6" s="386"/>
+      <c r="CL6" s="386"/>
+      <c r="CM6" s="386"/>
+      <c r="CN6" s="386"/>
+      <c r="CO6" s="386"/>
+      <c r="CP6" s="387"/>
+      <c r="CQ6" s="327" t="s">
         <v>152</v>
       </c>
-      <c r="CR6" s="160"/>
-      <c r="CS6" s="160"/>
-      <c r="CT6" s="160"/>
-      <c r="CU6" s="160"/>
-      <c r="CV6" s="160"/>
-      <c r="CW6" s="160"/>
-      <c r="CX6" s="160"/>
-      <c r="CY6" s="160"/>
-      <c r="CZ6" s="160"/>
-      <c r="DA6" s="160"/>
-      <c r="DB6" s="160"/>
-      <c r="DC6" s="160"/>
-      <c r="DD6" s="160"/>
-      <c r="DE6" s="160"/>
-      <c r="DF6" s="160"/>
-      <c r="DG6" s="160"/>
-      <c r="DH6" s="160"/>
-      <c r="DI6" s="160"/>
-      <c r="DJ6" s="160"/>
-      <c r="DK6" s="160"/>
-      <c r="DL6" s="160"/>
-      <c r="DM6" s="160"/>
-      <c r="DN6" s="160"/>
-      <c r="DO6" s="160"/>
-      <c r="DP6" s="160"/>
-      <c r="DQ6" s="160"/>
-      <c r="DR6" s="160"/>
-      <c r="DS6" s="160"/>
-      <c r="DT6" s="160"/>
-      <c r="DU6" s="161"/>
-      <c r="DV6" s="342" t="s">
+      <c r="CR6" s="328"/>
+      <c r="CS6" s="328"/>
+      <c r="CT6" s="328"/>
+      <c r="CU6" s="328"/>
+      <c r="CV6" s="328"/>
+      <c r="CW6" s="328"/>
+      <c r="CX6" s="328"/>
+      <c r="CY6" s="328"/>
+      <c r="CZ6" s="328"/>
+      <c r="DA6" s="328"/>
+      <c r="DB6" s="328"/>
+      <c r="DC6" s="328"/>
+      <c r="DD6" s="328"/>
+      <c r="DE6" s="328"/>
+      <c r="DF6" s="328"/>
+      <c r="DG6" s="328"/>
+      <c r="DH6" s="328"/>
+      <c r="DI6" s="328"/>
+      <c r="DJ6" s="328"/>
+      <c r="DK6" s="328"/>
+      <c r="DL6" s="328"/>
+      <c r="DM6" s="328"/>
+      <c r="DN6" s="328"/>
+      <c r="DO6" s="328"/>
+      <c r="DP6" s="328"/>
+      <c r="DQ6" s="328"/>
+      <c r="DR6" s="328"/>
+      <c r="DS6" s="328"/>
+      <c r="DT6" s="328"/>
+      <c r="DU6" s="329"/>
+      <c r="DV6" s="377" t="s">
         <v>153</v>
       </c>
-      <c r="DW6" s="342"/>
-      <c r="DX6" s="342"/>
-      <c r="DY6" s="342"/>
-      <c r="DZ6" s="342"/>
-      <c r="EA6" s="342"/>
-      <c r="EB6" s="342"/>
-      <c r="EC6" s="342"/>
-      <c r="ED6" s="342"/>
-      <c r="EE6" s="342"/>
-      <c r="EF6" s="342"/>
-      <c r="EG6" s="342"/>
-      <c r="EH6" s="342"/>
-      <c r="EI6" s="342"/>
-      <c r="EJ6" s="342"/>
-      <c r="EK6" s="342"/>
-      <c r="EL6" s="342"/>
-      <c r="EM6" s="342"/>
-      <c r="EN6" s="342"/>
-      <c r="EO6" s="342"/>
-      <c r="EP6" s="342"/>
-      <c r="EQ6" s="342"/>
-      <c r="ER6" s="342"/>
-      <c r="ES6" s="342"/>
-      <c r="ET6" s="342"/>
-      <c r="EU6" s="342"/>
-      <c r="EV6" s="342"/>
-      <c r="EW6" s="342"/>
-      <c r="EX6" s="342"/>
-      <c r="EY6" s="342"/>
-      <c r="EZ6" s="342"/>
-      <c r="FA6" s="343" t="s">
+      <c r="DW6" s="377"/>
+      <c r="DX6" s="377"/>
+      <c r="DY6" s="377"/>
+      <c r="DZ6" s="377"/>
+      <c r="EA6" s="377"/>
+      <c r="EB6" s="377"/>
+      <c r="EC6" s="377"/>
+      <c r="ED6" s="377"/>
+      <c r="EE6" s="377"/>
+      <c r="EF6" s="377"/>
+      <c r="EG6" s="377"/>
+      <c r="EH6" s="377"/>
+      <c r="EI6" s="377"/>
+      <c r="EJ6" s="377"/>
+      <c r="EK6" s="377"/>
+      <c r="EL6" s="377"/>
+      <c r="EM6" s="377"/>
+      <c r="EN6" s="377"/>
+      <c r="EO6" s="377"/>
+      <c r="EP6" s="377"/>
+      <c r="EQ6" s="377"/>
+      <c r="ER6" s="377"/>
+      <c r="ES6" s="377"/>
+      <c r="ET6" s="377"/>
+      <c r="EU6" s="377"/>
+      <c r="EV6" s="377"/>
+      <c r="EW6" s="377"/>
+      <c r="EX6" s="377"/>
+      <c r="EY6" s="377"/>
+      <c r="EZ6" s="377"/>
+      <c r="FA6" s="378" t="s">
         <v>154</v>
       </c>
-      <c r="FB6" s="344"/>
-      <c r="FC6" s="344"/>
-      <c r="FD6" s="344"/>
-      <c r="FE6" s="344"/>
-      <c r="FF6" s="344"/>
-      <c r="FG6" s="344"/>
-      <c r="FH6" s="344"/>
-      <c r="FI6" s="344"/>
-      <c r="FJ6" s="344"/>
-      <c r="FK6" s="344"/>
-      <c r="FL6" s="344"/>
-      <c r="FM6" s="344"/>
-      <c r="FN6" s="344"/>
-      <c r="FO6" s="344"/>
-      <c r="FP6" s="344"/>
-      <c r="FQ6" s="344"/>
-      <c r="FR6" s="344"/>
-      <c r="FS6" s="344"/>
-      <c r="FT6" s="344"/>
-      <c r="FU6" s="344"/>
-      <c r="FV6" s="344"/>
-      <c r="FW6" s="344"/>
-      <c r="FX6" s="344"/>
-      <c r="FY6" s="344"/>
-      <c r="FZ6" s="344"/>
-      <c r="GA6" s="344"/>
-      <c r="GB6" s="344"/>
-      <c r="GC6" s="344"/>
-      <c r="GD6" s="344"/>
+      <c r="FB6" s="379"/>
+      <c r="FC6" s="379"/>
+      <c r="FD6" s="379"/>
+      <c r="FE6" s="379"/>
+      <c r="FF6" s="379"/>
+      <c r="FG6" s="379"/>
+      <c r="FH6" s="379"/>
+      <c r="FI6" s="379"/>
+      <c r="FJ6" s="379"/>
+      <c r="FK6" s="379"/>
+      <c r="FL6" s="379"/>
+      <c r="FM6" s="379"/>
+      <c r="FN6" s="379"/>
+      <c r="FO6" s="379"/>
+      <c r="FP6" s="379"/>
+      <c r="FQ6" s="379"/>
+      <c r="FR6" s="379"/>
+      <c r="FS6" s="379"/>
+      <c r="FT6" s="379"/>
+      <c r="FU6" s="379"/>
+      <c r="FV6" s="379"/>
+      <c r="FW6" s="379"/>
+      <c r="FX6" s="379"/>
+      <c r="FY6" s="379"/>
+      <c r="FZ6" s="379"/>
+      <c r="GA6" s="379"/>
+      <c r="GB6" s="379"/>
+      <c r="GC6" s="379"/>
+      <c r="GD6" s="379"/>
     </row>
     <row r="7" spans="1:186" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="270"/>
-      <c r="B7" s="271"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="274"/>
+      <c r="A7" s="303"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="307"/>
       <c r="E7" s="49" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="278"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="359">
+      <c r="G7" s="311"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="307"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="319"/>
+      <c r="M7" s="158">
         <v>10</v>
       </c>
       <c r="N7" s="46">
@@ -6922,19 +6819,19 @@
       </c>
     </row>
     <row r="8" spans="1:186" s="34" customFormat="1" ht="9" customHeight="1">
-      <c r="A8" s="299" t="s">
+      <c r="A8" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="276"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="321"/>
+      <c r="F8" s="321"/>
       <c r="G8" s="33"/>
       <c r="H8" s="72"/>
       <c r="I8" s="72"/>
-      <c r="J8" s="297"/>
-      <c r="K8" s="241"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="254"/>
       <c r="L8" s="45"/>
       <c r="M8" s="94"/>
       <c r="N8" s="27"/>
@@ -7112,17 +7009,17 @@
       <c r="GD8" s="32"/>
     </row>
     <row r="9" spans="1:186" s="34" customFormat="1" ht="9" customHeight="1">
-      <c r="A9" s="301"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
+      <c r="A9" s="277"/>
+      <c r="B9" s="276"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="322"/>
+      <c r="F9" s="322"/>
       <c r="G9" s="31"/>
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
-      <c r="J9" s="298"/>
-      <c r="K9" s="242"/>
+      <c r="J9" s="324"/>
+      <c r="K9" s="255"/>
       <c r="L9" s="44"/>
       <c r="M9" s="95"/>
       <c r="N9" s="23"/>
@@ -7300,19 +7197,19 @@
       <c r="GD9" s="30"/>
     </row>
     <row r="10" spans="1:186" ht="9" customHeight="1">
-      <c r="A10" s="288"/>
-      <c r="B10" s="290" t="s">
+      <c r="A10" s="330"/>
+      <c r="B10" s="332" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="290"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
+      <c r="C10" s="332"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="337"/>
+      <c r="F10" s="337"/>
       <c r="G10" s="33"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="297"/>
-      <c r="K10" s="241"/>
+      <c r="J10" s="323"/>
+      <c r="K10" s="254"/>
       <c r="L10" s="45"/>
       <c r="M10" s="94"/>
       <c r="N10" s="27"/>
@@ -7490,17 +7387,17 @@
       <c r="GD10" s="32"/>
     </row>
     <row r="11" spans="1:186" ht="9" customHeight="1">
-      <c r="A11" s="289"/>
-      <c r="B11" s="292"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="294"/>
-      <c r="E11" s="296"/>
-      <c r="F11" s="296"/>
+      <c r="A11" s="331"/>
+      <c r="B11" s="334"/>
+      <c r="C11" s="335"/>
+      <c r="D11" s="336"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
       <c r="G11" s="31"/>
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
-      <c r="J11" s="298"/>
-      <c r="K11" s="242"/>
+      <c r="J11" s="324"/>
+      <c r="K11" s="255"/>
       <c r="L11" s="44"/>
       <c r="M11" s="95"/>
       <c r="N11" s="23"/>
@@ -7678,18 +7575,18 @@
       <c r="GD11" s="30"/>
     </row>
     <row r="12" spans="1:186" ht="9" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181" t="s">
+      <c r="A12" s="183"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="186" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="184" t="s">
+      <c r="E12" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="184" t="s">
+      <c r="F12" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="29" t="s">
@@ -7697,11 +7594,11 @@
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
-      <c r="J12" s="247">
+      <c r="J12" s="271">
         <v>1</v>
       </c>
-      <c r="K12" s="170"/>
-      <c r="L12" s="249"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="273"/>
       <c r="M12" s="96"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
@@ -7878,20 +7775,20 @@
       <c r="GD12" s="26"/>
     </row>
     <row r="13" spans="1:186" ht="9" customHeight="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
       <c r="G13" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H13" s="75"/>
       <c r="I13" s="75"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="250"/>
+      <c r="J13" s="272"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="274"/>
       <c r="M13" s="97"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -8068,18 +7965,18 @@
       <c r="GD13" s="22"/>
     </row>
     <row r="14" spans="1:186" ht="9" customHeight="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="181" t="s">
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="182" t="s">
+      <c r="D14" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="29" t="s">
@@ -8087,13 +7984,13 @@
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
-      <c r="J14" s="247">
+      <c r="J14" s="271">
         <v>0.9</v>
       </c>
-      <c r="K14" s="170" t="s">
+      <c r="K14" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="249"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="96"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
@@ -8270,20 +8167,20 @@
       <c r="GD14" s="26"/>
     </row>
     <row r="15" spans="1:186" ht="9" customHeight="1">
-      <c r="A15" s="179"/>
-      <c r="B15" s="180"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
       <c r="G15" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H15" s="75"/>
       <c r="I15" s="75"/>
-      <c r="J15" s="248"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="250"/>
+      <c r="J15" s="272"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="274"/>
       <c r="M15" s="97"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -8460,18 +8357,18 @@
       <c r="GD15" s="22"/>
     </row>
     <row r="16" spans="1:186" ht="9" customHeight="1">
-      <c r="A16" s="179"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="181" t="s">
+      <c r="A16" s="183"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="182" t="s">
+      <c r="D16" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="184" t="s">
+      <c r="F16" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="29" t="s">
@@ -8479,13 +8376,13 @@
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
-      <c r="J16" s="247">
+      <c r="J16" s="271">
         <v>0.9</v>
       </c>
-      <c r="K16" s="170" t="s">
+      <c r="K16" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="L16" s="249"/>
+      <c r="L16" s="273"/>
       <c r="M16" s="96"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
@@ -8662,20 +8559,20 @@
       <c r="GD16" s="26"/>
     </row>
     <row r="17" spans="1:186" ht="9" customHeight="1">
-      <c r="A17" s="179"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
       <c r="G17" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H17" s="75"/>
       <c r="I17" s="75"/>
-      <c r="J17" s="248"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="250"/>
+      <c r="J17" s="272"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="274"/>
       <c r="M17" s="97"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -8852,18 +8749,18 @@
       <c r="GD17" s="22"/>
     </row>
     <row r="18" spans="1:186" ht="9" customHeight="1">
-      <c r="A18" s="179"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181" t="s">
+      <c r="A18" s="183"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="185" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="182" t="s">
+      <c r="D18" s="186" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="184" t="s">
+      <c r="E18" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="184" t="s">
+      <c r="F18" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="29" t="s">
@@ -8871,13 +8768,13 @@
       </c>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
-      <c r="J18" s="247">
+      <c r="J18" s="271">
         <v>0.9</v>
       </c>
-      <c r="K18" s="170" t="s">
+      <c r="K18" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="249"/>
+      <c r="L18" s="273"/>
       <c r="M18" s="96"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
@@ -9054,20 +8951,20 @@
       <c r="GD18" s="26"/>
     </row>
     <row r="19" spans="1:186" ht="9" customHeight="1">
-      <c r="A19" s="179"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
       <c r="G19" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H19" s="75"/>
       <c r="I19" s="75"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="250"/>
+      <c r="J19" s="272"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="274"/>
       <c r="M19" s="97"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -9244,19 +9141,19 @@
       <c r="GD19" s="22"/>
     </row>
     <row r="20" spans="1:186" s="43" customFormat="1" ht="9" customHeight="1">
-      <c r="A20" s="299" t="s">
+      <c r="A20" s="275" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="304"/>
-      <c r="F20" s="304"/>
+      <c r="B20" s="276"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="278"/>
+      <c r="F20" s="278"/>
       <c r="G20" s="40"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
-      <c r="J20" s="306"/>
-      <c r="K20" s="241"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="254"/>
       <c r="L20" s="88"/>
       <c r="M20" s="92"/>
       <c r="N20" s="28"/>
@@ -9434,17 +9331,17 @@
       <c r="GD20" s="39"/>
     </row>
     <row r="21" spans="1:186" s="43" customFormat="1" ht="9" customHeight="1">
-      <c r="A21" s="301"/>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="305"/>
+      <c r="A21" s="277"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="276"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="38"/>
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
-      <c r="J21" s="307"/>
-      <c r="K21" s="242"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="255"/>
       <c r="L21" s="89"/>
       <c r="M21" s="93"/>
       <c r="N21" s="24"/>
@@ -9622,19 +9519,19 @@
       <c r="GD21" s="37"/>
     </row>
     <row r="22" spans="1:186" ht="9" customHeight="1">
-      <c r="A22" s="308"/>
-      <c r="B22" s="310" t="s">
+      <c r="A22" s="282"/>
+      <c r="B22" s="339" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="310"/>
-      <c r="D22" s="311"/>
-      <c r="E22" s="315"/>
-      <c r="F22" s="315"/>
+      <c r="C22" s="339"/>
+      <c r="D22" s="340"/>
+      <c r="E22" s="344"/>
+      <c r="F22" s="344"/>
       <c r="G22" s="40"/>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
-      <c r="J22" s="306"/>
-      <c r="K22" s="241"/>
+      <c r="J22" s="280"/>
+      <c r="K22" s="254"/>
       <c r="L22" s="88"/>
       <c r="M22" s="92"/>
       <c r="N22" s="28"/>
@@ -9812,17 +9709,17 @@
       <c r="GD22" s="39"/>
     </row>
     <row r="23" spans="1:186" ht="9" customHeight="1">
-      <c r="A23" s="309"/>
-      <c r="B23" s="312"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="314"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="316"/>
+      <c r="A23" s="283"/>
+      <c r="B23" s="341"/>
+      <c r="C23" s="342"/>
+      <c r="D23" s="343"/>
+      <c r="E23" s="345"/>
+      <c r="F23" s="345"/>
       <c r="G23" s="38"/>
       <c r="H23" s="73"/>
       <c r="I23" s="73"/>
-      <c r="J23" s="307"/>
-      <c r="K23" s="242"/>
+      <c r="J23" s="281"/>
+      <c r="K23" s="255"/>
       <c r="L23" s="89"/>
       <c r="M23" s="93"/>
       <c r="N23" s="24"/>
@@ -10000,18 +9897,18 @@
       <c r="GD23" s="37"/>
     </row>
     <row r="24" spans="1:186" ht="9" customHeight="1">
-      <c r="A24" s="243"/>
-      <c r="B24" s="244"/>
-      <c r="C24" s="245" t="s">
+      <c r="A24" s="267"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="269" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="246" t="s">
+      <c r="D24" s="270" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="232" t="s">
+      <c r="E24" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="234" t="s">
+      <c r="F24" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="36" t="s">
@@ -10019,11 +9916,11 @@
       </c>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="247">
+      <c r="J24" s="271">
         <v>1</v>
       </c>
-      <c r="K24" s="170"/>
-      <c r="L24" s="249"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="273"/>
       <c r="M24" s="96"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
@@ -10200,20 +10097,20 @@
       <c r="GD24" s="26"/>
     </row>
     <row r="25" spans="1:186" ht="9" customHeight="1">
-      <c r="A25" s="243"/>
-      <c r="B25" s="244"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="235"/>
+      <c r="A25" s="267"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="193"/>
       <c r="G25" s="35" t="s">
         <v>134</v>
       </c>
       <c r="H25" s="75"/>
       <c r="I25" s="75"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="250"/>
+      <c r="J25" s="272"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="274"/>
       <c r="M25" s="97"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
@@ -10390,18 +10287,18 @@
       <c r="GD25" s="22"/>
     </row>
     <row r="26" spans="1:186" ht="9" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="245" t="s">
+      <c r="A26" s="183"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="232" t="s">
+      <c r="E26" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="234" t="s">
+      <c r="F26" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="29" t="s">
@@ -10409,11 +10306,11 @@
       </c>
       <c r="H26" s="74"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="247">
+      <c r="J26" s="271">
         <v>1</v>
       </c>
-      <c r="K26" s="170"/>
-      <c r="L26" s="249"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="273"/>
       <c r="M26" s="96"/>
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
@@ -10590,20 +10487,20 @@
       <c r="GD26" s="26"/>
     </row>
     <row r="27" spans="1:186" ht="9" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="235"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="193"/>
       <c r="G27" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
-      <c r="J27" s="248"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="250"/>
+      <c r="J27" s="272"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="274"/>
       <c r="M27" s="97"/>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
@@ -10780,20 +10677,20 @@
       <c r="GD27" s="22"/>
     </row>
     <row r="28" spans="1:186" s="34" customFormat="1" ht="9" hidden="1" customHeight="1">
-      <c r="A28" s="317" t="s">
+      <c r="A28" s="346" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="318"/>
-      <c r="C28" s="318"/>
-      <c r="D28" s="318"/>
-      <c r="E28" s="302"/>
-      <c r="F28" s="302"/>
+      <c r="B28" s="347"/>
+      <c r="C28" s="347"/>
+      <c r="D28" s="347"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="321"/>
       <c r="G28" s="33" t="s">
         <v>131</v>
       </c>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
-      <c r="J28" s="297"/>
+      <c r="J28" s="323"/>
       <c r="K28" s="42"/>
       <c r="L28" s="45"/>
       <c r="M28" s="94"/>
@@ -10972,18 +10869,18 @@
       <c r="GD28" s="32"/>
     </row>
     <row r="29" spans="1:186" s="34" customFormat="1" ht="9" hidden="1" customHeight="1">
-      <c r="A29" s="319"/>
-      <c r="B29" s="318"/>
-      <c r="C29" s="318"/>
-      <c r="D29" s="318"/>
-      <c r="E29" s="303"/>
-      <c r="F29" s="303"/>
+      <c r="A29" s="348"/>
+      <c r="B29" s="347"/>
+      <c r="C29" s="347"/>
+      <c r="D29" s="347"/>
+      <c r="E29" s="322"/>
+      <c r="F29" s="322"/>
       <c r="G29" s="31" t="s">
         <v>134</v>
       </c>
       <c r="H29" s="73"/>
       <c r="I29" s="73"/>
-      <c r="J29" s="298"/>
+      <c r="J29" s="324"/>
       <c r="K29" s="41"/>
       <c r="L29" s="44"/>
       <c r="M29" s="95"/>
@@ -11162,21 +11059,21 @@
       <c r="GD29" s="30"/>
     </row>
     <row r="30" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A30" s="320"/>
-      <c r="B30" s="290" t="s">
+      <c r="A30" s="349"/>
+      <c r="B30" s="332" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="290"/>
-      <c r="D30" s="291"/>
-      <c r="E30" s="295"/>
-      <c r="F30" s="295"/>
+      <c r="C30" s="332"/>
+      <c r="D30" s="333"/>
+      <c r="E30" s="337"/>
+      <c r="F30" s="337"/>
       <c r="G30" s="33" t="s">
         <v>131</v>
       </c>
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
-      <c r="J30" s="297"/>
-      <c r="K30" s="241"/>
+      <c r="J30" s="323"/>
+      <c r="K30" s="254"/>
       <c r="L30" s="45"/>
       <c r="M30" s="94"/>
       <c r="N30" s="27"/>
@@ -11354,19 +11251,19 @@
       <c r="GD30" s="32"/>
     </row>
     <row r="31" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A31" s="321"/>
-      <c r="B31" s="292"/>
-      <c r="C31" s="293"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="296"/>
-      <c r="F31" s="296"/>
+      <c r="A31" s="350"/>
+      <c r="B31" s="334"/>
+      <c r="C31" s="335"/>
+      <c r="D31" s="336"/>
+      <c r="E31" s="338"/>
+      <c r="F31" s="338"/>
       <c r="G31" s="31" t="s">
         <v>134</v>
       </c>
       <c r="H31" s="73"/>
       <c r="I31" s="73"/>
-      <c r="J31" s="298"/>
-      <c r="K31" s="242"/>
+      <c r="J31" s="324"/>
+      <c r="K31" s="255"/>
       <c r="L31" s="44"/>
       <c r="M31" s="95"/>
       <c r="N31" s="23"/>
@@ -11544,16 +11441,16 @@
       <c r="GD31" s="30"/>
     </row>
     <row r="32" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A32" s="179"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="181" t="s">
+      <c r="A32" s="183"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="183" t="s">
+      <c r="D32" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184" t="s">
+      <c r="E32" s="188"/>
+      <c r="F32" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="29" t="s">
@@ -11561,9 +11458,9 @@
       </c>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
-      <c r="J32" s="247"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="345"/>
+      <c r="J32" s="271"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="382"/>
       <c r="M32" s="96"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
@@ -11740,20 +11637,20 @@
       <c r="GD32" s="26"/>
     </row>
     <row r="33" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A33" s="179"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H33" s="75"/>
       <c r="I33" s="75"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="173"/>
+      <c r="J33" s="272"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="203"/>
       <c r="M33" s="97"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
@@ -11930,16 +11827,16 @@
       <c r="GD33" s="22"/>
     </row>
     <row r="34" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A34" s="179"/>
-      <c r="B34" s="180"/>
-      <c r="C34" s="181" t="s">
+      <c r="A34" s="183"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="183" t="s">
+      <c r="D34" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184" t="s">
+      <c r="E34" s="188"/>
+      <c r="F34" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G34" s="29" t="s">
@@ -11947,9 +11844,9 @@
       </c>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
-      <c r="J34" s="247"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="345"/>
+      <c r="J34" s="271"/>
+      <c r="K34" s="190"/>
+      <c r="L34" s="382"/>
       <c r="M34" s="96"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
@@ -12126,20 +12023,20 @@
       <c r="GD34" s="26"/>
     </row>
     <row r="35" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A35" s="179"/>
-      <c r="B35" s="180"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
       <c r="G35" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H35" s="75"/>
       <c r="I35" s="75"/>
-      <c r="J35" s="248"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="173"/>
+      <c r="J35" s="272"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="203"/>
       <c r="M35" s="97"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
@@ -12316,16 +12213,16 @@
       <c r="GD35" s="22"/>
     </row>
     <row r="36" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A36" s="179"/>
-      <c r="B36" s="180"/>
-      <c r="C36" s="181" t="s">
+      <c r="A36" s="183"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="183" t="s">
+      <c r="D36" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184" t="s">
+      <c r="E36" s="188"/>
+      <c r="F36" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G36" s="29" t="s">
@@ -12333,9 +12230,9 @@
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
-      <c r="J36" s="247"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="345"/>
+      <c r="J36" s="271"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="382"/>
       <c r="M36" s="96"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
@@ -12512,20 +12409,20 @@
       <c r="GD36" s="26"/>
     </row>
     <row r="37" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A37" s="179"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
       <c r="G37" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H37" s="75"/>
       <c r="I37" s="75"/>
-      <c r="J37" s="248"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="173"/>
+      <c r="J37" s="272"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="203"/>
       <c r="M37" s="97"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
@@ -12702,16 +12599,16 @@
       <c r="GD37" s="22"/>
     </row>
     <row r="38" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A38" s="179"/>
-      <c r="B38" s="180"/>
-      <c r="C38" s="181" t="s">
+      <c r="A38" s="183"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="183" t="s">
+      <c r="D38" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184" t="s">
+      <c r="E38" s="188"/>
+      <c r="F38" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G38" s="29" t="s">
@@ -12719,9 +12616,9 @@
       </c>
       <c r="H38" s="74"/>
       <c r="I38" s="74"/>
-      <c r="J38" s="247"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="345"/>
+      <c r="J38" s="271"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="382"/>
       <c r="M38" s="96"/>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
@@ -12898,20 +12795,20 @@
       <c r="GD38" s="26"/>
     </row>
     <row r="39" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A39" s="179"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
       <c r="G39" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
-      <c r="J39" s="248"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="173"/>
+      <c r="J39" s="272"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="203"/>
       <c r="M39" s="97"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
@@ -13088,16 +12985,16 @@
       <c r="GD39" s="22"/>
     </row>
     <row r="40" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A40" s="179"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181" t="s">
+      <c r="A40" s="183"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="183" t="s">
+      <c r="D40" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184" t="s">
+      <c r="E40" s="188"/>
+      <c r="F40" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G40" s="29" t="s">
@@ -13105,9 +13002,9 @@
       </c>
       <c r="H40" s="74"/>
       <c r="I40" s="74"/>
-      <c r="J40" s="247"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="345"/>
+      <c r="J40" s="271"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="382"/>
       <c r="M40" s="96"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
@@ -13284,20 +13181,20 @@
       <c r="GD40" s="26"/>
     </row>
     <row r="41" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A41" s="179"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
       <c r="G41" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H41" s="75"/>
       <c r="I41" s="75"/>
-      <c r="J41" s="248"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="173"/>
+      <c r="J41" s="272"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="203"/>
       <c r="M41" s="97"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
@@ -13474,16 +13371,16 @@
       <c r="GD41" s="22"/>
     </row>
     <row r="42" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A42" s="179"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="181" t="s">
+      <c r="A42" s="183"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="183" t="s">
+      <c r="D42" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184" t="s">
+      <c r="E42" s="188"/>
+      <c r="F42" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="29" t="s">
@@ -13491,9 +13388,9 @@
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="345"/>
+      <c r="J42" s="271"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="382"/>
       <c r="M42" s="96"/>
       <c r="N42" s="27"/>
       <c r="O42" s="27"/>
@@ -13670,20 +13567,20 @@
       <c r="GD42" s="26"/>
     </row>
     <row r="43" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A43" s="179"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="183"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
       <c r="G43" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H43" s="75"/>
       <c r="I43" s="75"/>
-      <c r="J43" s="248"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="173"/>
+      <c r="J43" s="272"/>
+      <c r="K43" s="191"/>
+      <c r="L43" s="203"/>
       <c r="M43" s="97"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
@@ -13860,16 +13757,16 @@
       <c r="GD43" s="22"/>
     </row>
     <row r="44" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A44" s="179"/>
-      <c r="B44" s="180"/>
-      <c r="C44" s="181" t="s">
+      <c r="A44" s="183"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="183" t="s">
+      <c r="D44" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="184"/>
-      <c r="F44" s="184" t="s">
+      <c r="E44" s="188"/>
+      <c r="F44" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="29" t="s">
@@ -13877,9 +13774,9 @@
       </c>
       <c r="H44" s="74"/>
       <c r="I44" s="74"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="345"/>
+      <c r="J44" s="271"/>
+      <c r="K44" s="190"/>
+      <c r="L44" s="382"/>
       <c r="M44" s="96"/>
       <c r="N44" s="27"/>
       <c r="O44" s="27"/>
@@ -14056,20 +13953,20 @@
       <c r="GD44" s="26"/>
     </row>
     <row r="45" spans="1:186" ht="9" hidden="1" customHeight="1">
-      <c r="A45" s="179"/>
-      <c r="B45" s="180"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="184"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="189"/>
+      <c r="F45" s="189"/>
       <c r="G45" s="25" t="s">
         <v>134</v>
       </c>
       <c r="H45" s="75"/>
       <c r="I45" s="75"/>
-      <c r="J45" s="248"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="173"/>
+      <c r="J45" s="272"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="203"/>
       <c r="M45" s="97"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
@@ -14246,22 +14143,22 @@
       <c r="GD45" s="22"/>
     </row>
     <row r="46" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A46" s="209" t="s">
+      <c r="A46" s="240" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="210"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
+      <c r="B46" s="241"/>
+      <c r="C46" s="241"/>
+      <c r="D46" s="242"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="227"/>
       <c r="G46" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H46" s="72"/>
       <c r="I46" s="72"/>
-      <c r="J46" s="239"/>
-      <c r="K46" s="241"/>
-      <c r="L46" s="346"/>
+      <c r="J46" s="265"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="383"/>
       <c r="M46" s="98"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
@@ -14438,20 +14335,20 @@
       <c r="GD46" s="20"/>
     </row>
     <row r="47" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A47" s="212"/>
-      <c r="B47" s="213"/>
-      <c r="C47" s="213"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
+      <c r="A47" s="243"/>
+      <c r="B47" s="244"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="245"/>
+      <c r="E47" s="228"/>
+      <c r="F47" s="228"/>
       <c r="G47" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H47" s="73"/>
       <c r="I47" s="73"/>
-      <c r="J47" s="240"/>
-      <c r="K47" s="242"/>
-      <c r="L47" s="339"/>
+      <c r="J47" s="266"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="381"/>
       <c r="M47" s="99"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -14628,22 +14525,22 @@
       <c r="GD47" s="19"/>
     </row>
     <row r="48" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A48" s="322"/>
-      <c r="B48" s="225" t="s">
+      <c r="A48" s="231"/>
+      <c r="B48" s="259" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="225"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="238"/>
-      <c r="F48" s="198"/>
+      <c r="C48" s="259"/>
+      <c r="D48" s="260"/>
+      <c r="E48" s="264"/>
+      <c r="F48" s="227"/>
       <c r="G48" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
-      <c r="J48" s="239"/>
-      <c r="K48" s="241"/>
-      <c r="L48" s="338"/>
+      <c r="J48" s="265"/>
+      <c r="K48" s="254"/>
+      <c r="L48" s="380"/>
       <c r="M48" s="100"/>
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
@@ -14820,20 +14717,20 @@
       <c r="GD48" s="17"/>
     </row>
     <row r="49" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A49" s="223"/>
-      <c r="B49" s="228"/>
-      <c r="C49" s="236"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="238"/>
-      <c r="F49" s="199"/>
+      <c r="A49" s="232"/>
+      <c r="B49" s="261"/>
+      <c r="C49" s="262"/>
+      <c r="D49" s="263"/>
+      <c r="E49" s="264"/>
+      <c r="F49" s="228"/>
       <c r="G49" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H49" s="73"/>
       <c r="I49" s="73"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="242"/>
-      <c r="L49" s="339"/>
+      <c r="J49" s="266"/>
+      <c r="K49" s="255"/>
+      <c r="L49" s="381"/>
       <c r="M49" s="101"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
@@ -15010,18 +14907,18 @@
       <c r="GD49" s="15"/>
     </row>
     <row r="50" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A50" s="162"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="195" t="s">
+      <c r="A50" s="198"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="217" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="232" t="s">
+      <c r="E50" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="234" t="s">
+      <c r="F50" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -15029,11 +14926,11 @@
       </c>
       <c r="H50" s="74"/>
       <c r="I50" s="74"/>
-      <c r="J50" s="168">
+      <c r="J50" s="196">
         <v>0.1</v>
       </c>
-      <c r="K50" s="170"/>
-      <c r="L50" s="172"/>
+      <c r="K50" s="190"/>
+      <c r="L50" s="202"/>
       <c r="M50" s="102"/>
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
@@ -15052,38 +14949,38 @@
       <c r="AB50" s="14"/>
       <c r="AC50" s="14"/>
       <c r="AD50" s="61"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
       <c r="AH50" s="14"/>
       <c r="AI50" s="14"/>
       <c r="AJ50" s="14"/>
-      <c r="AK50" s="13"/>
-      <c r="AL50" s="13"/>
-      <c r="AM50" s="13"/>
-      <c r="AN50" s="26"/>
-      <c r="AO50" s="26"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="61"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
       <c r="AP50" s="27"/>
       <c r="AQ50" s="27"/>
-      <c r="AR50" s="26"/>
-      <c r="AS50" s="26"/>
-      <c r="AT50" s="26"/>
-      <c r="AU50" s="26"/>
-      <c r="AV50" s="26"/>
+      <c r="AR50" s="61"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
+      <c r="AV50" s="61"/>
       <c r="AW50" s="14"/>
       <c r="AX50" s="14"/>
-      <c r="AY50" s="13"/>
-      <c r="AZ50" s="13"/>
-      <c r="BA50" s="13"/>
-      <c r="BB50" s="13"/>
-      <c r="BC50" s="13"/>
+      <c r="AY50" s="61"/>
+      <c r="AZ50" s="61"/>
+      <c r="BA50" s="61"/>
+      <c r="BB50" s="61"/>
+      <c r="BC50" s="61"/>
       <c r="BD50" s="14"/>
       <c r="BE50" s="14"/>
-      <c r="BF50" s="13"/>
-      <c r="BG50" s="13"/>
-      <c r="BH50" s="13"/>
-      <c r="BI50" s="13"/>
-      <c r="BJ50" s="13"/>
+      <c r="BF50" s="61"/>
+      <c r="BG50" s="61"/>
+      <c r="BH50" s="61"/>
+      <c r="BI50" s="61"/>
+      <c r="BJ50" s="61"/>
       <c r="BK50" s="14"/>
       <c r="BL50" s="14"/>
       <c r="BM50" s="13"/>
@@ -15210,20 +15107,20 @@
       <c r="GD50" s="13"/>
     </row>
     <row r="51" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A51" s="162"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="235"/>
+      <c r="A51" s="198"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="217"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="193"/>
       <c r="G51" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
-      <c r="J51" s="169"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="173"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="191"/>
+      <c r="L51" s="203"/>
       <c r="M51" s="103"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
@@ -15241,18 +15138,18 @@
       <c r="AA51" s="11"/>
       <c r="AB51" s="12"/>
       <c r="AC51" s="12"/>
-      <c r="AD51" s="362"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
+      <c r="AD51" s="160"/>
+      <c r="AE51" s="395"/>
+      <c r="AF51" s="395"/>
+      <c r="AG51" s="395"/>
       <c r="AH51" s="12"/>
       <c r="AI51" s="12"/>
       <c r="AJ51" s="12"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
+      <c r="AK51" s="395"/>
+      <c r="AL51" s="395"/>
+      <c r="AM51" s="395"/>
+      <c r="AN51" s="395"/>
+      <c r="AO51" s="395"/>
       <c r="AP51" s="23"/>
       <c r="AQ51" s="23"/>
       <c r="AR51" s="22"/>
@@ -15402,16 +15299,16 @@
     <row r="52" spans="1:186" ht="9" customHeight="1">
       <c r="A52" s="81"/>
       <c r="B52" s="80"/>
-      <c r="C52" s="195" t="s">
+      <c r="C52" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="230" t="s">
+      <c r="D52" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="232" t="s">
+      <c r="E52" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="166" t="s">
+      <c r="F52" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="8" t="s">
@@ -15419,9 +15316,9 @@
       </c>
       <c r="H52" s="74"/>
       <c r="I52" s="74"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="172"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="190"/>
+      <c r="L52" s="202"/>
       <c r="M52" s="102"/>
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
@@ -15600,18 +15497,18 @@
     <row r="53" spans="1:186" ht="9" customHeight="1">
       <c r="A53" s="81"/>
       <c r="B53" s="80"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="231"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="167"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="214"/>
+      <c r="F53" s="195"/>
       <c r="G53" s="66" t="s">
         <v>134</v>
       </c>
       <c r="H53" s="76"/>
       <c r="I53" s="76"/>
-      <c r="J53" s="169"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="173"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="203"/>
       <c r="M53" s="104"/>
       <c r="N53" s="68"/>
       <c r="O53" s="68"/>
@@ -15788,22 +15685,22 @@
       <c r="GD53" s="67"/>
     </row>
     <row r="54" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A54" s="223"/>
-      <c r="B54" s="225" t="s">
+      <c r="A54" s="232"/>
+      <c r="B54" s="259" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="225"/>
-      <c r="D54" s="226"/>
-      <c r="E54" s="238"/>
-      <c r="F54" s="198"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="264"/>
+      <c r="F54" s="227"/>
       <c r="G54" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H54" s="72"/>
       <c r="I54" s="72"/>
-      <c r="J54" s="239"/>
-      <c r="K54" s="241"/>
-      <c r="L54" s="338"/>
+      <c r="J54" s="265"/>
+      <c r="K54" s="254"/>
+      <c r="L54" s="380"/>
       <c r="M54" s="100"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
@@ -15980,20 +15877,20 @@
       <c r="GD54" s="17"/>
     </row>
     <row r="55" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A55" s="223"/>
-      <c r="B55" s="228"/>
-      <c r="C55" s="236"/>
-      <c r="D55" s="237"/>
-      <c r="E55" s="238"/>
-      <c r="F55" s="199"/>
+      <c r="A55" s="232"/>
+      <c r="B55" s="261"/>
+      <c r="C55" s="262"/>
+      <c r="D55" s="263"/>
+      <c r="E55" s="264"/>
+      <c r="F55" s="228"/>
       <c r="G55" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H55" s="73"/>
       <c r="I55" s="73"/>
-      <c r="J55" s="240"/>
-      <c r="K55" s="242"/>
-      <c r="L55" s="339"/>
+      <c r="J55" s="266"/>
+      <c r="K55" s="255"/>
+      <c r="L55" s="381"/>
       <c r="M55" s="101"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
@@ -16170,18 +16067,18 @@
       <c r="GD55" s="15"/>
     </row>
     <row r="56" spans="1:186" ht="9" customHeight="1">
-      <c r="A56" s="243"/>
-      <c r="B56" s="244"/>
-      <c r="C56" s="245" t="s">
+      <c r="A56" s="267"/>
+      <c r="B56" s="268"/>
+      <c r="C56" s="269" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="246" t="s">
+      <c r="D56" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="232" t="s">
+      <c r="E56" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="184" t="s">
+      <c r="F56" s="188" t="s">
         <v>0</v>
       </c>
       <c r="G56" s="36" t="s">
@@ -16189,9 +16086,9 @@
       </c>
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
-      <c r="J56" s="247"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="249"/>
+      <c r="J56" s="271"/>
+      <c r="K56" s="190"/>
+      <c r="L56" s="273"/>
       <c r="M56" s="96"/>
       <c r="N56" s="27"/>
       <c r="O56" s="27"/>
@@ -16368,20 +16265,20 @@
       <c r="GD56" s="26"/>
     </row>
     <row r="57" spans="1:186" ht="9" customHeight="1">
-      <c r="A57" s="243"/>
-      <c r="B57" s="244"/>
-      <c r="C57" s="245"/>
-      <c r="D57" s="246"/>
-      <c r="E57" s="233"/>
-      <c r="F57" s="185"/>
+      <c r="A57" s="267"/>
+      <c r="B57" s="268"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="214"/>
+      <c r="F57" s="189"/>
       <c r="G57" s="35" t="s">
         <v>134</v>
       </c>
       <c r="H57" s="75"/>
       <c r="I57" s="75"/>
-      <c r="J57" s="248"/>
-      <c r="K57" s="171"/>
-      <c r="L57" s="250"/>
+      <c r="J57" s="272"/>
+      <c r="K57" s="191"/>
+      <c r="L57" s="274"/>
       <c r="M57" s="97"/>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
@@ -16558,24 +16455,24 @@
       <c r="GD57" s="22"/>
     </row>
     <row r="58" spans="1:186" ht="6.75" customHeight="1">
-      <c r="A58" s="162"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="195" t="s">
+      <c r="A58" s="198"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="188" t="s">
+      <c r="D58" s="217" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="370"/>
-      <c r="F58" s="370"/>
-      <c r="G58" s="371" t="s">
+      <c r="E58" s="207"/>
+      <c r="F58" s="207"/>
+      <c r="G58" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="372"/>
-      <c r="I58" s="372"/>
-      <c r="J58" s="373"/>
-      <c r="K58" s="374"/>
-      <c r="L58" s="382"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="209"/>
+      <c r="K58" s="211"/>
+      <c r="L58" s="390"/>
       <c r="M58" s="102"/>
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
@@ -16752,20 +16649,20 @@
       <c r="GD58" s="13"/>
     </row>
     <row r="59" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A59" s="162"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="195"/>
-      <c r="D59" s="188"/>
-      <c r="E59" s="376"/>
-      <c r="F59" s="376"/>
-      <c r="G59" s="377" t="s">
+      <c r="A59" s="198"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="208"/>
+      <c r="F59" s="208"/>
+      <c r="G59" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="378"/>
-      <c r="I59" s="378"/>
-      <c r="J59" s="379"/>
-      <c r="K59" s="380"/>
-      <c r="L59" s="383"/>
+      <c r="H59" s="168"/>
+      <c r="I59" s="168"/>
+      <c r="J59" s="210"/>
+      <c r="K59" s="212"/>
+      <c r="L59" s="391"/>
       <c r="M59" s="103"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
@@ -16783,16 +16680,16 @@
       <c r="AA59" s="11"/>
       <c r="AB59" s="12"/>
       <c r="AC59" s="12"/>
-      <c r="AD59" s="361"/>
-      <c r="AE59" s="361"/>
-      <c r="AF59" s="361"/>
-      <c r="AG59" s="361"/>
+      <c r="AD59" s="159"/>
+      <c r="AE59" s="159"/>
+      <c r="AF59" s="159"/>
+      <c r="AG59" s="159"/>
       <c r="AH59" s="12"/>
       <c r="AI59" s="12"/>
       <c r="AJ59" s="12"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
+      <c r="AK59" s="159"/>
+      <c r="AL59" s="159"/>
+      <c r="AM59" s="159"/>
       <c r="AN59" s="11"/>
       <c r="AO59" s="11"/>
       <c r="AP59" s="12"/>
@@ -16942,18 +16839,18 @@
       <c r="GD59" s="11"/>
     </row>
     <row r="60" spans="1:186" ht="6.75" customHeight="1">
-      <c r="A60" s="162"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="164" t="s">
+      <c r="A60" s="198"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="165" t="s">
+      <c r="D60" s="201" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="232" t="s">
+      <c r="E60" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="234" t="s">
+      <c r="F60" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="8" t="s">
@@ -16961,11 +16858,11 @@
       </c>
       <c r="H60" s="125"/>
       <c r="I60" s="125"/>
-      <c r="J60" s="168">
+      <c r="J60" s="196">
         <v>0</v>
       </c>
-      <c r="K60" s="170"/>
-      <c r="L60" s="186"/>
+      <c r="K60" s="190"/>
+      <c r="L60" s="204"/>
       <c r="M60" s="102"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
@@ -17142,20 +17039,20 @@
       <c r="GD60" s="13"/>
     </row>
     <row r="61" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A61" s="162"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="233"/>
-      <c r="F61" s="235"/>
+      <c r="A61" s="198"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="200"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="214"/>
+      <c r="F61" s="193"/>
       <c r="G61" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H61" s="126"/>
       <c r="I61" s="126"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="187"/>
+      <c r="J61" s="197"/>
+      <c r="K61" s="191"/>
+      <c r="L61" s="205"/>
       <c r="M61" s="103"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
@@ -17180,9 +17077,9 @@
       <c r="AH61" s="12"/>
       <c r="AI61" s="12"/>
       <c r="AJ61" s="12"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
-      <c r="AM61" s="11"/>
+      <c r="AK61" s="159"/>
+      <c r="AL61" s="159"/>
+      <c r="AM61" s="159"/>
       <c r="AN61" s="11"/>
       <c r="AO61" s="11"/>
       <c r="AP61" s="12"/>
@@ -17332,18 +17229,18 @@
       <c r="GD61" s="11"/>
     </row>
     <row r="62" spans="1:186" ht="6.75" customHeight="1">
-      <c r="A62" s="162"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="164" t="s">
+      <c r="A62" s="198"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="165" t="s">
+      <c r="D62" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="232" t="s">
+      <c r="E62" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="234" t="s">
+      <c r="F62" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="8" t="s">
@@ -17351,11 +17248,11 @@
       </c>
       <c r="H62" s="125"/>
       <c r="I62" s="125"/>
-      <c r="J62" s="168">
+      <c r="J62" s="196">
         <v>0</v>
       </c>
-      <c r="K62" s="170"/>
-      <c r="L62" s="186"/>
+      <c r="K62" s="190"/>
+      <c r="L62" s="204"/>
       <c r="M62" s="102"/>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
@@ -17532,20 +17429,20 @@
       <c r="GD62" s="13"/>
     </row>
     <row r="63" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A63" s="162"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="233"/>
-      <c r="F63" s="235"/>
+      <c r="A63" s="198"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="200"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="214"/>
+      <c r="F63" s="193"/>
       <c r="G63" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H63" s="126"/>
       <c r="I63" s="126"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="171"/>
-      <c r="L63" s="187"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="191"/>
+      <c r="L63" s="205"/>
       <c r="M63" s="103"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
@@ -17573,8 +17470,8 @@
       <c r="AK63" s="11"/>
       <c r="AL63" s="11"/>
       <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
+      <c r="AN63" s="159"/>
+      <c r="AO63" s="159"/>
       <c r="AP63" s="12"/>
       <c r="AQ63" s="12"/>
       <c r="AR63" s="11"/>
@@ -17722,18 +17619,18 @@
       <c r="GD63" s="11"/>
     </row>
     <row r="64" spans="1:186" ht="6.75" customHeight="1">
-      <c r="A64" s="162"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="164" t="s">
+      <c r="A64" s="198"/>
+      <c r="B64" s="199"/>
+      <c r="C64" s="200" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="165" t="s">
+      <c r="D64" s="201" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="234" t="s">
+      <c r="E64" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="166" t="s">
+      <c r="F64" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G64" s="8" t="s">
@@ -17741,11 +17638,11 @@
       </c>
       <c r="H64" s="125"/>
       <c r="I64" s="125"/>
-      <c r="J64" s="168">
+      <c r="J64" s="196">
         <v>0</v>
       </c>
-      <c r="K64" s="170"/>
-      <c r="L64" s="186"/>
+      <c r="K64" s="190"/>
+      <c r="L64" s="204"/>
       <c r="M64" s="102"/>
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
@@ -17922,20 +17819,20 @@
       <c r="GD64" s="13"/>
     </row>
     <row r="65" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A65" s="162"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="235"/>
-      <c r="F65" s="167"/>
+      <c r="A65" s="198"/>
+      <c r="B65" s="199"/>
+      <c r="C65" s="200"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="193"/>
+      <c r="F65" s="195"/>
       <c r="G65" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H65" s="126"/>
       <c r="I65" s="126"/>
-      <c r="J65" s="169"/>
-      <c r="K65" s="171"/>
-      <c r="L65" s="187"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="191"/>
+      <c r="L65" s="205"/>
       <c r="M65" s="103"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
@@ -17960,9 +17857,9 @@
       <c r="AH65" s="12"/>
       <c r="AI65" s="12"/>
       <c r="AJ65" s="12"/>
-      <c r="AK65" s="11"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="11"/>
+      <c r="AK65" s="159"/>
+      <c r="AL65" s="159"/>
+      <c r="AM65" s="159"/>
       <c r="AN65" s="11"/>
       <c r="AO65" s="11"/>
       <c r="AP65" s="12"/>
@@ -18112,18 +18009,18 @@
       <c r="GD65" s="11"/>
     </row>
     <row r="66" spans="1:186" ht="6.75" customHeight="1">
-      <c r="A66" s="162"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="164" t="s">
+      <c r="A66" s="198"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="165" t="s">
+      <c r="D66" s="201" t="s">
         <v>163</v>
       </c>
-      <c r="E66" s="232" t="s">
+      <c r="E66" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="234" t="s">
+      <c r="F66" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="8" t="s">
@@ -18131,11 +18028,11 @@
       </c>
       <c r="H66" s="125"/>
       <c r="I66" s="125"/>
-      <c r="J66" s="168">
+      <c r="J66" s="196">
         <v>0</v>
       </c>
-      <c r="K66" s="170"/>
-      <c r="L66" s="186"/>
+      <c r="K66" s="190"/>
+      <c r="L66" s="204"/>
       <c r="M66" s="102"/>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
@@ -18312,20 +18209,20 @@
       <c r="GD66" s="13"/>
     </row>
     <row r="67" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A67" s="162"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="164"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="233"/>
-      <c r="F67" s="235"/>
+      <c r="A67" s="198"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="200"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="214"/>
+      <c r="F67" s="193"/>
       <c r="G67" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H67" s="126"/>
       <c r="I67" s="126"/>
-      <c r="J67" s="169"/>
-      <c r="K67" s="171"/>
-      <c r="L67" s="187"/>
+      <c r="J67" s="197"/>
+      <c r="K67" s="191"/>
+      <c r="L67" s="205"/>
       <c r="M67" s="103"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
@@ -18502,18 +18399,18 @@
       <c r="GD67" s="11"/>
     </row>
     <row r="68" spans="1:186" ht="6.75" customHeight="1">
-      <c r="A68" s="162"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="164" t="s">
+      <c r="A68" s="198"/>
+      <c r="B68" s="199"/>
+      <c r="C68" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="165" t="s">
+      <c r="D68" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="E68" s="232" t="s">
+      <c r="E68" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="234" t="s">
+      <c r="F68" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G68" s="8" t="s">
@@ -18521,11 +18418,11 @@
       </c>
       <c r="H68" s="125"/>
       <c r="I68" s="125"/>
-      <c r="J68" s="168">
+      <c r="J68" s="196">
         <v>0</v>
       </c>
-      <c r="K68" s="170"/>
-      <c r="L68" s="186"/>
+      <c r="K68" s="190"/>
+      <c r="L68" s="204"/>
       <c r="M68" s="102"/>
       <c r="N68" s="14"/>
       <c r="O68" s="14"/>
@@ -18702,20 +18599,20 @@
       <c r="GD68" s="13"/>
     </row>
     <row r="69" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A69" s="162"/>
-      <c r="B69" s="163"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="233"/>
-      <c r="F69" s="235"/>
+      <c r="A69" s="198"/>
+      <c r="B69" s="199"/>
+      <c r="C69" s="200"/>
+      <c r="D69" s="201"/>
+      <c r="E69" s="214"/>
+      <c r="F69" s="193"/>
       <c r="G69" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H69" s="126"/>
       <c r="I69" s="126"/>
-      <c r="J69" s="169"/>
-      <c r="K69" s="171"/>
-      <c r="L69" s="187"/>
+      <c r="J69" s="197"/>
+      <c r="K69" s="191"/>
+      <c r="L69" s="205"/>
       <c r="M69" s="103"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
@@ -18892,18 +18789,18 @@
       <c r="GD69" s="11"/>
     </row>
     <row r="70" spans="1:186" ht="6.75" customHeight="1">
-      <c r="A70" s="162"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="164" t="s">
+      <c r="A70" s="198"/>
+      <c r="B70" s="199"/>
+      <c r="C70" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="165" t="s">
+      <c r="D70" s="201" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="234" t="s">
+      <c r="E70" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="166" t="s">
+      <c r="F70" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G70" s="8" t="s">
@@ -18911,11 +18808,11 @@
       </c>
       <c r="H70" s="125"/>
       <c r="I70" s="125"/>
-      <c r="J70" s="168">
+      <c r="J70" s="196">
         <v>0</v>
       </c>
-      <c r="K70" s="170"/>
-      <c r="L70" s="186"/>
+      <c r="K70" s="190"/>
+      <c r="L70" s="204"/>
       <c r="M70" s="102"/>
       <c r="N70" s="14"/>
       <c r="O70" s="14"/>
@@ -19092,20 +18989,20 @@
       <c r="GD70" s="13"/>
     </row>
     <row r="71" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A71" s="162"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="235"/>
-      <c r="F71" s="167"/>
+      <c r="A71" s="198"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="200"/>
+      <c r="D71" s="201"/>
+      <c r="E71" s="193"/>
+      <c r="F71" s="195"/>
       <c r="G71" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H71" s="126"/>
       <c r="I71" s="126"/>
-      <c r="J71" s="169"/>
-      <c r="K71" s="171"/>
-      <c r="L71" s="187"/>
+      <c r="J71" s="197"/>
+      <c r="K71" s="191"/>
+      <c r="L71" s="205"/>
       <c r="M71" s="103"/>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
@@ -19282,24 +19179,24 @@
       <c r="GD71" s="11"/>
     </row>
     <row r="72" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A72" s="162"/>
-      <c r="B72" s="163"/>
-      <c r="C72" s="164" t="s">
+      <c r="A72" s="198"/>
+      <c r="B72" s="199"/>
+      <c r="C72" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="165" t="s">
+      <c r="D72" s="201" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="370"/>
-      <c r="F72" s="370"/>
-      <c r="G72" s="371" t="s">
+      <c r="E72" s="207"/>
+      <c r="F72" s="207"/>
+      <c r="G72" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H72" s="372"/>
-      <c r="I72" s="372"/>
-      <c r="J72" s="373"/>
-      <c r="K72" s="374"/>
-      <c r="L72" s="375"/>
+      <c r="H72" s="166"/>
+      <c r="I72" s="166"/>
+      <c r="J72" s="209"/>
+      <c r="K72" s="211"/>
+      <c r="L72" s="371"/>
       <c r="M72" s="102"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
@@ -19476,20 +19373,20 @@
       <c r="GD72" s="13"/>
     </row>
     <row r="73" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A73" s="162"/>
-      <c r="B73" s="163"/>
-      <c r="C73" s="164"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="376"/>
-      <c r="F73" s="376"/>
-      <c r="G73" s="377" t="s">
+      <c r="A73" s="198"/>
+      <c r="B73" s="199"/>
+      <c r="C73" s="200"/>
+      <c r="D73" s="201"/>
+      <c r="E73" s="208"/>
+      <c r="F73" s="208"/>
+      <c r="G73" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="378"/>
-      <c r="I73" s="378"/>
-      <c r="J73" s="379"/>
-      <c r="K73" s="380"/>
-      <c r="L73" s="381"/>
+      <c r="H73" s="168"/>
+      <c r="I73" s="168"/>
+      <c r="J73" s="210"/>
+      <c r="K73" s="212"/>
+      <c r="L73" s="372"/>
       <c r="M73" s="103"/>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
@@ -19666,18 +19563,18 @@
       <c r="GD73" s="11"/>
     </row>
     <row r="74" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A74" s="162"/>
-      <c r="B74" s="163"/>
-      <c r="C74" s="164" t="s">
+      <c r="A74" s="198"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="369" t="s">
+      <c r="D74" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="234" t="s">
+      <c r="E74" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="166" t="s">
+      <c r="F74" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G74" s="8" t="s">
@@ -19685,11 +19582,11 @@
       </c>
       <c r="H74" s="125"/>
       <c r="I74" s="125"/>
-      <c r="J74" s="168">
+      <c r="J74" s="196">
         <v>0</v>
       </c>
-      <c r="K74" s="170"/>
-      <c r="L74" s="172"/>
+      <c r="K74" s="190"/>
+      <c r="L74" s="202"/>
       <c r="M74" s="102"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
@@ -19866,20 +19763,20 @@
       <c r="GD74" s="13"/>
     </row>
     <row r="75" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A75" s="162"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="164"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="235"/>
-      <c r="F75" s="167"/>
+      <c r="A75" s="198"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="200"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="193"/>
+      <c r="F75" s="195"/>
       <c r="G75" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H75" s="126"/>
       <c r="I75" s="126"/>
-      <c r="J75" s="169"/>
-      <c r="K75" s="171"/>
-      <c r="L75" s="173"/>
+      <c r="J75" s="197"/>
+      <c r="K75" s="191"/>
+      <c r="L75" s="203"/>
       <c r="M75" s="103"/>
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
@@ -19904,10 +19801,10 @@
       <c r="AH75" s="12"/>
       <c r="AI75" s="12"/>
       <c r="AJ75" s="12"/>
-      <c r="AK75" s="11"/>
-      <c r="AL75" s="11"/>
-      <c r="AM75" s="11"/>
-      <c r="AN75" s="11"/>
+      <c r="AK75" s="159"/>
+      <c r="AL75" s="159"/>
+      <c r="AM75" s="159"/>
+      <c r="AN75" s="159"/>
       <c r="AO75" s="11"/>
       <c r="AP75" s="12"/>
       <c r="AQ75" s="12"/>
@@ -20056,24 +19953,24 @@
       <c r="GD75" s="11"/>
     </row>
     <row r="76" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A76" s="162"/>
-      <c r="B76" s="163"/>
-      <c r="C76" s="164" t="s">
+      <c r="A76" s="198"/>
+      <c r="B76" s="199"/>
+      <c r="C76" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="165" t="s">
+      <c r="D76" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="370"/>
-      <c r="F76" s="370"/>
-      <c r="G76" s="371" t="s">
+      <c r="E76" s="207"/>
+      <c r="F76" s="207"/>
+      <c r="G76" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H76" s="372"/>
-      <c r="I76" s="372"/>
-      <c r="J76" s="373"/>
-      <c r="K76" s="374"/>
-      <c r="L76" s="375"/>
+      <c r="H76" s="166"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="209"/>
+      <c r="K76" s="211"/>
+      <c r="L76" s="371"/>
       <c r="M76" s="102"/>
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
@@ -20250,20 +20147,20 @@
       <c r="GD76" s="13"/>
     </row>
     <row r="77" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A77" s="162"/>
-      <c r="B77" s="163"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="376"/>
-      <c r="F77" s="376"/>
-      <c r="G77" s="377" t="s">
+      <c r="A77" s="198"/>
+      <c r="B77" s="199"/>
+      <c r="C77" s="200"/>
+      <c r="D77" s="201"/>
+      <c r="E77" s="208"/>
+      <c r="F77" s="208"/>
+      <c r="G77" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="H77" s="378"/>
-      <c r="I77" s="378"/>
-      <c r="J77" s="379"/>
-      <c r="K77" s="380"/>
-      <c r="L77" s="381"/>
+      <c r="H77" s="168"/>
+      <c r="I77" s="168"/>
+      <c r="J77" s="210"/>
+      <c r="K77" s="212"/>
+      <c r="L77" s="372"/>
       <c r="M77" s="103"/>
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
@@ -20440,18 +20337,18 @@
       <c r="GD77" s="11"/>
     </row>
     <row r="78" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A78" s="162"/>
-      <c r="B78" s="163"/>
-      <c r="C78" s="164" t="s">
+      <c r="A78" s="198"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="165" t="s">
+      <c r="D78" s="201" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="234" t="s">
+      <c r="E78" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="166" t="s">
+      <c r="F78" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G78" s="8" t="s">
@@ -20459,11 +20356,11 @@
       </c>
       <c r="H78" s="125"/>
       <c r="I78" s="125"/>
-      <c r="J78" s="168">
+      <c r="J78" s="196">
         <v>0</v>
       </c>
-      <c r="K78" s="170"/>
-      <c r="L78" s="172"/>
+      <c r="K78" s="190"/>
+      <c r="L78" s="202"/>
       <c r="M78" s="102"/>
       <c r="N78" s="14"/>
       <c r="O78" s="14"/>
@@ -20640,20 +20537,20 @@
       <c r="GD78" s="13"/>
     </row>
     <row r="79" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A79" s="162"/>
-      <c r="B79" s="163"/>
-      <c r="C79" s="164"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="235"/>
-      <c r="F79" s="167"/>
+      <c r="A79" s="198"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="200"/>
+      <c r="D79" s="201"/>
+      <c r="E79" s="193"/>
+      <c r="F79" s="195"/>
       <c r="G79" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H79" s="75"/>
       <c r="I79" s="75"/>
-      <c r="J79" s="169"/>
-      <c r="K79" s="171"/>
-      <c r="L79" s="173"/>
+      <c r="J79" s="197"/>
+      <c r="K79" s="191"/>
+      <c r="L79" s="203"/>
       <c r="M79" s="103"/>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
@@ -20678,10 +20575,10 @@
       <c r="AH79" s="12"/>
       <c r="AI79" s="12"/>
       <c r="AJ79" s="12"/>
-      <c r="AK79" s="11"/>
-      <c r="AL79" s="11"/>
-      <c r="AM79" s="11"/>
-      <c r="AN79" s="11"/>
+      <c r="AK79" s="159"/>
+      <c r="AL79" s="159"/>
+      <c r="AM79" s="159"/>
+      <c r="AN79" s="159"/>
       <c r="AO79" s="11"/>
       <c r="AP79" s="12"/>
       <c r="AQ79" s="12"/>
@@ -20830,18 +20727,18 @@
       <c r="GD79" s="11"/>
     </row>
     <row r="80" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A80" s="162"/>
-      <c r="B80" s="163"/>
-      <c r="C80" s="195" t="s">
+      <c r="A80" s="198"/>
+      <c r="B80" s="199"/>
+      <c r="C80" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="230" t="s">
+      <c r="D80" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="E80" s="232" t="s">
+      <c r="E80" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F80" s="166" t="s">
+      <c r="F80" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G80" s="8" t="s">
@@ -20849,11 +20746,11 @@
       </c>
       <c r="H80" s="74"/>
       <c r="I80" s="74"/>
-      <c r="J80" s="168">
+      <c r="J80" s="196">
         <v>0</v>
       </c>
-      <c r="K80" s="170"/>
-      <c r="L80" s="172"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="202"/>
       <c r="M80" s="102"/>
       <c r="N80" s="14"/>
       <c r="O80" s="14"/>
@@ -21030,20 +20927,20 @@
       <c r="GD80" s="13"/>
     </row>
     <row r="81" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A81" s="162"/>
-      <c r="B81" s="163"/>
-      <c r="C81" s="195"/>
-      <c r="D81" s="231"/>
-      <c r="E81" s="233"/>
-      <c r="F81" s="167"/>
+      <c r="A81" s="198"/>
+      <c r="B81" s="199"/>
+      <c r="C81" s="224"/>
+      <c r="D81" s="257"/>
+      <c r="E81" s="214"/>
+      <c r="F81" s="195"/>
       <c r="G81" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H81" s="75"/>
       <c r="I81" s="75"/>
-      <c r="J81" s="169"/>
-      <c r="K81" s="171"/>
-      <c r="L81" s="173"/>
+      <c r="J81" s="197"/>
+      <c r="K81" s="191"/>
+      <c r="L81" s="203"/>
       <c r="M81" s="103"/>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
@@ -21220,18 +21117,18 @@
       <c r="GD81" s="11"/>
     </row>
     <row r="82" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A82" s="162"/>
-      <c r="B82" s="163"/>
-      <c r="C82" s="195" t="s">
+      <c r="A82" s="198"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="323" t="s">
+      <c r="D82" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="E82" s="232" t="s">
+      <c r="E82" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="166" t="s">
+      <c r="F82" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G82" s="8" t="s">
@@ -21239,11 +21136,11 @@
       </c>
       <c r="H82" s="74"/>
       <c r="I82" s="74"/>
-      <c r="J82" s="168">
+      <c r="J82" s="196">
         <v>0</v>
       </c>
-      <c r="K82" s="170"/>
-      <c r="L82" s="249"/>
+      <c r="K82" s="190"/>
+      <c r="L82" s="273"/>
       <c r="M82" s="102"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
@@ -21420,20 +21317,20 @@
       <c r="GD82" s="13"/>
     </row>
     <row r="83" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A83" s="162"/>
-      <c r="B83" s="163"/>
-      <c r="C83" s="195"/>
-      <c r="D83" s="231"/>
-      <c r="E83" s="233"/>
-      <c r="F83" s="167"/>
+      <c r="A83" s="198"/>
+      <c r="B83" s="199"/>
+      <c r="C83" s="224"/>
+      <c r="D83" s="257"/>
+      <c r="E83" s="214"/>
+      <c r="F83" s="195"/>
       <c r="G83" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H83" s="75"/>
       <c r="I83" s="75"/>
-      <c r="J83" s="169"/>
-      <c r="K83" s="171"/>
-      <c r="L83" s="250"/>
+      <c r="J83" s="197"/>
+      <c r="K83" s="191"/>
+      <c r="L83" s="274"/>
       <c r="M83" s="103"/>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
@@ -21610,22 +21507,22 @@
       <c r="GD83" s="11"/>
     </row>
     <row r="84" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A84" s="162"/>
-      <c r="B84" s="225" t="s">
+      <c r="A84" s="198"/>
+      <c r="B84" s="259" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="225"/>
-      <c r="D84" s="226"/>
-      <c r="E84" s="238"/>
-      <c r="F84" s="198"/>
+      <c r="C84" s="259"/>
+      <c r="D84" s="260"/>
+      <c r="E84" s="264"/>
+      <c r="F84" s="227"/>
       <c r="G84" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H84" s="72"/>
       <c r="I84" s="72"/>
-      <c r="J84" s="239"/>
-      <c r="K84" s="241"/>
-      <c r="L84" s="338"/>
+      <c r="J84" s="265"/>
+      <c r="K84" s="254"/>
+      <c r="L84" s="380"/>
       <c r="M84" s="100"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
@@ -21802,20 +21699,20 @@
       <c r="GD84" s="17"/>
     </row>
     <row r="85" spans="1:186" ht="7.5" customHeight="1">
-      <c r="A85" s="162"/>
-      <c r="B85" s="228"/>
-      <c r="C85" s="236"/>
-      <c r="D85" s="237"/>
-      <c r="E85" s="238"/>
-      <c r="F85" s="199"/>
+      <c r="A85" s="198"/>
+      <c r="B85" s="261"/>
+      <c r="C85" s="262"/>
+      <c r="D85" s="263"/>
+      <c r="E85" s="264"/>
+      <c r="F85" s="228"/>
       <c r="G85" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H85" s="73"/>
       <c r="I85" s="73"/>
-      <c r="J85" s="240"/>
-      <c r="K85" s="242"/>
-      <c r="L85" s="339"/>
+      <c r="J85" s="266"/>
+      <c r="K85" s="255"/>
+      <c r="L85" s="381"/>
       <c r="M85" s="101"/>
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
@@ -21992,18 +21889,18 @@
       <c r="GD85" s="15"/>
     </row>
     <row r="86" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A86" s="162"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="195" t="s">
+      <c r="A86" s="198"/>
+      <c r="B86" s="199"/>
+      <c r="C86" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="188" t="s">
+      <c r="D86" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="232" t="s">
+      <c r="E86" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="166" t="s">
+      <c r="F86" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G86" s="8" t="s">
@@ -22011,9 +21908,9 @@
       </c>
       <c r="H86" s="74"/>
       <c r="I86" s="74"/>
-      <c r="J86" s="168"/>
-      <c r="K86" s="170"/>
-      <c r="L86" s="172"/>
+      <c r="J86" s="196"/>
+      <c r="K86" s="190"/>
+      <c r="L86" s="202"/>
       <c r="M86" s="102"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
@@ -22190,20 +22087,20 @@
       <c r="GD86" s="13"/>
     </row>
     <row r="87" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A87" s="162"/>
-      <c r="B87" s="163"/>
-      <c r="C87" s="195"/>
-      <c r="D87" s="188"/>
-      <c r="E87" s="233"/>
-      <c r="F87" s="167"/>
+      <c r="A87" s="198"/>
+      <c r="B87" s="199"/>
+      <c r="C87" s="224"/>
+      <c r="D87" s="217"/>
+      <c r="E87" s="214"/>
+      <c r="F87" s="195"/>
       <c r="G87" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H87" s="75"/>
       <c r="I87" s="75"/>
-      <c r="J87" s="169"/>
-      <c r="K87" s="171"/>
-      <c r="L87" s="173"/>
+      <c r="J87" s="197"/>
+      <c r="K87" s="191"/>
+      <c r="L87" s="203"/>
       <c r="M87" s="103"/>
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
@@ -22380,18 +22277,18 @@
       <c r="GD87" s="11"/>
     </row>
     <row r="88" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A88" s="162"/>
-      <c r="B88" s="163"/>
-      <c r="C88" s="195" t="s">
+      <c r="A88" s="198"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="230" t="s">
+      <c r="D88" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="232" t="s">
+      <c r="E88" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="166" t="s">
+      <c r="F88" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G88" s="8" t="s">
@@ -22399,9 +22296,9 @@
       </c>
       <c r="H88" s="74"/>
       <c r="I88" s="74"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="170"/>
-      <c r="L88" s="172"/>
+      <c r="J88" s="196"/>
+      <c r="K88" s="190"/>
+      <c r="L88" s="202"/>
       <c r="M88" s="102"/>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
@@ -22578,20 +22475,20 @@
       <c r="GD88" s="13"/>
     </row>
     <row r="89" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A89" s="162"/>
-      <c r="B89" s="163"/>
-      <c r="C89" s="195"/>
-      <c r="D89" s="231"/>
-      <c r="E89" s="233"/>
-      <c r="F89" s="167"/>
+      <c r="A89" s="198"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="224"/>
+      <c r="D89" s="257"/>
+      <c r="E89" s="214"/>
+      <c r="F89" s="195"/>
       <c r="G89" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H89" s="75"/>
       <c r="I89" s="75"/>
-      <c r="J89" s="169"/>
-      <c r="K89" s="171"/>
-      <c r="L89" s="173"/>
+      <c r="J89" s="197"/>
+      <c r="K89" s="191"/>
+      <c r="L89" s="203"/>
       <c r="M89" s="103"/>
       <c r="N89" s="12"/>
       <c r="O89" s="12"/>
@@ -22768,18 +22665,18 @@
       <c r="GD89" s="11"/>
     </row>
     <row r="90" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A90" s="162"/>
-      <c r="B90" s="163"/>
-      <c r="C90" s="195" t="s">
+      <c r="A90" s="198"/>
+      <c r="B90" s="199"/>
+      <c r="C90" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="323" t="s">
+      <c r="D90" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="232" t="s">
+      <c r="E90" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="F90" s="234" t="s">
+      <c r="F90" s="192" t="s">
         <v>7</v>
       </c>
       <c r="G90" s="8" t="s">
@@ -22787,9 +22684,9 @@
       </c>
       <c r="H90" s="74"/>
       <c r="I90" s="74"/>
-      <c r="J90" s="168"/>
-      <c r="K90" s="170"/>
-      <c r="L90" s="249"/>
+      <c r="J90" s="196"/>
+      <c r="K90" s="190"/>
+      <c r="L90" s="273"/>
       <c r="M90" s="102"/>
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
@@ -22966,20 +22863,20 @@
       <c r="GD90" s="13"/>
     </row>
     <row r="91" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A91" s="162"/>
-      <c r="B91" s="163"/>
-      <c r="C91" s="195"/>
-      <c r="D91" s="231"/>
-      <c r="E91" s="233"/>
-      <c r="F91" s="235"/>
+      <c r="A91" s="198"/>
+      <c r="B91" s="199"/>
+      <c r="C91" s="224"/>
+      <c r="D91" s="257"/>
+      <c r="E91" s="214"/>
+      <c r="F91" s="193"/>
       <c r="G91" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H91" s="75"/>
       <c r="I91" s="75"/>
-      <c r="J91" s="169"/>
-      <c r="K91" s="171"/>
-      <c r="L91" s="250"/>
+      <c r="J91" s="197"/>
+      <c r="K91" s="191"/>
+      <c r="L91" s="274"/>
       <c r="M91" s="103"/>
       <c r="N91" s="12"/>
       <c r="O91" s="12"/>
@@ -23156,22 +23053,22 @@
       <c r="GD91" s="11"/>
     </row>
     <row r="92" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A92" s="324" t="s">
+      <c r="A92" s="351" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="325"/>
-      <c r="C92" s="325"/>
-      <c r="D92" s="326"/>
-      <c r="E92" s="203"/>
-      <c r="F92" s="203"/>
+      <c r="B92" s="352"/>
+      <c r="C92" s="352"/>
+      <c r="D92" s="353"/>
+      <c r="E92" s="234"/>
+      <c r="F92" s="234"/>
       <c r="G92" s="127" t="s">
         <v>131</v>
       </c>
       <c r="H92" s="128"/>
       <c r="I92" s="128"/>
-      <c r="J92" s="205"/>
-      <c r="K92" s="207"/>
-      <c r="L92" s="351"/>
+      <c r="J92" s="236"/>
+      <c r="K92" s="238"/>
+      <c r="L92" s="375"/>
       <c r="M92" s="129"/>
       <c r="N92" s="130"/>
       <c r="O92" s="130"/>
@@ -23348,20 +23245,20 @@
       <c r="GD92" s="130"/>
     </row>
     <row r="93" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A93" s="327"/>
-      <c r="B93" s="328"/>
-      <c r="C93" s="328"/>
-      <c r="D93" s="329"/>
-      <c r="E93" s="204"/>
-      <c r="F93" s="204"/>
+      <c r="A93" s="354"/>
+      <c r="B93" s="355"/>
+      <c r="C93" s="355"/>
+      <c r="D93" s="356"/>
+      <c r="E93" s="235"/>
+      <c r="F93" s="235"/>
       <c r="G93" s="131" t="s">
         <v>134</v>
       </c>
       <c r="H93" s="132"/>
       <c r="I93" s="132"/>
-      <c r="J93" s="206"/>
-      <c r="K93" s="208"/>
-      <c r="L93" s="175"/>
+      <c r="J93" s="237"/>
+      <c r="K93" s="239"/>
+      <c r="L93" s="179"/>
       <c r="M93" s="133"/>
       <c r="N93" s="134"/>
       <c r="O93" s="134"/>
@@ -23538,22 +23435,22 @@
       <c r="GD93" s="134"/>
     </row>
     <row r="94" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A94" s="330"/>
-      <c r="B94" s="332" t="s">
+      <c r="A94" s="357"/>
+      <c r="B94" s="359" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="332"/>
-      <c r="D94" s="333"/>
-      <c r="E94" s="337"/>
-      <c r="F94" s="203"/>
+      <c r="C94" s="359"/>
+      <c r="D94" s="360"/>
+      <c r="E94" s="364"/>
+      <c r="F94" s="234"/>
       <c r="G94" s="127" t="s">
         <v>131</v>
       </c>
       <c r="H94" s="128"/>
       <c r="I94" s="128"/>
-      <c r="J94" s="205"/>
-      <c r="K94" s="207"/>
-      <c r="L94" s="174"/>
+      <c r="J94" s="236"/>
+      <c r="K94" s="238"/>
+      <c r="L94" s="178"/>
       <c r="M94" s="135"/>
       <c r="N94" s="136"/>
       <c r="O94" s="136"/>
@@ -23730,20 +23627,20 @@
       <c r="GD94" s="136"/>
     </row>
     <row r="95" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A95" s="331"/>
-      <c r="B95" s="334"/>
-      <c r="C95" s="335"/>
-      <c r="D95" s="336"/>
-      <c r="E95" s="337"/>
-      <c r="F95" s="204"/>
+      <c r="A95" s="358"/>
+      <c r="B95" s="361"/>
+      <c r="C95" s="362"/>
+      <c r="D95" s="363"/>
+      <c r="E95" s="364"/>
+      <c r="F95" s="235"/>
       <c r="G95" s="131" t="s">
         <v>134</v>
       </c>
       <c r="H95" s="132"/>
       <c r="I95" s="132"/>
-      <c r="J95" s="206"/>
-      <c r="K95" s="208"/>
-      <c r="L95" s="175"/>
+      <c r="J95" s="237"/>
+      <c r="K95" s="239"/>
+      <c r="L95" s="179"/>
       <c r="M95" s="137"/>
       <c r="N95" s="138"/>
       <c r="O95" s="138"/>
@@ -23920,16 +23817,16 @@
       <c r="GD95" s="138"/>
     </row>
     <row r="96" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A96" s="215"/>
-      <c r="B96" s="216"/>
-      <c r="C96" s="176" t="s">
+      <c r="A96" s="246"/>
+      <c r="B96" s="247"/>
+      <c r="C96" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="D96" s="217" t="s">
+      <c r="D96" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="E96" s="203"/>
-      <c r="F96" s="203" t="s">
+      <c r="E96" s="234"/>
+      <c r="F96" s="234" t="s">
         <v>0</v>
       </c>
       <c r="G96" s="127" t="s">
@@ -23937,9 +23834,9 @@
       </c>
       <c r="H96" s="128"/>
       <c r="I96" s="128"/>
-      <c r="J96" s="205"/>
-      <c r="K96" s="207"/>
-      <c r="L96" s="349"/>
+      <c r="J96" s="236"/>
+      <c r="K96" s="238"/>
+      <c r="L96" s="373"/>
       <c r="M96" s="135"/>
       <c r="N96" s="136"/>
       <c r="O96" s="136"/>
@@ -24116,20 +24013,20 @@
       <c r="GD96" s="136"/>
     </row>
     <row r="97" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A97" s="215"/>
-      <c r="B97" s="216"/>
-      <c r="C97" s="176"/>
-      <c r="D97" s="218"/>
-      <c r="E97" s="204"/>
-      <c r="F97" s="204"/>
+      <c r="A97" s="246"/>
+      <c r="B97" s="247"/>
+      <c r="C97" s="180"/>
+      <c r="D97" s="249"/>
+      <c r="E97" s="235"/>
+      <c r="F97" s="235"/>
       <c r="G97" s="131" t="s">
         <v>134</v>
       </c>
       <c r="H97" s="132"/>
       <c r="I97" s="132"/>
-      <c r="J97" s="206"/>
-      <c r="K97" s="208"/>
-      <c r="L97" s="350"/>
+      <c r="J97" s="237"/>
+      <c r="K97" s="239"/>
+      <c r="L97" s="374"/>
       <c r="M97" s="137"/>
       <c r="N97" s="138"/>
       <c r="O97" s="138"/>
@@ -24308,14 +24205,14 @@
     <row r="98" spans="1:186" ht="9" customHeight="1">
       <c r="A98" s="139"/>
       <c r="B98" s="140"/>
-      <c r="C98" s="176" t="s">
+      <c r="C98" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="D98" s="202" t="s">
+      <c r="D98" s="368" t="s">
         <v>75</v>
       </c>
-      <c r="E98" s="203"/>
-      <c r="F98" s="203" t="s">
+      <c r="E98" s="234"/>
+      <c r="F98" s="234" t="s">
         <v>0</v>
       </c>
       <c r="G98" s="127" t="s">
@@ -24323,9 +24220,9 @@
       </c>
       <c r="H98" s="128"/>
       <c r="I98" s="128"/>
-      <c r="J98" s="205"/>
-      <c r="K98" s="207"/>
-      <c r="L98" s="349"/>
+      <c r="J98" s="236"/>
+      <c r="K98" s="238"/>
+      <c r="L98" s="373"/>
       <c r="M98" s="135"/>
       <c r="N98" s="136"/>
       <c r="O98" s="136"/>
@@ -24504,18 +24401,18 @@
     <row r="99" spans="1:186" ht="9" customHeight="1">
       <c r="A99" s="139"/>
       <c r="B99" s="140"/>
-      <c r="C99" s="176"/>
-      <c r="D99" s="178"/>
-      <c r="E99" s="204"/>
-      <c r="F99" s="204"/>
+      <c r="C99" s="180"/>
+      <c r="D99" s="182"/>
+      <c r="E99" s="235"/>
+      <c r="F99" s="235"/>
       <c r="G99" s="141" t="s">
         <v>134</v>
       </c>
       <c r="H99" s="142"/>
       <c r="I99" s="142"/>
-      <c r="J99" s="206"/>
-      <c r="K99" s="208"/>
-      <c r="L99" s="350"/>
+      <c r="J99" s="237"/>
+      <c r="K99" s="239"/>
+      <c r="L99" s="374"/>
       <c r="M99" s="143"/>
       <c r="N99" s="144"/>
       <c r="O99" s="144"/>
@@ -24694,16 +24591,16 @@
     <row r="100" spans="1:186" ht="9" customHeight="1">
       <c r="A100" s="139"/>
       <c r="B100" s="140"/>
-      <c r="C100" s="176" t="s">
+      <c r="C100" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="D100" s="177" t="s">
+      <c r="D100" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="E100" s="219" t="s">
+      <c r="E100" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="F100" s="221" t="s">
+      <c r="F100" s="252" t="s">
         <v>7</v>
       </c>
       <c r="G100" s="127" t="s">
@@ -24711,9 +24608,9 @@
       </c>
       <c r="H100" s="128"/>
       <c r="I100" s="128"/>
-      <c r="J100" s="205"/>
-      <c r="K100" s="207"/>
-      <c r="L100" s="174"/>
+      <c r="J100" s="236"/>
+      <c r="K100" s="238"/>
+      <c r="L100" s="178"/>
       <c r="M100" s="135"/>
       <c r="N100" s="136"/>
       <c r="O100" s="136"/>
@@ -24892,18 +24789,18 @@
     <row r="101" spans="1:186" ht="9" customHeight="1">
       <c r="A101" s="139"/>
       <c r="B101" s="140"/>
-      <c r="C101" s="176"/>
-      <c r="D101" s="178"/>
-      <c r="E101" s="220"/>
-      <c r="F101" s="222"/>
+      <c r="C101" s="180"/>
+      <c r="D101" s="182"/>
+      <c r="E101" s="251"/>
+      <c r="F101" s="253"/>
       <c r="G101" s="141" t="s">
         <v>134</v>
       </c>
       <c r="H101" s="142"/>
       <c r="I101" s="142"/>
-      <c r="J101" s="206"/>
-      <c r="K101" s="208"/>
-      <c r="L101" s="352"/>
+      <c r="J101" s="237"/>
+      <c r="K101" s="239"/>
+      <c r="L101" s="376"/>
       <c r="M101" s="143"/>
       <c r="N101" s="144"/>
       <c r="O101" s="144"/>
@@ -25080,21 +24977,21 @@
       <c r="GD101" s="144"/>
     </row>
     <row r="102" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A102" s="209" t="s">
+      <c r="A102" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="210"/>
-      <c r="C102" s="210"/>
-      <c r="D102" s="211"/>
-      <c r="E102" s="200"/>
-      <c r="F102" s="200"/>
+      <c r="B102" s="241"/>
+      <c r="C102" s="241"/>
+      <c r="D102" s="242"/>
+      <c r="E102" s="229"/>
+      <c r="F102" s="229"/>
       <c r="G102" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H102" s="72"/>
       <c r="I102" s="72"/>
-      <c r="J102" s="239"/>
-      <c r="K102" s="241"/>
+      <c r="J102" s="265"/>
+      <c r="K102" s="254"/>
       <c r="L102" s="90"/>
       <c r="M102" s="100"/>
       <c r="N102" s="14"/>
@@ -25272,19 +25169,19 @@
       <c r="GD102" s="17"/>
     </row>
     <row r="103" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A103" s="212"/>
-      <c r="B103" s="213"/>
-      <c r="C103" s="213"/>
-      <c r="D103" s="214"/>
-      <c r="E103" s="201"/>
-      <c r="F103" s="201"/>
+      <c r="A103" s="243"/>
+      <c r="B103" s="244"/>
+      <c r="C103" s="244"/>
+      <c r="D103" s="245"/>
+      <c r="E103" s="230"/>
+      <c r="F103" s="230"/>
       <c r="G103" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H103" s="73"/>
       <c r="I103" s="73"/>
-      <c r="J103" s="240"/>
-      <c r="K103" s="242"/>
+      <c r="J103" s="266"/>
+      <c r="K103" s="255"/>
       <c r="L103" s="91"/>
       <c r="M103" s="101"/>
       <c r="N103" s="12"/>
@@ -25462,21 +25359,21 @@
       <c r="GD103" s="15"/>
     </row>
     <row r="104" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A104" s="223"/>
-      <c r="B104" s="224" t="s">
+      <c r="A104" s="232"/>
+      <c r="B104" s="365" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="225"/>
-      <c r="D104" s="226"/>
-      <c r="E104" s="198"/>
-      <c r="F104" s="198"/>
+      <c r="C104" s="259"/>
+      <c r="D104" s="260"/>
+      <c r="E104" s="227"/>
+      <c r="F104" s="227"/>
       <c r="G104" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H104" s="72"/>
       <c r="I104" s="72"/>
-      <c r="J104" s="239"/>
-      <c r="K104" s="241"/>
+      <c r="J104" s="265"/>
+      <c r="K104" s="254"/>
       <c r="L104" s="90"/>
       <c r="M104" s="100"/>
       <c r="N104" s="14"/>
@@ -25654,19 +25551,19 @@
       <c r="GD104" s="17"/>
     </row>
     <row r="105" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A105" s="223"/>
-      <c r="B105" s="227"/>
-      <c r="C105" s="228"/>
-      <c r="D105" s="229"/>
-      <c r="E105" s="199"/>
-      <c r="F105" s="199"/>
+      <c r="A105" s="232"/>
+      <c r="B105" s="366"/>
+      <c r="C105" s="261"/>
+      <c r="D105" s="367"/>
+      <c r="E105" s="228"/>
+      <c r="F105" s="228"/>
       <c r="G105" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H105" s="73"/>
       <c r="I105" s="73"/>
-      <c r="J105" s="240"/>
-      <c r="K105" s="242"/>
+      <c r="J105" s="266"/>
+      <c r="K105" s="255"/>
       <c r="L105" s="91"/>
       <c r="M105" s="101"/>
       <c r="N105" s="12"/>
@@ -25844,16 +25741,16 @@
       <c r="GD105" s="15"/>
     </row>
     <row r="106" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A106" s="162"/>
-      <c r="B106" s="163"/>
-      <c r="C106" s="195" t="s">
+      <c r="A106" s="198"/>
+      <c r="B106" s="199"/>
+      <c r="C106" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="D106" s="182" t="s">
+      <c r="D106" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="E106" s="166"/>
-      <c r="F106" s="166" t="s">
+      <c r="E106" s="194"/>
+      <c r="F106" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G106" s="8" t="s">
@@ -25861,11 +25758,11 @@
       </c>
       <c r="H106" s="74"/>
       <c r="I106" s="74"/>
-      <c r="J106" s="168">
+      <c r="J106" s="196">
         <v>1</v>
       </c>
-      <c r="K106" s="170"/>
-      <c r="L106" s="172"/>
+      <c r="K106" s="190"/>
+      <c r="L106" s="202"/>
       <c r="M106" s="102"/>
       <c r="N106" s="14"/>
       <c r="O106" s="14"/>
@@ -26042,20 +25939,20 @@
       <c r="GD106" s="13"/>
     </row>
     <row r="107" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A107" s="162"/>
-      <c r="B107" s="163"/>
-      <c r="C107" s="195"/>
-      <c r="D107" s="188"/>
-      <c r="E107" s="167"/>
-      <c r="F107" s="167"/>
+      <c r="A107" s="198"/>
+      <c r="B107" s="199"/>
+      <c r="C107" s="224"/>
+      <c r="D107" s="217"/>
+      <c r="E107" s="195"/>
+      <c r="F107" s="195"/>
       <c r="G107" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H107" s="75"/>
       <c r="I107" s="75"/>
-      <c r="J107" s="169"/>
-      <c r="K107" s="171"/>
-      <c r="L107" s="173"/>
+      <c r="J107" s="197"/>
+      <c r="K107" s="191"/>
+      <c r="L107" s="203"/>
       <c r="M107" s="103"/>
       <c r="N107" s="12"/>
       <c r="O107" s="12"/>
@@ -26069,13 +25966,13 @@
       <c r="W107" s="11"/>
       <c r="X107" s="11"/>
       <c r="Y107" s="11"/>
-      <c r="Z107" s="362"/>
-      <c r="AA107" s="362"/>
+      <c r="Z107" s="160"/>
+      <c r="AA107" s="160"/>
       <c r="AB107" s="12"/>
       <c r="AC107" s="12"/>
-      <c r="AD107" s="362"/>
-      <c r="AE107" s="362"/>
-      <c r="AF107" s="384"/>
+      <c r="AD107" s="160"/>
+      <c r="AE107" s="160"/>
+      <c r="AF107" s="169"/>
       <c r="AG107" s="11"/>
       <c r="AH107" s="12"/>
       <c r="AI107" s="12"/>
@@ -26232,21 +26129,21 @@
       <c r="GD107" s="11"/>
     </row>
     <row r="108" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A108" s="223"/>
-      <c r="B108" s="224" t="s">
+      <c r="A108" s="232"/>
+      <c r="B108" s="365" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="225"/>
-      <c r="D108" s="226"/>
-      <c r="E108" s="198"/>
-      <c r="F108" s="198"/>
+      <c r="C108" s="259"/>
+      <c r="D108" s="260"/>
+      <c r="E108" s="227"/>
+      <c r="F108" s="227"/>
       <c r="G108" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H108" s="72"/>
       <c r="I108" s="72"/>
-      <c r="J108" s="239"/>
-      <c r="K108" s="241"/>
+      <c r="J108" s="265"/>
+      <c r="K108" s="254"/>
       <c r="L108" s="90"/>
       <c r="M108" s="100"/>
       <c r="N108" s="14"/>
@@ -26424,19 +26321,19 @@
       <c r="GD108" s="17"/>
     </row>
     <row r="109" spans="1:186" ht="8.1" customHeight="1">
-      <c r="A109" s="223"/>
-      <c r="B109" s="227"/>
-      <c r="C109" s="228"/>
-      <c r="D109" s="229"/>
-      <c r="E109" s="199"/>
-      <c r="F109" s="199"/>
+      <c r="A109" s="232"/>
+      <c r="B109" s="366"/>
+      <c r="C109" s="261"/>
+      <c r="D109" s="367"/>
+      <c r="E109" s="228"/>
+      <c r="F109" s="228"/>
       <c r="G109" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H109" s="73"/>
       <c r="I109" s="73"/>
-      <c r="J109" s="240"/>
-      <c r="K109" s="242"/>
+      <c r="J109" s="266"/>
+      <c r="K109" s="255"/>
       <c r="L109" s="91"/>
       <c r="M109" s="101"/>
       <c r="N109" s="12"/>
@@ -26614,16 +26511,16 @@
       <c r="GD109" s="15"/>
     </row>
     <row r="110" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A110" s="162"/>
-      <c r="B110" s="163"/>
-      <c r="C110" s="195" t="s">
+      <c r="A110" s="198"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="D110" s="182" t="s">
+      <c r="D110" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="E110" s="166"/>
-      <c r="F110" s="166" t="s">
+      <c r="E110" s="194"/>
+      <c r="F110" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G110" s="8" t="s">
@@ -26631,11 +26528,11 @@
       </c>
       <c r="H110" s="74"/>
       <c r="I110" s="74"/>
-      <c r="J110" s="168">
+      <c r="J110" s="196">
         <v>0</v>
       </c>
-      <c r="K110" s="170"/>
-      <c r="L110" s="172"/>
+      <c r="K110" s="190"/>
+      <c r="L110" s="202"/>
       <c r="M110" s="102"/>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
@@ -26812,20 +26709,20 @@
       <c r="GD110" s="13"/>
     </row>
     <row r="111" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A111" s="162"/>
-      <c r="B111" s="163"/>
-      <c r="C111" s="195"/>
-      <c r="D111" s="188"/>
-      <c r="E111" s="167"/>
-      <c r="F111" s="167"/>
+      <c r="A111" s="198"/>
+      <c r="B111" s="199"/>
+      <c r="C111" s="224"/>
+      <c r="D111" s="217"/>
+      <c r="E111" s="195"/>
+      <c r="F111" s="195"/>
       <c r="G111" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H111" s="75"/>
       <c r="I111" s="75"/>
-      <c r="J111" s="169"/>
-      <c r="K111" s="171"/>
-      <c r="L111" s="173"/>
+      <c r="J111" s="197"/>
+      <c r="K111" s="191"/>
+      <c r="L111" s="203"/>
       <c r="M111" s="103"/>
       <c r="N111" s="12"/>
       <c r="O111" s="12"/>
@@ -27002,16 +26899,16 @@
       <c r="GD111" s="11"/>
     </row>
     <row r="112" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A112" s="162"/>
-      <c r="B112" s="163"/>
-      <c r="C112" s="195" t="s">
+      <c r="A112" s="198"/>
+      <c r="B112" s="199"/>
+      <c r="C112" s="224" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="355" t="s">
+      <c r="D112" s="393" t="s">
         <v>98</v>
       </c>
-      <c r="E112" s="166"/>
-      <c r="F112" s="166" t="s">
+      <c r="E112" s="194"/>
+      <c r="F112" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G112" s="8" t="s">
@@ -27019,11 +26916,11 @@
       </c>
       <c r="H112" s="74"/>
       <c r="I112" s="74"/>
-      <c r="J112" s="168">
+      <c r="J112" s="196">
         <v>0</v>
       </c>
-      <c r="K112" s="170"/>
-      <c r="L112" s="249"/>
+      <c r="K112" s="190"/>
+      <c r="L112" s="273"/>
       <c r="M112" s="102"/>
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
@@ -27200,20 +27097,20 @@
       <c r="GD112" s="13"/>
     </row>
     <row r="113" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A113" s="162"/>
-      <c r="B113" s="163"/>
-      <c r="C113" s="195"/>
-      <c r="D113" s="356"/>
-      <c r="E113" s="167"/>
-      <c r="F113" s="167"/>
+      <c r="A113" s="198"/>
+      <c r="B113" s="199"/>
+      <c r="C113" s="224"/>
+      <c r="D113" s="394"/>
+      <c r="E113" s="195"/>
+      <c r="F113" s="195"/>
       <c r="G113" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H113" s="75"/>
       <c r="I113" s="75"/>
-      <c r="J113" s="169"/>
-      <c r="K113" s="171"/>
-      <c r="L113" s="340"/>
+      <c r="J113" s="197"/>
+      <c r="K113" s="191"/>
+      <c r="L113" s="370"/>
       <c r="M113" s="103"/>
       <c r="N113" s="12"/>
       <c r="O113" s="12"/>
@@ -27390,16 +27287,16 @@
       <c r="GD113" s="11"/>
     </row>
     <row r="114" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A114" s="162"/>
-      <c r="B114" s="163"/>
-      <c r="C114" s="195" t="s">
+      <c r="A114" s="198"/>
+      <c r="B114" s="199"/>
+      <c r="C114" s="224" t="s">
         <v>173</v>
       </c>
-      <c r="D114" s="355" t="s">
+      <c r="D114" s="393" t="s">
         <v>99</v>
       </c>
-      <c r="E114" s="166"/>
-      <c r="F114" s="166" t="s">
+      <c r="E114" s="194"/>
+      <c r="F114" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G114" s="8" t="s">
@@ -27407,11 +27304,11 @@
       </c>
       <c r="H114" s="74"/>
       <c r="I114" s="74"/>
-      <c r="J114" s="168">
+      <c r="J114" s="196">
         <v>0</v>
       </c>
-      <c r="K114" s="170"/>
-      <c r="L114" s="249"/>
+      <c r="K114" s="190"/>
+      <c r="L114" s="273"/>
       <c r="M114" s="102"/>
       <c r="N114" s="14"/>
       <c r="O114" s="14"/>
@@ -27588,20 +27485,20 @@
       <c r="GD114" s="13"/>
     </row>
     <row r="115" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A115" s="162"/>
-      <c r="B115" s="163"/>
-      <c r="C115" s="195"/>
-      <c r="D115" s="356"/>
-      <c r="E115" s="167"/>
-      <c r="F115" s="167"/>
+      <c r="A115" s="198"/>
+      <c r="B115" s="199"/>
+      <c r="C115" s="224"/>
+      <c r="D115" s="394"/>
+      <c r="E115" s="195"/>
+      <c r="F115" s="195"/>
       <c r="G115" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H115" s="75"/>
       <c r="I115" s="75"/>
-      <c r="J115" s="169"/>
-      <c r="K115" s="171"/>
-      <c r="L115" s="340"/>
+      <c r="J115" s="197"/>
+      <c r="K115" s="191"/>
+      <c r="L115" s="370"/>
       <c r="M115" s="103"/>
       <c r="N115" s="12"/>
       <c r="O115" s="12"/>
@@ -27778,16 +27675,16 @@
       <c r="GD115" s="11"/>
     </row>
     <row r="116" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A116" s="162"/>
-      <c r="B116" s="163"/>
-      <c r="C116" s="195" t="s">
+      <c r="A116" s="198"/>
+      <c r="B116" s="199"/>
+      <c r="C116" s="224" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="182" t="s">
+      <c r="D116" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E116" s="166"/>
-      <c r="F116" s="166" t="s">
+      <c r="E116" s="194"/>
+      <c r="F116" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G116" s="8" t="s">
@@ -27795,11 +27692,11 @@
       </c>
       <c r="H116" s="74"/>
       <c r="I116" s="74"/>
-      <c r="J116" s="168">
+      <c r="J116" s="196">
         <v>0</v>
       </c>
-      <c r="K116" s="170"/>
-      <c r="L116" s="172"/>
+      <c r="K116" s="190"/>
+      <c r="L116" s="202"/>
       <c r="M116" s="102"/>
       <c r="N116" s="14"/>
       <c r="O116" s="14"/>
@@ -27976,20 +27873,20 @@
       <c r="GD116" s="13"/>
     </row>
     <row r="117" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A117" s="162"/>
-      <c r="B117" s="163"/>
-      <c r="C117" s="195"/>
-      <c r="D117" s="188"/>
-      <c r="E117" s="167"/>
-      <c r="F117" s="167"/>
+      <c r="A117" s="198"/>
+      <c r="B117" s="199"/>
+      <c r="C117" s="224"/>
+      <c r="D117" s="217"/>
+      <c r="E117" s="195"/>
+      <c r="F117" s="195"/>
       <c r="G117" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H117" s="75"/>
       <c r="I117" s="75"/>
-      <c r="J117" s="169"/>
-      <c r="K117" s="171"/>
-      <c r="L117" s="173"/>
+      <c r="J117" s="197"/>
+      <c r="K117" s="191"/>
+      <c r="L117" s="203"/>
       <c r="M117" s="103"/>
       <c r="N117" s="12"/>
       <c r="O117" s="12"/>
@@ -28166,21 +28063,21 @@
       <c r="GD117" s="11"/>
     </row>
     <row r="118" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A118" s="341" t="s">
+      <c r="A118" s="369" t="s">
         <v>101</v>
       </c>
-      <c r="B118" s="300"/>
-      <c r="C118" s="300"/>
-      <c r="D118" s="300"/>
-      <c r="E118" s="200"/>
-      <c r="F118" s="200"/>
+      <c r="B118" s="276"/>
+      <c r="C118" s="276"/>
+      <c r="D118" s="276"/>
+      <c r="E118" s="229"/>
+      <c r="F118" s="229"/>
       <c r="G118" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H118" s="72"/>
       <c r="I118" s="72"/>
-      <c r="J118" s="239"/>
-      <c r="K118" s="241"/>
+      <c r="J118" s="265"/>
+      <c r="K118" s="254"/>
       <c r="L118" s="90"/>
       <c r="M118" s="100"/>
       <c r="N118" s="14"/>
@@ -28358,19 +28255,19 @@
       <c r="GD118" s="17"/>
     </row>
     <row r="119" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A119" s="301"/>
-      <c r="B119" s="300"/>
-      <c r="C119" s="300"/>
-      <c r="D119" s="300"/>
-      <c r="E119" s="201"/>
-      <c r="F119" s="201"/>
+      <c r="A119" s="277"/>
+      <c r="B119" s="276"/>
+      <c r="C119" s="276"/>
+      <c r="D119" s="276"/>
+      <c r="E119" s="230"/>
+      <c r="F119" s="230"/>
       <c r="G119" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H119" s="73"/>
       <c r="I119" s="73"/>
-      <c r="J119" s="240"/>
-      <c r="K119" s="242"/>
+      <c r="J119" s="266"/>
+      <c r="K119" s="255"/>
       <c r="L119" s="91"/>
       <c r="M119" s="101"/>
       <c r="N119" s="12"/>
@@ -28548,21 +28445,21 @@
       <c r="GD119" s="15"/>
     </row>
     <row r="120" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A120" s="322"/>
-      <c r="B120" s="225" t="s">
+      <c r="A120" s="231"/>
+      <c r="B120" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="C120" s="225"/>
-      <c r="D120" s="226"/>
-      <c r="E120" s="198"/>
-      <c r="F120" s="198"/>
+      <c r="C120" s="259"/>
+      <c r="D120" s="260"/>
+      <c r="E120" s="227"/>
+      <c r="F120" s="227"/>
       <c r="G120" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H120" s="72"/>
       <c r="I120" s="72"/>
-      <c r="J120" s="239"/>
-      <c r="K120" s="241"/>
+      <c r="J120" s="265"/>
+      <c r="K120" s="254"/>
       <c r="L120" s="90"/>
       <c r="M120" s="100"/>
       <c r="N120" s="14"/>
@@ -28740,19 +28637,19 @@
       <c r="GD120" s="17"/>
     </row>
     <row r="121" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A121" s="223"/>
-      <c r="B121" s="228"/>
-      <c r="C121" s="236"/>
-      <c r="D121" s="237"/>
-      <c r="E121" s="199"/>
-      <c r="F121" s="199"/>
+      <c r="A121" s="232"/>
+      <c r="B121" s="261"/>
+      <c r="C121" s="262"/>
+      <c r="D121" s="263"/>
+      <c r="E121" s="228"/>
+      <c r="F121" s="228"/>
       <c r="G121" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H121" s="73"/>
       <c r="I121" s="73"/>
-      <c r="J121" s="240"/>
-      <c r="K121" s="242"/>
+      <c r="J121" s="266"/>
+      <c r="K121" s="255"/>
       <c r="L121" s="91"/>
       <c r="M121" s="101"/>
       <c r="N121" s="12"/>
@@ -28930,16 +28827,16 @@
       <c r="GD121" s="15"/>
     </row>
     <row r="122" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A122" s="194"/>
-      <c r="B122" s="163"/>
-      <c r="C122" s="195" t="s">
+      <c r="A122" s="223"/>
+      <c r="B122" s="199"/>
+      <c r="C122" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="188" t="s">
+      <c r="D122" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="E122" s="196"/>
-      <c r="F122" s="166" t="s">
+      <c r="E122" s="225"/>
+      <c r="F122" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G122" s="8" t="s">
@@ -28947,9 +28844,9 @@
       </c>
       <c r="H122" s="74"/>
       <c r="I122" s="74"/>
-      <c r="J122" s="168"/>
-      <c r="K122" s="170"/>
-      <c r="L122" s="172"/>
+      <c r="J122" s="196"/>
+      <c r="K122" s="190"/>
+      <c r="L122" s="202"/>
       <c r="M122" s="102"/>
       <c r="N122" s="14"/>
       <c r="O122" s="14"/>
@@ -29126,20 +29023,20 @@
       <c r="GD122" s="13"/>
     </row>
     <row r="123" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A123" s="194"/>
-      <c r="B123" s="163"/>
-      <c r="C123" s="195"/>
-      <c r="D123" s="188"/>
-      <c r="E123" s="197"/>
-      <c r="F123" s="167"/>
+      <c r="A123" s="223"/>
+      <c r="B123" s="199"/>
+      <c r="C123" s="224"/>
+      <c r="D123" s="217"/>
+      <c r="E123" s="226"/>
+      <c r="F123" s="195"/>
       <c r="G123" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H123" s="75"/>
       <c r="I123" s="75"/>
-      <c r="J123" s="169"/>
-      <c r="K123" s="171"/>
-      <c r="L123" s="173"/>
+      <c r="J123" s="197"/>
+      <c r="K123" s="191"/>
+      <c r="L123" s="203"/>
       <c r="M123" s="103"/>
       <c r="N123" s="12"/>
       <c r="O123" s="12"/>
@@ -29316,16 +29213,16 @@
       <c r="GD123" s="11"/>
     </row>
     <row r="124" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A124" s="194"/>
-      <c r="B124" s="163"/>
-      <c r="C124" s="195" t="s">
+      <c r="A124" s="223"/>
+      <c r="B124" s="199"/>
+      <c r="C124" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="182" t="s">
+      <c r="D124" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="E124" s="196"/>
-      <c r="F124" s="166" t="s">
+      <c r="E124" s="225"/>
+      <c r="F124" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G124" s="8" t="s">
@@ -29333,9 +29230,9 @@
       </c>
       <c r="H124" s="74"/>
       <c r="I124" s="74"/>
-      <c r="J124" s="168"/>
-      <c r="K124" s="170"/>
-      <c r="L124" s="172"/>
+      <c r="J124" s="196"/>
+      <c r="K124" s="190"/>
+      <c r="L124" s="202"/>
       <c r="M124" s="102"/>
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
@@ -29512,20 +29409,20 @@
       <c r="GD124" s="13"/>
     </row>
     <row r="125" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A125" s="194"/>
-      <c r="B125" s="163"/>
-      <c r="C125" s="195"/>
-      <c r="D125" s="188"/>
-      <c r="E125" s="197"/>
-      <c r="F125" s="167"/>
+      <c r="A125" s="223"/>
+      <c r="B125" s="199"/>
+      <c r="C125" s="224"/>
+      <c r="D125" s="217"/>
+      <c r="E125" s="226"/>
+      <c r="F125" s="195"/>
       <c r="G125" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H125" s="75"/>
       <c r="I125" s="75"/>
-      <c r="J125" s="169"/>
-      <c r="K125" s="171"/>
-      <c r="L125" s="173"/>
+      <c r="J125" s="197"/>
+      <c r="K125" s="191"/>
+      <c r="L125" s="203"/>
       <c r="M125" s="103"/>
       <c r="N125" s="12"/>
       <c r="O125" s="12"/>
@@ -29702,16 +29599,16 @@
       <c r="GD125" s="11"/>
     </row>
     <row r="126" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A126" s="194"/>
-      <c r="B126" s="163"/>
-      <c r="C126" s="195" t="s">
+      <c r="A126" s="223"/>
+      <c r="B126" s="199"/>
+      <c r="C126" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="182" t="s">
+      <c r="D126" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="E126" s="196"/>
-      <c r="F126" s="166" t="s">
+      <c r="E126" s="225"/>
+      <c r="F126" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G126" s="8" t="s">
@@ -29719,9 +29616,9 @@
       </c>
       <c r="H126" s="74"/>
       <c r="I126" s="74"/>
-      <c r="J126" s="168"/>
-      <c r="K126" s="170"/>
-      <c r="L126" s="249"/>
+      <c r="J126" s="196"/>
+      <c r="K126" s="190"/>
+      <c r="L126" s="273"/>
       <c r="M126" s="102"/>
       <c r="N126" s="14"/>
       <c r="O126" s="14"/>
@@ -29898,20 +29795,20 @@
       <c r="GD126" s="13"/>
     </row>
     <row r="127" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A127" s="194"/>
-      <c r="B127" s="163"/>
-      <c r="C127" s="195"/>
-      <c r="D127" s="188"/>
-      <c r="E127" s="197"/>
-      <c r="F127" s="167"/>
+      <c r="A127" s="223"/>
+      <c r="B127" s="199"/>
+      <c r="C127" s="224"/>
+      <c r="D127" s="217"/>
+      <c r="E127" s="226"/>
+      <c r="F127" s="195"/>
       <c r="G127" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H127" s="75"/>
       <c r="I127" s="75"/>
-      <c r="J127" s="169"/>
-      <c r="K127" s="171"/>
-      <c r="L127" s="340"/>
+      <c r="J127" s="197"/>
+      <c r="K127" s="191"/>
+      <c r="L127" s="370"/>
       <c r="M127" s="105"/>
       <c r="N127" s="12"/>
       <c r="O127" s="12"/>
@@ -30088,16 +29985,16 @@
       <c r="GD127" s="60"/>
     </row>
     <row r="128" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A128" s="194"/>
-      <c r="B128" s="163"/>
-      <c r="C128" s="195" t="s">
+      <c r="A128" s="223"/>
+      <c r="B128" s="199"/>
+      <c r="C128" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="D128" s="182" t="s">
+      <c r="D128" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E128" s="196"/>
-      <c r="F128" s="166" t="s">
+      <c r="E128" s="225"/>
+      <c r="F128" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G128" s="8" t="s">
@@ -30105,9 +30002,9 @@
       </c>
       <c r="H128" s="74"/>
       <c r="I128" s="74"/>
-      <c r="J128" s="168"/>
-      <c r="K128" s="170"/>
-      <c r="L128" s="249"/>
+      <c r="J128" s="196"/>
+      <c r="K128" s="190"/>
+      <c r="L128" s="273"/>
       <c r="M128" s="102"/>
       <c r="N128" s="14"/>
       <c r="O128" s="14"/>
@@ -30284,20 +30181,20 @@
       <c r="GD128" s="13"/>
     </row>
     <row r="129" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A129" s="194"/>
-      <c r="B129" s="163"/>
-      <c r="C129" s="195"/>
-      <c r="D129" s="188"/>
-      <c r="E129" s="197"/>
-      <c r="F129" s="167"/>
+      <c r="A129" s="223"/>
+      <c r="B129" s="199"/>
+      <c r="C129" s="224"/>
+      <c r="D129" s="217"/>
+      <c r="E129" s="226"/>
+      <c r="F129" s="195"/>
       <c r="G129" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H129" s="75"/>
       <c r="I129" s="75"/>
-      <c r="J129" s="169"/>
-      <c r="K129" s="171"/>
-      <c r="L129" s="340"/>
+      <c r="J129" s="197"/>
+      <c r="K129" s="191"/>
+      <c r="L129" s="370"/>
       <c r="M129" s="105"/>
       <c r="N129" s="12"/>
       <c r="O129" s="12"/>
@@ -30474,21 +30371,21 @@
       <c r="GD129" s="60"/>
     </row>
     <row r="130" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A130" s="341" t="s">
+      <c r="A130" s="369" t="s">
         <v>175</v>
       </c>
-      <c r="B130" s="300"/>
-      <c r="C130" s="300"/>
-      <c r="D130" s="300"/>
-      <c r="E130" s="200"/>
-      <c r="F130" s="200"/>
+      <c r="B130" s="276"/>
+      <c r="C130" s="276"/>
+      <c r="D130" s="276"/>
+      <c r="E130" s="229"/>
+      <c r="F130" s="229"/>
       <c r="G130" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H130" s="72"/>
       <c r="I130" s="72"/>
-      <c r="J130" s="239"/>
-      <c r="K130" s="241"/>
+      <c r="J130" s="265"/>
+      <c r="K130" s="254"/>
       <c r="L130" s="90"/>
       <c r="M130" s="100"/>
       <c r="N130" s="14"/>
@@ -30666,19 +30563,19 @@
       <c r="GD130" s="17"/>
     </row>
     <row r="131" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A131" s="301"/>
-      <c r="B131" s="300"/>
-      <c r="C131" s="300"/>
-      <c r="D131" s="300"/>
-      <c r="E131" s="201"/>
-      <c r="F131" s="201"/>
+      <c r="A131" s="277"/>
+      <c r="B131" s="276"/>
+      <c r="C131" s="276"/>
+      <c r="D131" s="276"/>
+      <c r="E131" s="230"/>
+      <c r="F131" s="230"/>
       <c r="G131" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H131" s="73"/>
       <c r="I131" s="73"/>
-      <c r="J131" s="240"/>
-      <c r="K131" s="242"/>
+      <c r="J131" s="266"/>
+      <c r="K131" s="255"/>
       <c r="L131" s="91"/>
       <c r="M131" s="101"/>
       <c r="N131" s="12"/>
@@ -30856,21 +30753,21 @@
       <c r="GD131" s="15"/>
     </row>
     <row r="132" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A132" s="322"/>
-      <c r="B132" s="225" t="s">
+      <c r="A132" s="231"/>
+      <c r="B132" s="259" t="s">
         <v>176</v>
       </c>
-      <c r="C132" s="225"/>
-      <c r="D132" s="226"/>
-      <c r="E132" s="198"/>
-      <c r="F132" s="198"/>
+      <c r="C132" s="259"/>
+      <c r="D132" s="260"/>
+      <c r="E132" s="227"/>
+      <c r="F132" s="227"/>
       <c r="G132" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H132" s="72"/>
       <c r="I132" s="72"/>
-      <c r="J132" s="239"/>
-      <c r="K132" s="241"/>
+      <c r="J132" s="265"/>
+      <c r="K132" s="254"/>
       <c r="L132" s="90"/>
       <c r="M132" s="100"/>
       <c r="N132" s="14"/>
@@ -31048,19 +30945,19 @@
       <c r="GD132" s="17"/>
     </row>
     <row r="133" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A133" s="223"/>
-      <c r="B133" s="228"/>
-      <c r="C133" s="236"/>
-      <c r="D133" s="237"/>
-      <c r="E133" s="199"/>
-      <c r="F133" s="199"/>
+      <c r="A133" s="232"/>
+      <c r="B133" s="261"/>
+      <c r="C133" s="262"/>
+      <c r="D133" s="263"/>
+      <c r="E133" s="228"/>
+      <c r="F133" s="228"/>
       <c r="G133" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H133" s="73"/>
       <c r="I133" s="73"/>
-      <c r="J133" s="240"/>
-      <c r="K133" s="242"/>
+      <c r="J133" s="266"/>
+      <c r="K133" s="255"/>
       <c r="L133" s="91"/>
       <c r="M133" s="101"/>
       <c r="N133" s="12"/>
@@ -31238,16 +31135,16 @@
       <c r="GD133" s="15"/>
     </row>
     <row r="134" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A134" s="194"/>
-      <c r="B134" s="163"/>
-      <c r="C134" s="195" t="s">
+      <c r="A134" s="223"/>
+      <c r="B134" s="199"/>
+      <c r="C134" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="182" t="s">
+      <c r="D134" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="E134" s="196"/>
-      <c r="F134" s="166" t="s">
+      <c r="E134" s="225"/>
+      <c r="F134" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G134" s="8" t="s">
@@ -31255,9 +31152,9 @@
       </c>
       <c r="H134" s="74"/>
       <c r="I134" s="74"/>
-      <c r="J134" s="168"/>
-      <c r="K134" s="170"/>
-      <c r="L134" s="172"/>
+      <c r="J134" s="196"/>
+      <c r="K134" s="190"/>
+      <c r="L134" s="202"/>
       <c r="M134" s="102"/>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
@@ -31434,20 +31331,20 @@
       <c r="GD134" s="13"/>
     </row>
     <row r="135" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A135" s="194"/>
-      <c r="B135" s="163"/>
-      <c r="C135" s="195"/>
-      <c r="D135" s="188"/>
-      <c r="E135" s="197"/>
-      <c r="F135" s="167"/>
+      <c r="A135" s="223"/>
+      <c r="B135" s="199"/>
+      <c r="C135" s="224"/>
+      <c r="D135" s="217"/>
+      <c r="E135" s="226"/>
+      <c r="F135" s="195"/>
       <c r="G135" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H135" s="75"/>
       <c r="I135" s="75"/>
-      <c r="J135" s="169"/>
-      <c r="K135" s="171"/>
-      <c r="L135" s="173"/>
+      <c r="J135" s="197"/>
+      <c r="K135" s="191"/>
+      <c r="L135" s="203"/>
       <c r="M135" s="103"/>
       <c r="N135" s="12"/>
       <c r="O135" s="12"/>
@@ -31624,16 +31521,16 @@
       <c r="GD135" s="11"/>
     </row>
     <row r="136" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A136" s="194"/>
-      <c r="B136" s="163"/>
-      <c r="C136" s="195" t="s">
+      <c r="A136" s="223"/>
+      <c r="B136" s="199"/>
+      <c r="C136" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="D136" s="182" t="s">
+      <c r="D136" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="E136" s="196"/>
-      <c r="F136" s="166" t="s">
+      <c r="E136" s="225"/>
+      <c r="F136" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G136" s="8" t="s">
@@ -31641,9 +31538,9 @@
       </c>
       <c r="H136" s="74"/>
       <c r="I136" s="74"/>
-      <c r="J136" s="168"/>
-      <c r="K136" s="170"/>
-      <c r="L136" s="172"/>
+      <c r="J136" s="196"/>
+      <c r="K136" s="190"/>
+      <c r="L136" s="202"/>
       <c r="M136" s="102"/>
       <c r="N136" s="14"/>
       <c r="O136" s="14"/>
@@ -31820,20 +31717,20 @@
       <c r="GD136" s="13"/>
     </row>
     <row r="137" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A137" s="194"/>
-      <c r="B137" s="163"/>
-      <c r="C137" s="195"/>
-      <c r="D137" s="188"/>
-      <c r="E137" s="197"/>
-      <c r="F137" s="167"/>
+      <c r="A137" s="223"/>
+      <c r="B137" s="199"/>
+      <c r="C137" s="224"/>
+      <c r="D137" s="217"/>
+      <c r="E137" s="226"/>
+      <c r="F137" s="195"/>
       <c r="G137" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H137" s="75"/>
       <c r="I137" s="75"/>
-      <c r="J137" s="169"/>
-      <c r="K137" s="171"/>
-      <c r="L137" s="173"/>
+      <c r="J137" s="197"/>
+      <c r="K137" s="191"/>
+      <c r="L137" s="203"/>
       <c r="M137" s="103"/>
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
@@ -32010,16 +31907,16 @@
       <c r="GD137" s="11"/>
     </row>
     <row r="138" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A138" s="194"/>
-      <c r="B138" s="163"/>
-      <c r="C138" s="195" t="s">
+      <c r="A138" s="223"/>
+      <c r="B138" s="199"/>
+      <c r="C138" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="182" t="s">
+      <c r="D138" s="186" t="s">
         <v>178</v>
       </c>
-      <c r="E138" s="196"/>
-      <c r="F138" s="166" t="s">
+      <c r="E138" s="225"/>
+      <c r="F138" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G138" s="8" t="s">
@@ -32027,9 +31924,9 @@
       </c>
       <c r="H138" s="74"/>
       <c r="I138" s="74"/>
-      <c r="J138" s="168"/>
-      <c r="K138" s="170"/>
-      <c r="L138" s="249"/>
+      <c r="J138" s="196"/>
+      <c r="K138" s="190"/>
+      <c r="L138" s="273"/>
       <c r="M138" s="102"/>
       <c r="N138" s="14"/>
       <c r="O138" s="14"/>
@@ -32206,20 +32103,20 @@
       <c r="GD138" s="13"/>
     </row>
     <row r="139" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A139" s="194"/>
-      <c r="B139" s="163"/>
-      <c r="C139" s="195"/>
-      <c r="D139" s="188"/>
-      <c r="E139" s="197"/>
-      <c r="F139" s="167"/>
+      <c r="A139" s="223"/>
+      <c r="B139" s="199"/>
+      <c r="C139" s="224"/>
+      <c r="D139" s="217"/>
+      <c r="E139" s="226"/>
+      <c r="F139" s="195"/>
       <c r="G139" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H139" s="75"/>
       <c r="I139" s="75"/>
-      <c r="J139" s="169"/>
-      <c r="K139" s="171"/>
-      <c r="L139" s="340"/>
+      <c r="J139" s="197"/>
+      <c r="K139" s="191"/>
+      <c r="L139" s="370"/>
       <c r="M139" s="105"/>
       <c r="N139" s="12"/>
       <c r="O139" s="12"/>
@@ -32396,16 +32293,16 @@
       <c r="GD139" s="60"/>
     </row>
     <row r="140" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A140" s="162"/>
-      <c r="B140" s="163"/>
-      <c r="C140" s="195" t="s">
+      <c r="A140" s="198"/>
+      <c r="B140" s="199"/>
+      <c r="C140" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="D140" s="182" t="s">
+      <c r="D140" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E140" s="196"/>
-      <c r="F140" s="166" t="s">
+      <c r="E140" s="225"/>
+      <c r="F140" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G140" s="8" t="s">
@@ -32413,9 +32310,9 @@
       </c>
       <c r="H140" s="74"/>
       <c r="I140" s="74"/>
-      <c r="J140" s="168"/>
-      <c r="K140" s="170"/>
-      <c r="L140" s="249"/>
+      <c r="J140" s="196"/>
+      <c r="K140" s="190"/>
+      <c r="L140" s="273"/>
       <c r="M140" s="102"/>
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
@@ -32592,20 +32489,20 @@
       <c r="GD140" s="13"/>
     </row>
     <row r="141" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A141" s="162"/>
-      <c r="B141" s="163"/>
-      <c r="C141" s="195"/>
-      <c r="D141" s="188"/>
-      <c r="E141" s="197"/>
-      <c r="F141" s="167"/>
+      <c r="A141" s="198"/>
+      <c r="B141" s="199"/>
+      <c r="C141" s="224"/>
+      <c r="D141" s="217"/>
+      <c r="E141" s="226"/>
+      <c r="F141" s="195"/>
       <c r="G141" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H141" s="75"/>
       <c r="I141" s="75"/>
-      <c r="J141" s="169"/>
-      <c r="K141" s="171"/>
-      <c r="L141" s="340"/>
+      <c r="J141" s="197"/>
+      <c r="K141" s="191"/>
+      <c r="L141" s="370"/>
       <c r="M141" s="105"/>
       <c r="N141" s="12"/>
       <c r="O141" s="12"/>
@@ -32782,21 +32679,21 @@
       <c r="GD141" s="60"/>
     </row>
     <row r="142" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A142" s="341" t="s">
+      <c r="A142" s="369" t="s">
         <v>107</v>
       </c>
-      <c r="B142" s="300"/>
-      <c r="C142" s="300"/>
-      <c r="D142" s="300"/>
-      <c r="E142" s="200"/>
-      <c r="F142" s="200"/>
+      <c r="B142" s="276"/>
+      <c r="C142" s="276"/>
+      <c r="D142" s="276"/>
+      <c r="E142" s="229"/>
+      <c r="F142" s="229"/>
       <c r="G142" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H142" s="72"/>
       <c r="I142" s="72"/>
-      <c r="J142" s="239"/>
-      <c r="K142" s="241"/>
+      <c r="J142" s="265"/>
+      <c r="K142" s="254"/>
       <c r="L142" s="90"/>
       <c r="M142" s="100"/>
       <c r="N142" s="14"/>
@@ -32974,19 +32871,19 @@
       <c r="GD142" s="17"/>
     </row>
     <row r="143" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A143" s="301"/>
-      <c r="B143" s="300"/>
-      <c r="C143" s="300"/>
-      <c r="D143" s="300"/>
-      <c r="E143" s="201"/>
-      <c r="F143" s="201"/>
+      <c r="A143" s="277"/>
+      <c r="B143" s="276"/>
+      <c r="C143" s="276"/>
+      <c r="D143" s="276"/>
+      <c r="E143" s="230"/>
+      <c r="F143" s="230"/>
       <c r="G143" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H143" s="73"/>
       <c r="I143" s="73"/>
-      <c r="J143" s="240"/>
-      <c r="K143" s="242"/>
+      <c r="J143" s="266"/>
+      <c r="K143" s="255"/>
       <c r="L143" s="91"/>
       <c r="M143" s="101"/>
       <c r="N143" s="12"/>
@@ -33164,21 +33061,21 @@
       <c r="GD143" s="15"/>
     </row>
     <row r="144" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A144" s="322"/>
-      <c r="B144" s="225" t="s">
+      <c r="A144" s="231"/>
+      <c r="B144" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="C144" s="225"/>
-      <c r="D144" s="226"/>
-      <c r="E144" s="198"/>
-      <c r="F144" s="198"/>
+      <c r="C144" s="259"/>
+      <c r="D144" s="260"/>
+      <c r="E144" s="227"/>
+      <c r="F144" s="227"/>
       <c r="G144" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H144" s="72"/>
       <c r="I144" s="72"/>
-      <c r="J144" s="239"/>
-      <c r="K144" s="241"/>
+      <c r="J144" s="265"/>
+      <c r="K144" s="254"/>
       <c r="L144" s="90"/>
       <c r="M144" s="100"/>
       <c r="N144" s="14"/>
@@ -33356,19 +33253,19 @@
       <c r="GD144" s="17"/>
     </row>
     <row r="145" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A145" s="223"/>
-      <c r="B145" s="228"/>
-      <c r="C145" s="236"/>
-      <c r="D145" s="237"/>
-      <c r="E145" s="199"/>
-      <c r="F145" s="199"/>
+      <c r="A145" s="232"/>
+      <c r="B145" s="261"/>
+      <c r="C145" s="262"/>
+      <c r="D145" s="263"/>
+      <c r="E145" s="228"/>
+      <c r="F145" s="228"/>
       <c r="G145" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H145" s="73"/>
       <c r="I145" s="73"/>
-      <c r="J145" s="240"/>
-      <c r="K145" s="242"/>
+      <c r="J145" s="266"/>
+      <c r="K145" s="255"/>
       <c r="L145" s="91"/>
       <c r="M145" s="101"/>
       <c r="N145" s="12"/>
@@ -33546,16 +33443,16 @@
       <c r="GD145" s="15"/>
     </row>
     <row r="146" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A146" s="194"/>
-      <c r="B146" s="163"/>
-      <c r="C146" s="195" t="s">
+      <c r="A146" s="223"/>
+      <c r="B146" s="199"/>
+      <c r="C146" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="D146" s="188" t="s">
+      <c r="D146" s="217" t="s">
         <v>109</v>
       </c>
-      <c r="E146" s="196"/>
-      <c r="F146" s="166" t="s">
+      <c r="E146" s="225"/>
+      <c r="F146" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G146" s="8" t="s">
@@ -33563,9 +33460,9 @@
       </c>
       <c r="H146" s="74"/>
       <c r="I146" s="74"/>
-      <c r="J146" s="168"/>
-      <c r="K146" s="170"/>
-      <c r="L146" s="172"/>
+      <c r="J146" s="196"/>
+      <c r="K146" s="190"/>
+      <c r="L146" s="202"/>
       <c r="M146" s="102"/>
       <c r="N146" s="14"/>
       <c r="O146" s="14"/>
@@ -33742,20 +33639,20 @@
       <c r="GD146" s="13"/>
     </row>
     <row r="147" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A147" s="194"/>
-      <c r="B147" s="163"/>
-      <c r="C147" s="195"/>
-      <c r="D147" s="188"/>
-      <c r="E147" s="197"/>
-      <c r="F147" s="167"/>
+      <c r="A147" s="223"/>
+      <c r="B147" s="199"/>
+      <c r="C147" s="224"/>
+      <c r="D147" s="217"/>
+      <c r="E147" s="226"/>
+      <c r="F147" s="195"/>
       <c r="G147" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H147" s="75"/>
       <c r="I147" s="75"/>
-      <c r="J147" s="169"/>
-      <c r="K147" s="171"/>
-      <c r="L147" s="173"/>
+      <c r="J147" s="197"/>
+      <c r="K147" s="191"/>
+      <c r="L147" s="203"/>
       <c r="M147" s="103"/>
       <c r="N147" s="12"/>
       <c r="O147" s="12"/>
@@ -33932,18 +33829,18 @@
       <c r="GD147" s="11"/>
     </row>
     <row r="148" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A148" s="194"/>
-      <c r="B148" s="163"/>
-      <c r="C148" s="195" t="s">
+      <c r="A148" s="223"/>
+      <c r="B148" s="199"/>
+      <c r="C148" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="D148" s="188" t="s">
+      <c r="D148" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="E148" s="166" t="s">
+      <c r="E148" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="F148" s="166" t="s">
+      <c r="F148" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G148" s="8" t="s">
@@ -33951,9 +33848,9 @@
       </c>
       <c r="H148" s="74"/>
       <c r="I148" s="74"/>
-      <c r="J148" s="168"/>
-      <c r="K148" s="170"/>
-      <c r="L148" s="172"/>
+      <c r="J148" s="196"/>
+      <c r="K148" s="190"/>
+      <c r="L148" s="202"/>
       <c r="M148" s="102"/>
       <c r="N148" s="14"/>
       <c r="O148" s="14"/>
@@ -34130,20 +34027,20 @@
       <c r="GD148" s="13"/>
     </row>
     <row r="149" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A149" s="194"/>
-      <c r="B149" s="163"/>
-      <c r="C149" s="195"/>
-      <c r="D149" s="188"/>
-      <c r="E149" s="167"/>
-      <c r="F149" s="167"/>
+      <c r="A149" s="223"/>
+      <c r="B149" s="199"/>
+      <c r="C149" s="224"/>
+      <c r="D149" s="217"/>
+      <c r="E149" s="195"/>
+      <c r="F149" s="195"/>
       <c r="G149" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H149" s="75"/>
       <c r="I149" s="75"/>
-      <c r="J149" s="169"/>
-      <c r="K149" s="171"/>
-      <c r="L149" s="173"/>
+      <c r="J149" s="197"/>
+      <c r="K149" s="191"/>
+      <c r="L149" s="203"/>
       <c r="M149" s="105"/>
       <c r="N149" s="12"/>
       <c r="O149" s="12"/>
@@ -34320,21 +34217,21 @@
       <c r="GD149" s="60"/>
     </row>
     <row r="150" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A150" s="341" t="s">
+      <c r="A150" s="369" t="s">
         <v>179</v>
       </c>
-      <c r="B150" s="300"/>
-      <c r="C150" s="300"/>
-      <c r="D150" s="300"/>
-      <c r="E150" s="200"/>
-      <c r="F150" s="200"/>
+      <c r="B150" s="276"/>
+      <c r="C150" s="276"/>
+      <c r="D150" s="276"/>
+      <c r="E150" s="229"/>
+      <c r="F150" s="229"/>
       <c r="G150" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H150" s="72"/>
       <c r="I150" s="72"/>
-      <c r="J150" s="239"/>
-      <c r="K150" s="241"/>
+      <c r="J150" s="265"/>
+      <c r="K150" s="254"/>
       <c r="L150" s="90"/>
       <c r="M150" s="100"/>
       <c r="N150" s="14"/>
@@ -34512,19 +34409,19 @@
       <c r="GD150" s="17"/>
     </row>
     <row r="151" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A151" s="301"/>
-      <c r="B151" s="300"/>
-      <c r="C151" s="300"/>
-      <c r="D151" s="300"/>
-      <c r="E151" s="201"/>
-      <c r="F151" s="201"/>
+      <c r="A151" s="277"/>
+      <c r="B151" s="276"/>
+      <c r="C151" s="276"/>
+      <c r="D151" s="276"/>
+      <c r="E151" s="230"/>
+      <c r="F151" s="230"/>
       <c r="G151" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H151" s="73"/>
       <c r="I151" s="73"/>
-      <c r="J151" s="240"/>
-      <c r="K151" s="242"/>
+      <c r="J151" s="266"/>
+      <c r="K151" s="255"/>
       <c r="L151" s="91"/>
       <c r="M151" s="101"/>
       <c r="N151" s="12"/>
@@ -34702,21 +34599,21 @@
       <c r="GD151" s="15"/>
     </row>
     <row r="152" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A152" s="322"/>
-      <c r="B152" s="225" t="s">
+      <c r="A152" s="231"/>
+      <c r="B152" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="C152" s="225"/>
-      <c r="D152" s="226"/>
-      <c r="E152" s="198"/>
-      <c r="F152" s="198"/>
+      <c r="C152" s="259"/>
+      <c r="D152" s="260"/>
+      <c r="E152" s="227"/>
+      <c r="F152" s="227"/>
       <c r="G152" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H152" s="72"/>
       <c r="I152" s="72"/>
-      <c r="J152" s="239"/>
-      <c r="K152" s="241"/>
+      <c r="J152" s="265"/>
+      <c r="K152" s="254"/>
       <c r="L152" s="90"/>
       <c r="M152" s="100"/>
       <c r="N152" s="14"/>
@@ -34894,19 +34791,19 @@
       <c r="GD152" s="17"/>
     </row>
     <row r="153" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A153" s="223"/>
-      <c r="B153" s="228"/>
-      <c r="C153" s="236"/>
-      <c r="D153" s="237"/>
-      <c r="E153" s="199"/>
-      <c r="F153" s="199"/>
+      <c r="A153" s="232"/>
+      <c r="B153" s="261"/>
+      <c r="C153" s="262"/>
+      <c r="D153" s="263"/>
+      <c r="E153" s="228"/>
+      <c r="F153" s="228"/>
       <c r="G153" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H153" s="73"/>
       <c r="I153" s="73"/>
-      <c r="J153" s="240"/>
-      <c r="K153" s="242"/>
+      <c r="J153" s="266"/>
+      <c r="K153" s="255"/>
       <c r="L153" s="91"/>
       <c r="M153" s="101"/>
       <c r="N153" s="12"/>
@@ -35084,16 +34981,16 @@
       <c r="GD153" s="15"/>
     </row>
     <row r="154" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A154" s="194"/>
-      <c r="B154" s="163"/>
-      <c r="C154" s="195" t="s">
+      <c r="A154" s="223"/>
+      <c r="B154" s="199"/>
+      <c r="C154" s="224" t="s">
         <v>44</v>
       </c>
-      <c r="D154" s="182" t="s">
+      <c r="D154" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="E154" s="196"/>
-      <c r="F154" s="166" t="s">
+      <c r="E154" s="225"/>
+      <c r="F154" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G154" s="8" t="s">
@@ -35101,9 +34998,9 @@
       </c>
       <c r="H154" s="74"/>
       <c r="I154" s="74"/>
-      <c r="J154" s="168"/>
-      <c r="K154" s="347"/>
-      <c r="L154" s="172"/>
+      <c r="J154" s="196"/>
+      <c r="K154" s="233"/>
+      <c r="L154" s="202"/>
       <c r="M154" s="102"/>
       <c r="N154" s="14"/>
       <c r="O154" s="14"/>
@@ -35280,20 +35177,20 @@
       <c r="GD154" s="13"/>
     </row>
     <row r="155" spans="1:186" s="51" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A155" s="194"/>
-      <c r="B155" s="163"/>
-      <c r="C155" s="195"/>
-      <c r="D155" s="188"/>
-      <c r="E155" s="197"/>
-      <c r="F155" s="167"/>
+      <c r="A155" s="223"/>
+      <c r="B155" s="199"/>
+      <c r="C155" s="224"/>
+      <c r="D155" s="217"/>
+      <c r="E155" s="226"/>
+      <c r="F155" s="195"/>
       <c r="G155" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H155" s="75"/>
       <c r="I155" s="75"/>
-      <c r="J155" s="169"/>
-      <c r="K155" s="171"/>
-      <c r="L155" s="173"/>
+      <c r="J155" s="197"/>
+      <c r="K155" s="191"/>
+      <c r="L155" s="203"/>
       <c r="M155" s="103"/>
       <c r="N155" s="12"/>
       <c r="O155" s="12"/>
@@ -35470,16 +35367,16 @@
       <c r="GD155" s="11"/>
     </row>
     <row r="156" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A156" s="194"/>
-      <c r="B156" s="163"/>
-      <c r="C156" s="195" t="s">
+      <c r="A156" s="223"/>
+      <c r="B156" s="199"/>
+      <c r="C156" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="D156" s="182" t="s">
+      <c r="D156" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="E156" s="196"/>
-      <c r="F156" s="166" t="s">
+      <c r="E156" s="225"/>
+      <c r="F156" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G156" s="8" t="s">
@@ -35487,9 +35384,9 @@
       </c>
       <c r="H156" s="74"/>
       <c r="I156" s="74"/>
-      <c r="J156" s="168"/>
-      <c r="K156" s="170"/>
-      <c r="L156" s="249"/>
+      <c r="J156" s="196"/>
+      <c r="K156" s="190"/>
+      <c r="L156" s="273"/>
       <c r="M156" s="102"/>
       <c r="N156" s="14"/>
       <c r="O156" s="14"/>
@@ -35666,20 +35563,20 @@
       <c r="GD156" s="13"/>
     </row>
     <row r="157" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A157" s="194"/>
-      <c r="B157" s="163"/>
-      <c r="C157" s="195"/>
-      <c r="D157" s="188"/>
-      <c r="E157" s="197"/>
-      <c r="F157" s="167"/>
+      <c r="A157" s="223"/>
+      <c r="B157" s="199"/>
+      <c r="C157" s="224"/>
+      <c r="D157" s="217"/>
+      <c r="E157" s="226"/>
+      <c r="F157" s="195"/>
       <c r="G157" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H157" s="75"/>
       <c r="I157" s="75"/>
-      <c r="J157" s="169"/>
-      <c r="K157" s="171"/>
-      <c r="L157" s="340"/>
+      <c r="J157" s="197"/>
+      <c r="K157" s="191"/>
+      <c r="L157" s="370"/>
       <c r="M157" s="105"/>
       <c r="N157" s="12"/>
       <c r="O157" s="12"/>
@@ -35856,21 +35753,21 @@
       <c r="GD157" s="60"/>
     </row>
     <row r="158" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A158" s="223"/>
-      <c r="B158" s="225" t="s">
+      <c r="A158" s="232"/>
+      <c r="B158" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="C158" s="225"/>
-      <c r="D158" s="226"/>
-      <c r="E158" s="198"/>
-      <c r="F158" s="198"/>
+      <c r="C158" s="259"/>
+      <c r="D158" s="260"/>
+      <c r="E158" s="227"/>
+      <c r="F158" s="227"/>
       <c r="G158" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H158" s="72"/>
       <c r="I158" s="72"/>
-      <c r="J158" s="239"/>
-      <c r="K158" s="241"/>
+      <c r="J158" s="265"/>
+      <c r="K158" s="254"/>
       <c r="L158" s="90"/>
       <c r="M158" s="100"/>
       <c r="N158" s="14"/>
@@ -36048,19 +35945,19 @@
       <c r="GD158" s="17"/>
     </row>
     <row r="159" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A159" s="223"/>
-      <c r="B159" s="228"/>
-      <c r="C159" s="236"/>
-      <c r="D159" s="237"/>
-      <c r="E159" s="199"/>
-      <c r="F159" s="199"/>
+      <c r="A159" s="232"/>
+      <c r="B159" s="261"/>
+      <c r="C159" s="262"/>
+      <c r="D159" s="263"/>
+      <c r="E159" s="228"/>
+      <c r="F159" s="228"/>
       <c r="G159" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H159" s="73"/>
       <c r="I159" s="73"/>
-      <c r="J159" s="240"/>
-      <c r="K159" s="242"/>
+      <c r="J159" s="266"/>
+      <c r="K159" s="255"/>
       <c r="L159" s="91"/>
       <c r="M159" s="101"/>
       <c r="N159" s="12"/>
@@ -36238,16 +36135,16 @@
       <c r="GD159" s="15"/>
     </row>
     <row r="160" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A160" s="194"/>
-      <c r="B160" s="163"/>
-      <c r="C160" s="195" t="s">
+      <c r="A160" s="223"/>
+      <c r="B160" s="199"/>
+      <c r="C160" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="D160" s="182" t="s">
+      <c r="D160" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="E160" s="196"/>
-      <c r="F160" s="166" t="s">
+      <c r="E160" s="225"/>
+      <c r="F160" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G160" s="8" t="s">
@@ -36255,9 +36152,9 @@
       </c>
       <c r="H160" s="74"/>
       <c r="I160" s="74"/>
-      <c r="J160" s="168"/>
-      <c r="K160" s="170"/>
-      <c r="L160" s="353"/>
+      <c r="J160" s="196"/>
+      <c r="K160" s="190"/>
+      <c r="L160" s="388"/>
       <c r="M160" s="102"/>
       <c r="N160" s="14"/>
       <c r="O160" s="14"/>
@@ -36434,20 +36331,20 @@
       <c r="GD160" s="13"/>
     </row>
     <row r="161" spans="1:186" s="51" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A161" s="194"/>
-      <c r="B161" s="163"/>
-      <c r="C161" s="195"/>
-      <c r="D161" s="188"/>
-      <c r="E161" s="197"/>
-      <c r="F161" s="167"/>
+      <c r="A161" s="223"/>
+      <c r="B161" s="199"/>
+      <c r="C161" s="224"/>
+      <c r="D161" s="217"/>
+      <c r="E161" s="226"/>
+      <c r="F161" s="195"/>
       <c r="G161" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H161" s="75"/>
       <c r="I161" s="75"/>
-      <c r="J161" s="169"/>
-      <c r="K161" s="171"/>
-      <c r="L161" s="340"/>
+      <c r="J161" s="197"/>
+      <c r="K161" s="191"/>
+      <c r="L161" s="370"/>
       <c r="M161" s="103"/>
       <c r="N161" s="12"/>
       <c r="O161" s="12"/>
@@ -36624,16 +36521,16 @@
       <c r="GD161" s="11"/>
     </row>
     <row r="162" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A162" s="194"/>
-      <c r="B162" s="163"/>
-      <c r="C162" s="195" t="s">
+      <c r="A162" s="223"/>
+      <c r="B162" s="199"/>
+      <c r="C162" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="D162" s="188" t="s">
+      <c r="D162" s="217" t="s">
         <v>116</v>
       </c>
-      <c r="E162" s="196"/>
-      <c r="F162" s="166" t="s">
+      <c r="E162" s="225"/>
+      <c r="F162" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G162" s="8" t="s">
@@ -36641,9 +36538,9 @@
       </c>
       <c r="H162" s="74"/>
       <c r="I162" s="74"/>
-      <c r="J162" s="168"/>
-      <c r="K162" s="170"/>
-      <c r="L162" s="353"/>
+      <c r="J162" s="196"/>
+      <c r="K162" s="190"/>
+      <c r="L162" s="388"/>
       <c r="M162" s="102"/>
       <c r="N162" s="14"/>
       <c r="O162" s="14"/>
@@ -36820,20 +36717,20 @@
       <c r="GD162" s="13"/>
     </row>
     <row r="163" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A163" s="194"/>
-      <c r="B163" s="163"/>
-      <c r="C163" s="195"/>
-      <c r="D163" s="188"/>
-      <c r="E163" s="197"/>
-      <c r="F163" s="167"/>
+      <c r="A163" s="223"/>
+      <c r="B163" s="199"/>
+      <c r="C163" s="224"/>
+      <c r="D163" s="217"/>
+      <c r="E163" s="226"/>
+      <c r="F163" s="195"/>
       <c r="G163" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H163" s="75"/>
       <c r="I163" s="75"/>
-      <c r="J163" s="169"/>
-      <c r="K163" s="171"/>
-      <c r="L163" s="340"/>
+      <c r="J163" s="197"/>
+      <c r="K163" s="191"/>
+      <c r="L163" s="370"/>
       <c r="M163" s="105"/>
       <c r="N163" s="12"/>
       <c r="O163" s="12"/>
@@ -37010,18 +36907,18 @@
       <c r="GD163" s="60"/>
     </row>
     <row r="164" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A164" s="194"/>
-      <c r="B164" s="163"/>
-      <c r="C164" s="195" t="s">
+      <c r="A164" s="223"/>
+      <c r="B164" s="199"/>
+      <c r="C164" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="D164" s="188" t="s">
+      <c r="D164" s="217" t="s">
         <v>117</v>
       </c>
-      <c r="E164" s="166" t="s">
+      <c r="E164" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="F164" s="166" t="s">
+      <c r="F164" s="194" t="s">
         <v>45</v>
       </c>
       <c r="G164" s="8" t="s">
@@ -37029,9 +36926,9 @@
       </c>
       <c r="H164" s="74"/>
       <c r="I164" s="74"/>
-      <c r="J164" s="168"/>
-      <c r="K164" s="170"/>
-      <c r="L164" s="172"/>
+      <c r="J164" s="196"/>
+      <c r="K164" s="190"/>
+      <c r="L164" s="202"/>
       <c r="M164" s="102"/>
       <c r="N164" s="14"/>
       <c r="O164" s="14"/>
@@ -37208,20 +37105,20 @@
       <c r="GD164" s="13"/>
     </row>
     <row r="165" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A165" s="194"/>
-      <c r="B165" s="163"/>
-      <c r="C165" s="195"/>
-      <c r="D165" s="188"/>
-      <c r="E165" s="167"/>
-      <c r="F165" s="167"/>
+      <c r="A165" s="223"/>
+      <c r="B165" s="199"/>
+      <c r="C165" s="224"/>
+      <c r="D165" s="217"/>
+      <c r="E165" s="195"/>
+      <c r="F165" s="195"/>
       <c r="G165" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H165" s="75"/>
       <c r="I165" s="75"/>
-      <c r="J165" s="169"/>
-      <c r="K165" s="171"/>
-      <c r="L165" s="173"/>
+      <c r="J165" s="197"/>
+      <c r="K165" s="191"/>
+      <c r="L165" s="203"/>
       <c r="M165" s="103"/>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
@@ -37398,18 +37295,18 @@
       <c r="GD165" s="11"/>
     </row>
     <row r="166" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A166" s="194"/>
-      <c r="B166" s="163"/>
-      <c r="C166" s="195" t="s">
+      <c r="A166" s="223"/>
+      <c r="B166" s="199"/>
+      <c r="C166" s="224" t="s">
         <v>53</v>
       </c>
-      <c r="D166" s="188" t="s">
+      <c r="D166" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="E166" s="166" t="s">
+      <c r="E166" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="F166" s="166" t="s">
+      <c r="F166" s="194" t="s">
         <v>45</v>
       </c>
       <c r="G166" s="8" t="s">
@@ -37417,9 +37314,9 @@
       </c>
       <c r="H166" s="74"/>
       <c r="I166" s="74"/>
-      <c r="J166" s="168"/>
-      <c r="K166" s="170"/>
-      <c r="L166" s="249"/>
+      <c r="J166" s="196"/>
+      <c r="K166" s="190"/>
+      <c r="L166" s="273"/>
       <c r="M166" s="102"/>
       <c r="N166" s="14"/>
       <c r="O166" s="14"/>
@@ -37596,20 +37493,20 @@
       <c r="GD166" s="13"/>
     </row>
     <row r="167" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A167" s="194"/>
-      <c r="B167" s="163"/>
-      <c r="C167" s="195"/>
-      <c r="D167" s="188"/>
-      <c r="E167" s="167"/>
-      <c r="F167" s="167"/>
+      <c r="A167" s="223"/>
+      <c r="B167" s="199"/>
+      <c r="C167" s="224"/>
+      <c r="D167" s="217"/>
+      <c r="E167" s="195"/>
+      <c r="F167" s="195"/>
       <c r="G167" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H167" s="75"/>
       <c r="I167" s="75"/>
-      <c r="J167" s="169"/>
-      <c r="K167" s="171"/>
-      <c r="L167" s="340"/>
+      <c r="J167" s="197"/>
+      <c r="K167" s="191"/>
+      <c r="L167" s="370"/>
       <c r="M167" s="105"/>
       <c r="N167" s="12"/>
       <c r="O167" s="12"/>
@@ -37786,18 +37683,18 @@
       <c r="GD167" s="60"/>
     </row>
     <row r="168" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A168" s="162"/>
-      <c r="B168" s="163"/>
-      <c r="C168" s="195" t="s">
+      <c r="A168" s="198"/>
+      <c r="B168" s="199"/>
+      <c r="C168" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="D168" s="182" t="s">
+      <c r="D168" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E168" s="166" t="s">
+      <c r="E168" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="F168" s="166" t="s">
+      <c r="F168" s="194" t="s">
         <v>45</v>
       </c>
       <c r="G168" s="8" t="s">
@@ -37805,9 +37702,9 @@
       </c>
       <c r="H168" s="74"/>
       <c r="I168" s="74"/>
-      <c r="J168" s="168"/>
-      <c r="K168" s="170"/>
-      <c r="L168" s="249"/>
+      <c r="J168" s="196"/>
+      <c r="K168" s="190"/>
+      <c r="L168" s="273"/>
       <c r="M168" s="102"/>
       <c r="N168" s="14"/>
       <c r="O168" s="14"/>
@@ -37984,20 +37881,20 @@
       <c r="GD168" s="13"/>
     </row>
     <row r="169" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A169" s="162"/>
-      <c r="B169" s="163"/>
-      <c r="C169" s="195"/>
-      <c r="D169" s="188"/>
-      <c r="E169" s="167"/>
-      <c r="F169" s="167"/>
+      <c r="A169" s="198"/>
+      <c r="B169" s="199"/>
+      <c r="C169" s="224"/>
+      <c r="D169" s="217"/>
+      <c r="E169" s="195"/>
+      <c r="F169" s="195"/>
       <c r="G169" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H169" s="75"/>
       <c r="I169" s="75"/>
-      <c r="J169" s="169"/>
-      <c r="K169" s="171"/>
-      <c r="L169" s="340"/>
+      <c r="J169" s="197"/>
+      <c r="K169" s="191"/>
+      <c r="L169" s="370"/>
       <c r="M169" s="105"/>
       <c r="N169" s="12"/>
       <c r="O169" s="12"/>
@@ -38174,21 +38071,21 @@
       <c r="GD169" s="60"/>
     </row>
     <row r="170" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A170" s="341" t="s">
+      <c r="A170" s="369" t="s">
         <v>181</v>
       </c>
-      <c r="B170" s="300"/>
-      <c r="C170" s="300"/>
-      <c r="D170" s="300"/>
-      <c r="E170" s="200"/>
-      <c r="F170" s="200"/>
+      <c r="B170" s="276"/>
+      <c r="C170" s="276"/>
+      <c r="D170" s="276"/>
+      <c r="E170" s="229"/>
+      <c r="F170" s="229"/>
       <c r="G170" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H170" s="72"/>
       <c r="I170" s="72"/>
-      <c r="J170" s="239"/>
-      <c r="K170" s="241"/>
+      <c r="J170" s="265"/>
+      <c r="K170" s="254"/>
       <c r="L170" s="90"/>
       <c r="M170" s="100"/>
       <c r="N170" s="14"/>
@@ -38366,19 +38263,19 @@
       <c r="GD170" s="17"/>
     </row>
     <row r="171" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A171" s="301"/>
-      <c r="B171" s="300"/>
-      <c r="C171" s="300"/>
-      <c r="D171" s="300"/>
-      <c r="E171" s="201"/>
-      <c r="F171" s="201"/>
+      <c r="A171" s="277"/>
+      <c r="B171" s="276"/>
+      <c r="C171" s="276"/>
+      <c r="D171" s="276"/>
+      <c r="E171" s="230"/>
+      <c r="F171" s="230"/>
       <c r="G171" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H171" s="73"/>
       <c r="I171" s="73"/>
-      <c r="J171" s="240"/>
-      <c r="K171" s="242"/>
+      <c r="J171" s="266"/>
+      <c r="K171" s="255"/>
       <c r="L171" s="91"/>
       <c r="M171" s="101"/>
       <c r="N171" s="12"/>
@@ -38556,21 +38453,21 @@
       <c r="GD171" s="15"/>
     </row>
     <row r="172" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A172" s="322"/>
-      <c r="B172" s="225" t="s">
+      <c r="A172" s="231"/>
+      <c r="B172" s="259" t="s">
         <v>119</v>
       </c>
-      <c r="C172" s="225"/>
-      <c r="D172" s="226"/>
-      <c r="E172" s="198"/>
-      <c r="F172" s="198"/>
+      <c r="C172" s="259"/>
+      <c r="D172" s="260"/>
+      <c r="E172" s="227"/>
+      <c r="F172" s="227"/>
       <c r="G172" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H172" s="72"/>
       <c r="I172" s="72"/>
-      <c r="J172" s="239"/>
-      <c r="K172" s="241"/>
+      <c r="J172" s="265"/>
+      <c r="K172" s="254"/>
       <c r="L172" s="90"/>
       <c r="M172" s="100"/>
       <c r="N172" s="14"/>
@@ -38748,19 +38645,19 @@
       <c r="GD172" s="17"/>
     </row>
     <row r="173" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A173" s="223"/>
-      <c r="B173" s="228"/>
-      <c r="C173" s="236"/>
-      <c r="D173" s="237"/>
-      <c r="E173" s="199"/>
-      <c r="F173" s="199"/>
+      <c r="A173" s="232"/>
+      <c r="B173" s="261"/>
+      <c r="C173" s="262"/>
+      <c r="D173" s="263"/>
+      <c r="E173" s="228"/>
+      <c r="F173" s="228"/>
       <c r="G173" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H173" s="73"/>
       <c r="I173" s="73"/>
-      <c r="J173" s="240"/>
-      <c r="K173" s="242"/>
+      <c r="J173" s="266"/>
+      <c r="K173" s="255"/>
       <c r="L173" s="91"/>
       <c r="M173" s="101"/>
       <c r="N173" s="12"/>
@@ -38938,16 +38835,16 @@
       <c r="GD173" s="15"/>
     </row>
     <row r="174" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A174" s="194"/>
-      <c r="B174" s="163"/>
-      <c r="C174" s="195" t="s">
+      <c r="A174" s="223"/>
+      <c r="B174" s="199"/>
+      <c r="C174" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="D174" s="188" t="s">
+      <c r="D174" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="E174" s="196"/>
-      <c r="F174" s="166" t="s">
+      <c r="E174" s="225"/>
+      <c r="F174" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G174" s="8" t="s">
@@ -38955,9 +38852,9 @@
       </c>
       <c r="H174" s="74"/>
       <c r="I174" s="74"/>
-      <c r="J174" s="168"/>
-      <c r="K174" s="170"/>
-      <c r="L174" s="353"/>
+      <c r="J174" s="196"/>
+      <c r="K174" s="190"/>
+      <c r="L174" s="388"/>
       <c r="M174" s="102"/>
       <c r="N174" s="14"/>
       <c r="O174" s="14"/>
@@ -39134,20 +39031,20 @@
       <c r="GD174" s="13"/>
     </row>
     <row r="175" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A175" s="194"/>
-      <c r="B175" s="163"/>
-      <c r="C175" s="195"/>
-      <c r="D175" s="188"/>
-      <c r="E175" s="197"/>
-      <c r="F175" s="167"/>
+      <c r="A175" s="223"/>
+      <c r="B175" s="199"/>
+      <c r="C175" s="224"/>
+      <c r="D175" s="217"/>
+      <c r="E175" s="226"/>
+      <c r="F175" s="195"/>
       <c r="G175" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H175" s="75"/>
       <c r="I175" s="75"/>
-      <c r="J175" s="169"/>
-      <c r="K175" s="171"/>
-      <c r="L175" s="340"/>
+      <c r="J175" s="197"/>
+      <c r="K175" s="191"/>
+      <c r="L175" s="370"/>
       <c r="M175" s="103"/>
       <c r="N175" s="12"/>
       <c r="O175" s="12"/>
@@ -39324,16 +39221,16 @@
       <c r="GD175" s="60"/>
     </row>
     <row r="176" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A176" s="194"/>
-      <c r="B176" s="163"/>
-      <c r="C176" s="195" t="s">
+      <c r="A176" s="223"/>
+      <c r="B176" s="199"/>
+      <c r="C176" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="D176" s="188" t="s">
+      <c r="D176" s="217" t="s">
         <v>120</v>
       </c>
-      <c r="E176" s="196"/>
-      <c r="F176" s="166" t="s">
+      <c r="E176" s="225"/>
+      <c r="F176" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G176" s="8" t="s">
@@ -39341,9 +39238,9 @@
       </c>
       <c r="H176" s="74"/>
       <c r="I176" s="74"/>
-      <c r="J176" s="168"/>
-      <c r="K176" s="170"/>
-      <c r="L176" s="353"/>
+      <c r="J176" s="196"/>
+      <c r="K176" s="190"/>
+      <c r="L176" s="388"/>
       <c r="M176" s="102"/>
       <c r="N176" s="14"/>
       <c r="O176" s="14"/>
@@ -39520,20 +39417,20 @@
       <c r="GD176" s="13"/>
     </row>
     <row r="177" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A177" s="194"/>
-      <c r="B177" s="163"/>
-      <c r="C177" s="195"/>
-      <c r="D177" s="188"/>
-      <c r="E177" s="197"/>
-      <c r="F177" s="167"/>
+      <c r="A177" s="223"/>
+      <c r="B177" s="199"/>
+      <c r="C177" s="224"/>
+      <c r="D177" s="217"/>
+      <c r="E177" s="226"/>
+      <c r="F177" s="195"/>
       <c r="G177" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H177" s="75"/>
       <c r="I177" s="75"/>
-      <c r="J177" s="169"/>
-      <c r="K177" s="171"/>
-      <c r="L177" s="340"/>
+      <c r="J177" s="197"/>
+      <c r="K177" s="191"/>
+      <c r="L177" s="370"/>
       <c r="M177" s="105"/>
       <c r="N177" s="12"/>
       <c r="O177" s="12"/>
@@ -39710,16 +39607,16 @@
       <c r="GD177" s="60"/>
     </row>
     <row r="178" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A178" s="194"/>
-      <c r="B178" s="163"/>
-      <c r="C178" s="195" t="s">
+      <c r="A178" s="223"/>
+      <c r="B178" s="199"/>
+      <c r="C178" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="D178" s="188" t="s">
+      <c r="D178" s="217" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="196"/>
-      <c r="F178" s="166" t="s">
+      <c r="E178" s="225"/>
+      <c r="F178" s="194" t="s">
         <v>0</v>
       </c>
       <c r="G178" s="8" t="s">
@@ -39727,9 +39624,9 @@
       </c>
       <c r="H178" s="74"/>
       <c r="I178" s="74"/>
-      <c r="J178" s="168"/>
-      <c r="K178" s="170"/>
-      <c r="L178" s="353"/>
+      <c r="J178" s="196"/>
+      <c r="K178" s="190"/>
+      <c r="L178" s="388"/>
       <c r="M178" s="102"/>
       <c r="N178" s="14"/>
       <c r="O178" s="14"/>
@@ -39906,20 +39803,20 @@
       <c r="GD178" s="13"/>
     </row>
     <row r="179" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
-      <c r="A179" s="194"/>
-      <c r="B179" s="163"/>
-      <c r="C179" s="195"/>
-      <c r="D179" s="348"/>
-      <c r="E179" s="197"/>
-      <c r="F179" s="167"/>
+      <c r="A179" s="223"/>
+      <c r="B179" s="199"/>
+      <c r="C179" s="224"/>
+      <c r="D179" s="384"/>
+      <c r="E179" s="226"/>
+      <c r="F179" s="195"/>
       <c r="G179" s="9" t="s">
         <v>134</v>
       </c>
       <c r="H179" s="75"/>
       <c r="I179" s="75"/>
-      <c r="J179" s="169"/>
-      <c r="K179" s="171"/>
-      <c r="L179" s="340"/>
+      <c r="J179" s="197"/>
+      <c r="K179" s="191"/>
+      <c r="L179" s="370"/>
       <c r="M179" s="105"/>
       <c r="N179" s="12"/>
       <c r="O179" s="12"/>
@@ -40098,16 +39995,16 @@
     <row r="180" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1">
       <c r="A180" s="79"/>
       <c r="B180" s="80"/>
-      <c r="C180" s="385"/>
-      <c r="D180" s="188"/>
-      <c r="E180" s="166"/>
-      <c r="F180" s="166"/>
+      <c r="C180" s="215"/>
+      <c r="D180" s="217"/>
+      <c r="E180" s="194"/>
+      <c r="F180" s="194"/>
       <c r="G180" s="8"/>
       <c r="H180" s="74"/>
       <c r="I180" s="74"/>
-      <c r="J180" s="168"/>
-      <c r="K180" s="192"/>
-      <c r="L180" s="353"/>
+      <c r="J180" s="196"/>
+      <c r="K180" s="221"/>
+      <c r="L180" s="388"/>
       <c r="M180" s="106"/>
       <c r="N180" s="14"/>
       <c r="O180" s="14"/>
@@ -40286,16 +40183,16 @@
     <row r="181" spans="1:186" s="51" customFormat="1" ht="8.1" customHeight="1" thickBot="1">
       <c r="A181" s="107"/>
       <c r="B181" s="108"/>
-      <c r="C181" s="386"/>
-      <c r="D181" s="189"/>
-      <c r="E181" s="190"/>
-      <c r="F181" s="190"/>
+      <c r="C181" s="216"/>
+      <c r="D181" s="218"/>
+      <c r="E181" s="219"/>
+      <c r="F181" s="219"/>
       <c r="G181" s="7"/>
       <c r="H181" s="77"/>
       <c r="I181" s="77"/>
-      <c r="J181" s="191"/>
-      <c r="K181" s="193"/>
-      <c r="L181" s="354"/>
+      <c r="J181" s="220"/>
+      <c r="K181" s="222"/>
+      <c r="L181" s="392"/>
       <c r="M181" s="109"/>
       <c r="N181" s="63"/>
       <c r="O181" s="63"/>
@@ -40513,9 +40410,17 @@
     <mergeCell ref="J156:J157"/>
     <mergeCell ref="K156:K157"/>
     <mergeCell ref="E154:E155"/>
-    <mergeCell ref="L164:L165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="A150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="L162:L163"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="J160:J161"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
     <mergeCell ref="A152:A153"/>
     <mergeCell ref="B152:D153"/>
     <mergeCell ref="E152:E153"/>
@@ -40525,17 +40430,6 @@
     <mergeCell ref="J152:J153"/>
     <mergeCell ref="K152:K153"/>
     <mergeCell ref="L156:L157"/>
-    <mergeCell ref="J158:J159"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="A150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="J168:J169"/>
-    <mergeCell ref="K168:K169"/>
     <mergeCell ref="L168:L169"/>
     <mergeCell ref="A164:A165"/>
     <mergeCell ref="B164:B165"/>
@@ -40545,10 +40439,9 @@
     <mergeCell ref="F164:F165"/>
     <mergeCell ref="J164:J165"/>
     <mergeCell ref="K164:K165"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="L164:L165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="L166:L167"/>
     <mergeCell ref="C140:C141"/>
     <mergeCell ref="F130:F131"/>
     <mergeCell ref="F126:F127"/>
@@ -40556,6 +40449,12 @@
     <mergeCell ref="K120:K121"/>
     <mergeCell ref="J124:J125"/>
     <mergeCell ref="K124:K125"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
     <mergeCell ref="A118:D119"/>
     <mergeCell ref="E118:E119"/>
     <mergeCell ref="F118:F119"/>
@@ -40572,8 +40471,8 @@
     <mergeCell ref="D134:D135"/>
     <mergeCell ref="E134:E135"/>
     <mergeCell ref="F134:F135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
     <mergeCell ref="L134:L135"/>
     <mergeCell ref="A126:A127"/>
     <mergeCell ref="B126:B127"/>
@@ -40583,6 +40482,10 @@
     <mergeCell ref="D124:D125"/>
     <mergeCell ref="A124:A125"/>
     <mergeCell ref="E126:E127"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="L128:L129"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="K126:K127"/>
     <mergeCell ref="L122:L123"/>
     <mergeCell ref="F124:F125"/>
     <mergeCell ref="A122:A123"/>
@@ -40593,7 +40496,6 @@
     <mergeCell ref="F122:F123"/>
     <mergeCell ref="J122:J123"/>
     <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L162:L163"/>
     <mergeCell ref="L174:L175"/>
     <mergeCell ref="L176:L177"/>
     <mergeCell ref="L178:L179"/>
@@ -40618,8 +40520,6 @@
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="D112:D113"/>
     <mergeCell ref="L124:L125"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="L128:L129"/>
     <mergeCell ref="L136:L137"/>
     <mergeCell ref="L138:L139"/>
     <mergeCell ref="L140:L141"/>
@@ -40639,6 +40539,11 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L86:L87"/>
     <mergeCell ref="BM6:CP6"/>
     <mergeCell ref="CQ6:DU6"/>
     <mergeCell ref="A176:A177"/>
@@ -40649,19 +40554,25 @@
     <mergeCell ref="F176:F177"/>
     <mergeCell ref="J176:J177"/>
     <mergeCell ref="K176:K177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="J178:J179"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="J146:J147"/>
+    <mergeCell ref="K146:K147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="J172:J173"/>
+    <mergeCell ref="K172:K173"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
     <mergeCell ref="K178:K179"/>
     <mergeCell ref="D166:D167"/>
     <mergeCell ref="E166:E167"/>
     <mergeCell ref="J166:J167"/>
     <mergeCell ref="K166:K167"/>
-    <mergeCell ref="C162:C163"/>
     <mergeCell ref="B166:B167"/>
     <mergeCell ref="C166:C167"/>
     <mergeCell ref="A174:A175"/>
@@ -40672,39 +40583,25 @@
     <mergeCell ref="F174:F175"/>
     <mergeCell ref="J174:J175"/>
     <mergeCell ref="K174:K175"/>
-    <mergeCell ref="J146:J147"/>
-    <mergeCell ref="K146:K147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
     <mergeCell ref="B172:D173"/>
     <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="J172:J173"/>
-    <mergeCell ref="K172:K173"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="J160:J161"/>
-    <mergeCell ref="K160:K161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="K162:K163"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="K168:K169"/>
     <mergeCell ref="D154:D155"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="J178:J179"/>
+    <mergeCell ref="J158:J159"/>
     <mergeCell ref="DV6:EZ6"/>
     <mergeCell ref="FA6:GD6"/>
     <mergeCell ref="A130:D131"/>
@@ -40748,8 +40645,11 @@
     <mergeCell ref="K148:K149"/>
     <mergeCell ref="A142:D143"/>
     <mergeCell ref="E142:E143"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="F150:F151"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="F112:F113"/>
@@ -40768,6 +40668,12 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="K70:K71"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="C106:C107"/>
@@ -40784,12 +40690,14 @@
     <mergeCell ref="K118:K119"/>
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="C112:C113"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
     <mergeCell ref="K170:K171"/>
     <mergeCell ref="B158:D159"/>
     <mergeCell ref="E158:E159"/>
@@ -40802,23 +40710,18 @@
     <mergeCell ref="A144:A145"/>
     <mergeCell ref="B144:D145"/>
     <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
     <mergeCell ref="F166:F167"/>
     <mergeCell ref="F168:F169"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
     <mergeCell ref="A110:A111"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="C110:C111"/>
@@ -40833,9 +40736,16 @@
     <mergeCell ref="F94:F95"/>
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="K94:K95"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
     <mergeCell ref="J90:J91"/>
     <mergeCell ref="K90:K91"/>
     <mergeCell ref="A90:A91"/>
@@ -40851,6 +40761,12 @@
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="F90:F91"/>
     <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
@@ -40872,8 +40788,9 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
@@ -40888,8 +40805,16 @@
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="D70:D71"/>
-    <mergeCell ref="K36:K37"/>
     <mergeCell ref="A46:D47"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A82:A83"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="J46:J47"/>
@@ -40919,7 +40844,10 @@
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -40929,15 +40857,6 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="A18:A19"/>
@@ -40946,6 +40865,9 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="M6:AG6"/>
+    <mergeCell ref="AH6:BL6"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
@@ -40963,16 +40885,28 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="AT1:BJ1"/>
-    <mergeCell ref="BK1:BQ1"/>
-    <mergeCell ref="BR1:BX1"/>
-    <mergeCell ref="BY1:CE1"/>
-    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="CF1:CL1"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="AT2:BJ3"/>
@@ -40982,29 +40916,11 @@
     <mergeCell ref="CF2:CL3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="E1:K1"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="AT1:BJ1"/>
+    <mergeCell ref="BK1:BQ1"/>
+    <mergeCell ref="BR1:BX1"/>
+    <mergeCell ref="BY1:CE1"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="J42:J43"/>
@@ -41017,6 +40933,18 @@
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C38:C39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="J50:J51"/>
@@ -41032,17 +40960,15 @@
     <mergeCell ref="E84:E85"/>
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="E70:E71"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="J64:J65"/>
     <mergeCell ref="L88:L89"/>
     <mergeCell ref="L70:L71"/>
     <mergeCell ref="A54:A55"/>
@@ -41067,18 +40993,6 @@
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="J58:J59"/>
     <mergeCell ref="K58:K59"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="D82:D83"/>
@@ -41088,20 +41002,6 @@
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="E80:E81"/>
     <mergeCell ref="F80:F81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="F98:F99"/>
     <mergeCell ref="J98:J99"/>
@@ -41166,7 +41066,6 @@
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="F64:F65"/>
-    <mergeCell ref="J64:J65"/>
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="L64:L65"/>
     <mergeCell ref="L60:L61"/>
@@ -41197,6 +41096,7 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="J72:J73"/>
     <mergeCell ref="K72:K73"/>
+    <mergeCell ref="E68:E69"/>
     <mergeCell ref="L94:L95"/>
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="D100:D101"/>
@@ -41212,8 +41112,6 @@
     <mergeCell ref="J78:J79"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="M6:AG6"/>
-    <mergeCell ref="AH6:BL6"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="K78:K79"/>
@@ -41223,171 +41121,170 @@
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E26 E90">
-    <cfRule type="expression" dxfId="59" priority="829" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="829" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="830" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="830" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="831" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="831" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174 E154 E146 E160 E124 E136 E122 E134">
-    <cfRule type="expression" dxfId="56" priority="826" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="826" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="827" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="827" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="828" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="828" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180:F180 E176 E178 E140 E162 E126 E128 E138 E156">
-    <cfRule type="expression" dxfId="53" priority="637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="637" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="638" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="639" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="51" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="43" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="44" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="45" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="41" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="42" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="38" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="36" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86 E88">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>OR(#REF!="完了",#REF!="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>OR(#REF!="不要",#REF!="不要")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>#REF!=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
